--- a/smseventlog/_resources/csv/FH Frame Cracks History.xlsx
+++ b/smseventlog/_resources/csv/FH Frame Cracks History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jayme/OneDrive/Python/SMS/smseventlog/data/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jayme/OneDrive/Python/SMS/smseventlog/_resources/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC13579-D2C8-524A-965E-E00A7C1A7894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0D8EFE-9A10-C14C-8AA4-F9892405A85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43340" yWindow="2460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7217" uniqueCount="2441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7263" uniqueCount="2453">
   <si>
     <t/>
   </si>
@@ -7305,18 +7305,12 @@
     <t>USAAB202008776</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>F0308 - Repair dump body cracks</t>
   </si>
   <si>
     <t>F0308-STRUCTR-BODYGP-DUMPBODY</t>
   </si>
   <si>
-    <t>left_only</t>
-  </si>
-  <si>
     <t>F0313 - REPAIR FRAME CRACK</t>
   </si>
   <si>
@@ -7377,9 +7371,6 @@
     <t>Frame Crack Repair</t>
   </si>
   <si>
-    <t>right_only</t>
-  </si>
-  <si>
     <t>Frame Crack - 6 Inch LHS Upper Frame Behind Int Torque Tube</t>
   </si>
   <si>
@@ -7393,6 +7384,51 @@
   </si>
   <si>
     <t>Crack located on rear fuel tank hanger (mid)</t>
+  </si>
+  <si>
+    <t>F0306 - Repair frame crack LHS</t>
+  </si>
+  <si>
+    <t>Completed by SMS.</t>
+  </si>
+  <si>
+    <t>F0319- RH rear strut bearing cracked</t>
+  </si>
+  <si>
+    <t>F0319-WHEELST-RESUSP-STRUT_RR</t>
+  </si>
+  <si>
+    <t>Pictures and downloads are in the folder, frame inspection in folder</t>
+  </si>
+  <si>
+    <t>F0324 - Repair frame crack - LHS</t>
+  </si>
+  <si>
+    <t>F0324-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Crack located on rear fuel tank hanger (mid). Tank was removed. Crack not located by NDT. No repair required. Removal of tank based off of NDT confirmation at last PM. Tim Ross informed.  Cancel WO and move labour to Suncor WO 8400051 - DH</t>
+  </si>
+  <si>
+    <t>F0338 - Repair RHS Frame Crack</t>
+  </si>
+  <si>
+    <t>F0338-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>F0338 - Repair Crack in Accum. Mount LHS</t>
+  </si>
+  <si>
+    <t>Downloads, frame inspection and photos in folder - DH</t>
+  </si>
+  <si>
+    <t>USAAB202010705</t>
+  </si>
+  <si>
+    <t>F0346 - Repair Frame Crack **warranty)**</t>
+  </si>
+  <si>
+    <t>F0346-STRUCTR-FRMGRP-MAINFRAME</t>
   </si>
 </sst>
 </file>
@@ -7450,7 +7486,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7603,11 +7659,131 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7678,27 +7854,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N696" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:N696" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N704" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="A1:N704" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N651">
     <sortCondition ref="E2:E651"/>
     <sortCondition ref="F2:F651"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7714,7 +7890,7 @@
     <tableColumn id="2" xr3:uid="{8BEF7178-E3B4-D149-A75C-2EC7E1E9CBA7}" name="Notification"/>
     <tableColumn id="3" xr3:uid="{11DB8A07-87AD-FE46-8761-2170FE8BBA14}" name="Order"/>
     <tableColumn id="4" xr3:uid="{BBFD0320-2E12-F24A-805F-F04232B9497B}" name="Description2"/>
-    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="30"/>
     <tableColumn id="6" xr3:uid="{FC0BCB59-BFC5-0643-9D08-977DACD51993}" name="Functional Loc."/>
     <tableColumn id="7" xr3:uid="{016A5D1D-804A-2249-9172-09491E3480EC}" name="Location"/>
     <tableColumn id="9" xr3:uid="{C484CC0E-6555-E74D-8560-E8B5B04E61D3}" name="Unit"/>
@@ -8044,10 +8220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F275D9-6D58-E546-9951-5DFEA9FF85BC}">
-  <dimension ref="A1:N696"/>
+  <dimension ref="A1:N704"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A685" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F697" sqref="F697"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A693" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H701" sqref="H701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8111,7 +8287,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>905011834</v>
       </c>
@@ -8215,7 +8391,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
@@ -8279,7 +8455,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>904286435</v>
       </c>
@@ -8311,7 +8487,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>904425709</v>
       </c>
@@ -8345,7 +8521,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -8381,7 +8557,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -8417,7 +8593,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -8453,7 +8629,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>904582443</v>
       </c>
@@ -8519,7 +8695,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>904631893</v>
       </c>
@@ -8553,7 +8729,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>904693571</v>
       </c>
@@ -8587,7 +8763,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>904714411</v>
       </c>
@@ -8621,7 +8797,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>904765067</v>
       </c>
@@ -8655,7 +8831,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>904919396</v>
       </c>
@@ -8721,7 +8897,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>905134236</v>
       </c>
@@ -8753,7 +8929,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>905196112</v>
       </c>
@@ -8789,7 +8965,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>905196087</v>
       </c>
@@ -8825,7 +9001,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>905262435</v>
       </c>
@@ -8893,7 +9069,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>905262431</v>
       </c>
@@ -8927,7 +9103,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>905264862</v>
       </c>
@@ -9041,7 +9217,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>904357179</v>
       </c>
@@ -9073,7 +9249,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>904377747</v>
       </c>
@@ -9139,7 +9315,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -9173,7 +9349,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>904696951</v>
       </c>
@@ -9207,7 +9383,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>905031763</v>
       </c>
@@ -9241,7 +9417,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>905162307</v>
       </c>
@@ -9275,7 +9451,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>905162306</v>
       </c>
@@ -9309,7 +9485,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>905162303</v>
       </c>
@@ -9377,7 +9553,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -9407,7 +9583,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>905342002</v>
       </c>
@@ -9451,7 +9627,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>904256009</v>
       </c>
@@ -9517,7 +9693,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>904641561</v>
       </c>
@@ -9585,7 +9761,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>904672569</v>
       </c>
@@ -9679,7 +9855,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>905054155</v>
       </c>
@@ -9753,7 +9929,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>905243205</v>
       </c>
@@ -9787,7 +9963,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="208" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -9883,7 +10059,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -9947,7 +10123,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>904437149</v>
       </c>
@@ -10015,7 +10191,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>904515662</v>
       </c>
@@ -10049,7 +10225,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>904706242</v>
       </c>
@@ -10111,7 +10287,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>904762807</v>
       </c>
@@ -10177,7 +10353,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3">
         <v>31446988</v>
@@ -10209,7 +10385,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>905033272</v>
       </c>
@@ -10243,7 +10419,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>905033274</v>
       </c>
@@ -10307,7 +10483,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>905033273</v>
       </c>
@@ -10341,7 +10517,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>905049347</v>
       </c>
@@ -10411,7 +10587,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>905183360</v>
       </c>
@@ -10449,7 +10625,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>905312172</v>
       </c>
@@ -10493,7 +10669,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -10525,7 +10701,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>904451269</v>
       </c>
@@ -10627,7 +10803,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>904576751</v>
       </c>
@@ -10751,7 +10927,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>904685904</v>
       </c>
@@ -10785,7 +10961,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>904685550</v>
       </c>
@@ -10819,7 +10995,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3">
         <v>313356390</v>
@@ -10857,7 +11033,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3">
         <v>31491883</v>
@@ -10889,7 +11065,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>905180003</v>
       </c>
@@ -10921,7 +11097,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>905180153</v>
       </c>
@@ -10987,7 +11163,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3">
         <v>31512958</v>
@@ -11025,7 +11201,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -11059,7 +11235,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
@@ -11119,7 +11295,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
@@ -11149,7 +11325,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
@@ -11183,7 +11359,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>905371033</v>
       </c>
@@ -11217,7 +11393,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>905371555</v>
       </c>
@@ -11251,7 +11427,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>905371554</v>
       </c>
@@ -11319,7 +11495,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>904307978</v>
       </c>
@@ -11351,7 +11527,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>904363845</v>
       </c>
@@ -11385,7 +11561,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>904398338</v>
       </c>
@@ -11577,7 +11753,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>904624733</v>
       </c>
@@ -11611,7 +11787,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>904659509</v>
       </c>
@@ -11717,7 +11893,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>904850116</v>
       </c>
@@ -11811,7 +11987,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>905013453</v>
       </c>
@@ -11845,7 +12021,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>905057009</v>
       </c>
@@ -11879,7 +12055,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>905132546</v>
       </c>
@@ -12007,7 +12183,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>905159724</v>
       </c>
@@ -12051,7 +12227,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>905159724</v>
       </c>
@@ -12095,7 +12271,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>905276465</v>
       </c>
@@ -12133,7 +12309,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>905331739</v>
       </c>
@@ -12295,7 +12471,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>904400898</v>
       </c>
@@ -12329,7 +12505,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
@@ -12397,7 +12573,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>904491625</v>
       </c>
@@ -12505,7 +12681,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>904725912</v>
       </c>
@@ -12539,7 +12715,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>904852897</v>
       </c>
@@ -12611,7 +12787,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>904949285</v>
       </c>
@@ -12645,7 +12821,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>905080742</v>
       </c>
@@ -12679,7 +12855,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>905080743</v>
       </c>
@@ -12821,7 +12997,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
@@ -12851,7 +13027,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>905127932</v>
       </c>
@@ -12893,7 +13069,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>905158675</v>
       </c>
@@ -12971,7 +13147,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>904415045</v>
       </c>
@@ -13037,7 +13213,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>904609658</v>
       </c>
@@ -13071,7 +13247,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>904767156</v>
       </c>
@@ -13105,7 +13281,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>905020755</v>
       </c>
@@ -13139,7 +13315,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>905096656</v>
       </c>
@@ -13173,7 +13349,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>905174528</v>
       </c>
@@ -13211,7 +13387,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>905289564</v>
       </c>
@@ -13255,7 +13431,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>904409406</v>
       </c>
@@ -13289,7 +13465,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>904466382</v>
       </c>
@@ -13323,7 +13499,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
@@ -13359,7 +13535,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>904470294</v>
       </c>
@@ -13423,7 +13599,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>904647691</v>
       </c>
@@ -13457,7 +13633,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>904693703</v>
       </c>
@@ -13491,7 +13667,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>904710183</v>
       </c>
@@ -13525,7 +13701,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>905053114</v>
       </c>
@@ -13597,7 +13773,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>905174520</v>
       </c>
@@ -13631,7 +13807,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3">
         <v>31544405</v>
@@ -13669,7 +13845,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3">
         <v>31544405</v>
@@ -13739,7 +13915,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>905331205</v>
       </c>
@@ -13773,7 +13949,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>905331221</v>
       </c>
@@ -13807,7 +13983,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>904413008</v>
       </c>
@@ -13841,7 +14017,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>904454176</v>
       </c>
@@ -13875,7 +14051,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>904538358</v>
       </c>
@@ -13909,7 +14085,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>904538359</v>
       </c>
@@ -13943,7 +14119,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>904976298</v>
       </c>
@@ -14011,7 +14187,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>905236354</v>
       </c>
@@ -14055,7 +14231,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
@@ -14135,7 +14311,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>905296701</v>
       </c>
@@ -14169,7 +14345,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>905296707</v>
       </c>
@@ -14203,7 +14379,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>904245952</v>
       </c>
@@ -14335,7 +14511,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>904683665</v>
       </c>
@@ -14399,7 +14575,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>904683664</v>
       </c>
@@ -14433,7 +14609,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>904683669</v>
       </c>
@@ -14467,7 +14643,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>904683667</v>
       </c>
@@ -14499,7 +14675,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>904683720</v>
       </c>
@@ -14571,7 +14747,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>905002936</v>
       </c>
@@ -14611,7 +14787,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3">
         <v>31497908</v>
@@ -14645,7 +14821,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3">
         <v>31498043</v>
@@ -14749,7 +14925,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>905270552</v>
       </c>
@@ -14823,7 +14999,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>905340166</v>
       </c>
@@ -14857,7 +15033,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>904350437</v>
       </c>
@@ -14959,7 +15135,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>904468582</v>
       </c>
@@ -15025,7 +15201,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>904647935</v>
       </c>
@@ -15167,7 +15343,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>904916299</v>
       </c>
@@ -15365,7 +15541,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>905173922</v>
       </c>
@@ -15399,7 +15575,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>905173923</v>
       </c>
@@ -15475,7 +15651,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>905242627</v>
       </c>
@@ -15517,7 +15693,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="2"/>
@@ -15619,7 +15795,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>904315876</v>
       </c>
@@ -15653,7 +15829,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>904315878</v>
       </c>
@@ -15687,7 +15863,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>904315870</v>
       </c>
@@ -15719,7 +15895,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>904434033</v>
       </c>
@@ -15787,7 +15963,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="225" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>904434126</v>
       </c>
@@ -15821,7 +15997,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>904440507</v>
       </c>
@@ -15857,7 +16033,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>904467816</v>
       </c>
@@ -15955,7 +16131,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>904617780</v>
       </c>
@@ -15989,7 +16165,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>904646674</v>
       </c>
@@ -16023,7 +16199,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>904894914</v>
       </c>
@@ -16057,7 +16233,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>905030418</v>
       </c>
@@ -16091,7 +16267,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>905030805</v>
       </c>
@@ -16125,7 +16301,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>905030419</v>
       </c>
@@ -16235,7 +16411,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="2"/>
@@ -16295,7 +16471,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>905166156</v>
       </c>
@@ -16329,7 +16505,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>905166158</v>
       </c>
@@ -16363,7 +16539,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>905166159</v>
       </c>
@@ -16429,7 +16605,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>905166220</v>
       </c>
@@ -16473,7 +16649,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>905166220</v>
       </c>
@@ -16517,7 +16693,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="246" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>905166220</v>
       </c>
@@ -16561,7 +16737,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>905339650</v>
       </c>
@@ -16595,7 +16771,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>905344166</v>
       </c>
@@ -16639,7 +16815,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>904401347</v>
       </c>
@@ -16743,7 +16919,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="252" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>904538352</v>
       </c>
@@ -16809,7 +16985,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="254" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>904563682</v>
       </c>
@@ -16843,7 +17019,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="255" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>904605516</v>
       </c>
@@ -16877,7 +17053,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="256" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>904625511</v>
       </c>
@@ -16911,7 +17087,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="257" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>904625512</v>
       </c>
@@ -16945,7 +17121,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="258" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>904658346</v>
       </c>
@@ -17055,7 +17231,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="261" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>905142708</v>
       </c>
@@ -17089,7 +17265,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="262" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>905143630</v>
       </c>
@@ -17123,7 +17299,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="263" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>905210155</v>
       </c>
@@ -17161,7 +17337,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="264" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>905210155</v>
       </c>
@@ -17199,7 +17375,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="265" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>905262224</v>
       </c>
@@ -17233,7 +17409,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="266" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>905264989</v>
       </c>
@@ -17267,7 +17443,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="267" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>905265010</v>
       </c>
@@ -17301,7 +17477,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="268" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>905265011</v>
       </c>
@@ -17335,7 +17511,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="269" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>905265012</v>
       </c>
@@ -17437,7 +17613,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="272" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>904366691</v>
       </c>
@@ -17471,7 +17647,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>904367875</v>
       </c>
@@ -17505,7 +17681,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="274" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>904454472</v>
       </c>
@@ -17573,7 +17749,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>904535144</v>
       </c>
@@ -17639,7 +17815,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>904629641</v>
       </c>
@@ -17673,7 +17849,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>904657536</v>
       </c>
@@ -17745,7 +17921,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="281" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>904814620</v>
       </c>
@@ -17779,7 +17955,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="282" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>905035100</v>
       </c>
@@ -17813,7 +17989,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="283" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>905035105</v>
       </c>
@@ -17847,7 +18023,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="284" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>905109733</v>
       </c>
@@ -17881,7 +18057,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>905109731</v>
       </c>
@@ -17915,7 +18091,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="2"/>
@@ -17945,7 +18121,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="287" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="2"/>
@@ -17975,7 +18151,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="288" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="2"/>
@@ -18009,7 +18185,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="289" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>905292049</v>
       </c>
@@ -18043,7 +18219,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="290" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>905350954</v>
       </c>
@@ -18083,7 +18259,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="291" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>905350954</v>
       </c>
@@ -18157,7 +18333,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="293" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>904517824</v>
       </c>
@@ -18315,7 +18491,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="298" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>905145286</v>
       </c>
@@ -18383,7 +18559,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="300" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>905208392</v>
       </c>
@@ -18427,7 +18603,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="301" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>905273504</v>
       </c>
@@ -18499,7 +18675,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="303" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>904644332</v>
       </c>
@@ -18533,7 +18709,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="304" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>904693599</v>
       </c>
@@ -18605,7 +18781,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="306" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>904805927</v>
       </c>
@@ -18677,7 +18853,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="308" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>904968135</v>
       </c>
@@ -18719,7 +18895,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="309" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>905201293</v>
       </c>
@@ -18753,7 +18929,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="310" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>905201292</v>
       </c>
@@ -18787,7 +18963,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="311" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>905201291</v>
       </c>
@@ -18825,7 +19001,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="312" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>904364717</v>
       </c>
@@ -18859,7 +19035,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="313" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>904533649</v>
       </c>
@@ -18893,7 +19069,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="314" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>904548412</v>
       </c>
@@ -19001,7 +19177,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="317" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>904821403</v>
       </c>
@@ -19095,7 +19271,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="320" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>905171401</v>
       </c>
@@ -19129,7 +19305,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="321" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>905172830</v>
       </c>
@@ -19171,7 +19347,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="322" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>904359364</v>
       </c>
@@ -19205,7 +19381,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="323" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>904457989</v>
       </c>
@@ -19239,7 +19415,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="324" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>904459801</v>
       </c>
@@ -19273,7 +19449,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="325" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>904459802</v>
       </c>
@@ -19307,7 +19483,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="326" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>904541307</v>
       </c>
@@ -19341,7 +19517,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="327" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>904570054</v>
       </c>
@@ -19375,7 +19551,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="328" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>904600947</v>
       </c>
@@ -19409,7 +19585,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="329" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>904855286</v>
       </c>
@@ -19447,7 +19623,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="330" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>905075665</v>
       </c>
@@ -19481,7 +19657,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="331" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>905196875</v>
       </c>
@@ -19515,7 +19691,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="332" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>905196876</v>
       </c>
@@ -19581,7 +19757,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="334" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>905262964</v>
       </c>
@@ -19615,7 +19791,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="335" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>905266269</v>
       </c>
@@ -19649,7 +19825,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="336" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>905319371</v>
       </c>
@@ -19723,7 +19899,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="338" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>904523240</v>
       </c>
@@ -19787,7 +19963,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="340" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>904693601</v>
       </c>
@@ -19889,7 +20065,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="343" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>904990287</v>
       </c>
@@ -19995,7 +20171,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="346" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
       <c r="B346" s="3">
         <v>31537813</v>
@@ -20031,7 +20207,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="347" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
       <c r="B347" s="3">
         <v>31569416</v>
@@ -20063,7 +20239,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="348" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>904519330</v>
       </c>
@@ -20097,7 +20273,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="349" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>904519289</v>
       </c>
@@ -20233,7 +20409,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="353" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="2"/>
@@ -20267,7 +20443,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="354" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>904645340</v>
       </c>
@@ -20301,7 +20477,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>904682660</v>
       </c>
@@ -20335,7 +20511,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="356" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>904731625</v>
       </c>
@@ -20369,7 +20545,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>904923590</v>
       </c>
@@ -20403,7 +20579,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="358" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>904925738</v>
       </c>
@@ -20437,7 +20613,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="359" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>905048797</v>
       </c>
@@ -20471,7 +20647,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="360" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>905048796</v>
       </c>
@@ -20539,7 +20715,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
         <v>905179672</v>
       </c>
@@ -20577,7 +20753,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>905294498</v>
       </c>
@@ -20645,7 +20821,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>905346120</v>
       </c>
@@ -20689,7 +20865,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="366" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>905346076</v>
       </c>
@@ -20727,7 +20903,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="367" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>904492387</v>
       </c>
@@ -20761,7 +20937,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="368" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>904537307</v>
       </c>
@@ -20825,7 +21001,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="370" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>904611137</v>
       </c>
@@ -20859,7 +21035,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="371" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>904611114</v>
       </c>
@@ -20893,7 +21069,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="372" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>904690961</v>
       </c>
@@ -21003,7 +21179,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="375" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>905094978</v>
       </c>
@@ -21037,7 +21213,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="376" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>905094979</v>
       </c>
@@ -21071,7 +21247,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="377" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>904239680</v>
       </c>
@@ -21105,7 +21281,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="378" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>904270527</v>
       </c>
@@ -21139,7 +21315,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="379" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>904383650</v>
       </c>
@@ -21173,7 +21349,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="380" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>904394241</v>
       </c>
@@ -21207,7 +21383,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="381" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>904516382</v>
       </c>
@@ -21273,7 +21449,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="383" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>904646228</v>
       </c>
@@ -21341,7 +21517,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="385" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>905161444</v>
       </c>
@@ -21375,7 +21551,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="386" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>905162335</v>
       </c>
@@ -21441,7 +21617,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="388" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="2"/>
@@ -21477,7 +21653,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="389" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="2"/>
@@ -21513,7 +21689,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="390" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="2"/>
@@ -21549,7 +21725,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="391" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>904453446</v>
       </c>
@@ -21677,7 +21853,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="395" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>904605653</v>
       </c>
@@ -21711,7 +21887,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="396" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>904635149</v>
       </c>
@@ -21745,7 +21921,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="397" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>904994672</v>
       </c>
@@ -21779,7 +21955,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="398" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>904994673</v>
       </c>
@@ -21851,7 +22027,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="400" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>905253592</v>
       </c>
@@ -21935,7 +22111,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="402" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>904349491</v>
       </c>
@@ -21969,7 +22145,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="403" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>904349493</v>
       </c>
@@ -22003,7 +22179,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="404" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>904349490</v>
       </c>
@@ -22071,7 +22247,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="406" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
         <v>904577271</v>
       </c>
@@ -22137,7 +22313,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="408" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>904607720</v>
       </c>
@@ -22199,7 +22375,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="410" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>904677674</v>
       </c>
@@ -22233,7 +22409,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="411" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>904709118</v>
       </c>
@@ -22305,7 +22481,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="413" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>905166600</v>
       </c>
@@ -22339,7 +22515,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="414" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>905222511</v>
       </c>
@@ -22373,7 +22549,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="415" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>905222513</v>
       </c>
@@ -22407,7 +22583,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="416" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
         <v>905281151</v>
       </c>
@@ -22451,7 +22627,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="417" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>905281151</v>
       </c>
@@ -22493,7 +22669,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="418" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
         <v>905283122</v>
       </c>
@@ -22535,7 +22711,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="419" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>905354387</v>
       </c>
@@ -22569,7 +22745,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="420" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>904304599</v>
       </c>
@@ -22637,7 +22813,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="422" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>904416813</v>
       </c>
@@ -22671,7 +22847,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="423" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>904522071</v>
       </c>
@@ -22705,7 +22881,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="424" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>904551384</v>
       </c>
@@ -22769,7 +22945,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="426" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
         <v>904642023</v>
       </c>
@@ -22909,7 +23085,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="430" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>905228130</v>
       </c>
@@ -22943,7 +23119,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="431" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>905227698</v>
       </c>
@@ -22985,7 +23161,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="432" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>905261581</v>
       </c>
@@ -23021,7 +23197,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="433" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>905317330</v>
       </c>
@@ -23053,7 +23229,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="434" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A434" s="3"/>
       <c r="B434" s="3">
         <v>46338649</v>
@@ -23117,7 +23293,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="436" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
         <v>904487277</v>
       </c>
@@ -23211,7 +23387,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="439" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
         <v>904593122</v>
       </c>
@@ -23245,7 +23421,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="440" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="2"/>
@@ -23309,7 +23485,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="442" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A442" s="3">
         <v>904778159</v>
       </c>
@@ -23381,7 +23557,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="444" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
         <v>905078009</v>
       </c>
@@ -23451,7 +23627,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="446" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
         <v>904284567</v>
       </c>
@@ -23485,7 +23661,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="447" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
         <v>904382292</v>
       </c>
@@ -23553,7 +23729,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="449" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
         <v>904381184</v>
       </c>
@@ -23587,7 +23763,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="450" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
         <v>904536113</v>
       </c>
@@ -23655,7 +23831,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="452" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A452" s="3">
         <v>904573180</v>
       </c>
@@ -23723,7 +23899,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="454" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>904605624</v>
       </c>
@@ -23757,7 +23933,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="455" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>904638400</v>
       </c>
@@ -23947,7 +24123,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="460" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
         <v>905240866</v>
       </c>
@@ -23989,7 +24165,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="461" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
         <v>905294964</v>
       </c>
@@ -24057,7 +24233,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="463" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
         <v>905294752</v>
       </c>
@@ -24091,7 +24267,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="464" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A464" s="3">
         <v>905294980</v>
       </c>
@@ -24125,7 +24301,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="465" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
         <v>904284434</v>
       </c>
@@ -24189,7 +24365,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="467" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>904487833</v>
       </c>
@@ -24223,7 +24399,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="468" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
         <v>904487835</v>
       </c>
@@ -24287,7 +24463,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="470" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
         <v>904575922</v>
       </c>
@@ -24351,7 +24527,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="472" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>904604379</v>
       </c>
@@ -24417,7 +24593,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="474" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
         <v>905158787</v>
       </c>
@@ -24521,7 +24697,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="477" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>905277941</v>
       </c>
@@ -24555,7 +24731,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="478" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="2"/>
@@ -24589,7 +24765,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="479" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A479" s="3">
         <v>904394072</v>
       </c>
@@ -24623,7 +24799,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="480" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A480" s="3">
         <v>904492382</v>
       </c>
@@ -24685,7 +24861,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="482" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A482" s="3">
         <v>904533729</v>
       </c>
@@ -24719,7 +24895,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="483" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A483" s="3">
         <v>904560430</v>
       </c>
@@ -24785,7 +24961,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="485" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>904592157</v>
       </c>
@@ -24943,7 +25119,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="490" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
         <v>905004080</v>
       </c>
@@ -24981,7 +25157,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="491" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
         <v>905005121</v>
       </c>
@@ -25015,7 +25191,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="492" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A492" s="3">
         <v>905005122</v>
       </c>
@@ -25087,7 +25263,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="494" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>905141940</v>
       </c>
@@ -25159,7 +25335,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="496" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A496" s="3"/>
       <c r="B496" s="3">
         <v>31261020</v>
@@ -25287,7 +25463,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="500" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A500" s="3">
         <v>904586556</v>
       </c>
@@ -25355,7 +25531,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="502" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A502" s="3">
         <v>904647827</v>
       </c>
@@ -25419,7 +25595,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="504" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A504" s="3">
         <v>904981320</v>
       </c>
@@ -25453,7 +25629,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="505" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A505" s="3">
         <v>905219543</v>
       </c>
@@ -25619,7 +25795,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="510" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A510" s="3">
         <v>904592511</v>
       </c>
@@ -25653,7 +25829,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="511" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A511" s="3">
         <v>904651804</v>
       </c>
@@ -25757,7 +25933,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="514" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A514" s="3">
         <v>905108260</v>
       </c>
@@ -25791,7 +25967,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="515" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>905229449</v>
       </c>
@@ -25859,7 +26035,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="517" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A517" s="3">
         <v>904384453</v>
       </c>
@@ -25893,7 +26069,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="518" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="2"/>
@@ -25929,7 +26105,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="519" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A519" s="3">
         <v>904451027</v>
       </c>
@@ -26061,7 +26237,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="523" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A523" s="3">
         <v>904658687</v>
       </c>
@@ -26095,7 +26271,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="524" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A524" s="3">
         <v>904968536</v>
       </c>
@@ -26167,7 +26343,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="526" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A526" s="3">
         <v>905019058</v>
       </c>
@@ -26239,7 +26415,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="528" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A528" s="3">
         <v>905019071</v>
       </c>
@@ -26301,7 +26477,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="530" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A530" s="3">
         <v>905211409</v>
       </c>
@@ -26399,7 +26575,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="533" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A533" s="3">
         <v>904451021</v>
       </c>
@@ -26433,7 +26609,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="534" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A534" s="3">
         <v>904451022</v>
       </c>
@@ -26467,7 +26643,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="535" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A535" s="3">
         <v>904516184</v>
       </c>
@@ -26661,7 +26837,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="541" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A541" s="3">
         <v>904606510</v>
       </c>
@@ -26729,7 +26905,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="543" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="2"/>
@@ -26801,7 +26977,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="545" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A545" s="3">
         <v>905146648</v>
       </c>
@@ -26835,7 +27011,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="546" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A546" s="3">
         <v>905211450</v>
       </c>
@@ -26899,7 +27075,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="548" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A548" s="3">
         <v>905258154</v>
       </c>
@@ -26937,7 +27113,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="549" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A549" s="3">
         <v>905258154</v>
       </c>
@@ -26975,7 +27151,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="550" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A550" s="3">
         <v>904574909</v>
       </c>
@@ -27075,7 +27251,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="553" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A553" s="3">
         <v>904938797</v>
       </c>
@@ -27109,7 +27285,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="554" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="2"/>
@@ -27143,7 +27319,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="555" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A555" s="3">
         <v>905076747</v>
       </c>
@@ -27175,7 +27351,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="556" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A556" s="3">
         <v>905076748</v>
       </c>
@@ -27277,7 +27453,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="559" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A559" s="3">
         <v>905249577</v>
       </c>
@@ -27311,7 +27487,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="560" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A560" s="3">
         <v>905306640</v>
       </c>
@@ -27345,7 +27521,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="561" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A561" s="3">
         <v>904559061</v>
       </c>
@@ -27413,7 +27589,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="563" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A563" s="3">
         <v>904559038</v>
       </c>
@@ -27447,7 +27623,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="564" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A564" s="3">
         <v>904559025</v>
       </c>
@@ -27481,7 +27657,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="565" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A565" s="3">
         <v>904625187</v>
       </c>
@@ -27579,7 +27755,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="568" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A568" s="3">
         <v>904713231</v>
       </c>
@@ -27719,7 +27895,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="572" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A572" s="3">
         <v>905142256</v>
       </c>
@@ -27753,7 +27929,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="573" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A573" s="3">
         <v>905142398</v>
       </c>
@@ -27825,7 +28001,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="575" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A575" s="3">
         <v>905266106</v>
       </c>
@@ -27985,7 +28161,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="580" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A580" s="3">
         <v>904765770</v>
       </c>
@@ -28029,7 +28205,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="581" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A581" s="3">
         <v>904955111</v>
       </c>
@@ -28063,7 +28239,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="582" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A582" s="3">
         <v>905134551</v>
       </c>
@@ -28097,7 +28273,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="583" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A583" s="3">
         <v>904624826</v>
       </c>
@@ -28131,7 +28307,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="584" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A584" s="3">
         <v>904710301</v>
       </c>
@@ -28165,7 +28341,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="585" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A585" s="3">
         <v>905111404</v>
       </c>
@@ -28197,7 +28373,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="586" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A586" s="3">
         <v>905172440</v>
       </c>
@@ -28231,7 +28407,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="587" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A587" s="3">
         <v>905172466</v>
       </c>
@@ -28265,7 +28441,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="588" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A588" s="3">
         <v>904539925</v>
       </c>
@@ -28299,7 +28475,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="589" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A589" s="3">
         <v>904607033</v>
       </c>
@@ -28397,7 +28573,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="592" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A592" s="3">
         <v>905078992</v>
       </c>
@@ -28461,7 +28637,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="594" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A594" s="3">
         <v>904555928</v>
       </c>
@@ -28495,7 +28671,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="595" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A595" s="3">
         <v>904711154</v>
       </c>
@@ -28727,7 +28903,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="602" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A602" s="3">
         <v>905300990</v>
       </c>
@@ -28759,7 +28935,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="603" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A603" s="3">
         <v>904565277</v>
       </c>
@@ -28793,7 +28969,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="604" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A604" s="3"/>
       <c r="B604" s="3">
         <v>31427583</v>
@@ -28825,7 +29001,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="605" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A605" s="3">
         <v>905017187</v>
       </c>
@@ -28859,7 +29035,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="606" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A606" s="3">
         <v>905090751</v>
       </c>
@@ -28893,7 +29069,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="607" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A607" s="3">
         <v>905153903</v>
       </c>
@@ -28965,7 +29141,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="609" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A609" s="3">
         <v>905276456</v>
       </c>
@@ -29009,7 +29185,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="610" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A610" s="3">
         <v>905276482</v>
       </c>
@@ -29043,7 +29219,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="611" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A611" s="3">
         <v>905276480</v>
       </c>
@@ -29077,7 +29253,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="612" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A612" s="3">
         <v>905276459</v>
       </c>
@@ -29141,7 +29317,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="614" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A614" s="3">
         <v>904763493</v>
       </c>
@@ -29263,7 +29439,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="618" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A618" s="3">
         <v>904983092</v>
       </c>
@@ -29299,7 +29475,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="619" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A619" s="3">
         <v>905115540</v>
       </c>
@@ -29333,7 +29509,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="620" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A620" s="3">
         <v>905179246</v>
       </c>
@@ -29367,7 +29543,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="621" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A621" s="3">
         <v>905287942</v>
       </c>
@@ -29401,7 +29577,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="622" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A622" s="3">
         <v>904595575</v>
       </c>
@@ -29493,7 +29669,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="625" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A625" s="3">
         <v>905193177</v>
       </c>
@@ -29557,7 +29733,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="627" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A627" s="3">
         <v>904629304</v>
       </c>
@@ -29591,7 +29767,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="628" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A628" s="3">
         <v>904629307</v>
       </c>
@@ -29717,7 +29893,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="632" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="2"/>
@@ -29747,7 +29923,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="633" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A633" s="3">
         <v>905225524</v>
       </c>
@@ -29819,7 +29995,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="635" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A635" s="3">
         <v>905342976</v>
       </c>
@@ -29851,7 +30027,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="636" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A636" s="3"/>
       <c r="B636" s="3">
         <v>31429706</v>
@@ -29915,7 +30091,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="638" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A638" s="3">
         <v>905049556</v>
       </c>
@@ -29949,7 +30125,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="639" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="2"/>
@@ -30013,7 +30189,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="641" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A641" s="3">
         <v>904707937</v>
       </c>
@@ -30177,7 +30353,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="646" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A646" s="3">
         <v>905107957</v>
       </c>
@@ -30245,7 +30421,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="648" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A648" s="3">
         <v>905177087</v>
       </c>
@@ -30279,7 +30455,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="649" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A649" s="3">
         <v>905177161</v>
       </c>
@@ -30313,7 +30489,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="650" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A650" s="3">
         <v>905086559</v>
       </c>
@@ -30353,7 +30529,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="651" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A651" s="3">
         <v>905143358</v>
       </c>
@@ -30387,7 +30563,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="652" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A652" s="3">
         <v>905399918</v>
       </c>
@@ -30495,7 +30671,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="655" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A655" s="3">
         <v>905399471</v>
       </c>
@@ -30527,7 +30703,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="656" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A656" s="3"/>
       <c r="B656" s="3">
         <v>3159891</v>
@@ -30565,7 +30741,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="657" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A657" s="3"/>
       <c r="B657" s="3">
         <v>46615340</v>
@@ -30713,7 +30889,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="661" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A661" s="3">
         <v>905405730</v>
       </c>
@@ -31051,7 +31227,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="671" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="2"/>
@@ -31213,7 +31389,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="676" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A676" s="3"/>
       <c r="B676" s="3">
         <v>46628733</v>
@@ -31355,7 +31531,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="680" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A680" s="3"/>
       <c r="B680" s="3">
         <v>46628367</v>
@@ -31422,7 +31598,7 @@
         <v>2270</v>
       </c>
       <c r="N681" s="2" t="s">
-        <v>2411</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="682" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -31433,10 +31609,10 @@
         <v>31609519</v>
       </c>
       <c r="C682" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D682" s="2" t="s">
         <v>2412</v>
-      </c>
-      <c r="D682" s="2" t="s">
-        <v>2413</v>
       </c>
       <c r="E682" s="3" t="s">
         <v>1720</v>
@@ -31456,7 +31632,7 @@
         <v>1746</v>
       </c>
       <c r="N682" s="2" t="s">
-        <v>2414</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="683" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -31467,10 +31643,10 @@
         <v>31609966</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="E683" s="3" t="s">
         <v>1703</v>
@@ -31482,23 +31658,23 @@
         <v>23777</v>
       </c>
       <c r="H683" s="2" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="I683" s="2" t="s">
         <v>1807</v>
       </c>
       <c r="J683" s="2"/>
       <c r="K683" s="2" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="L683" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="M683" s="3" t="s">
         <v>2270</v>
       </c>
       <c r="N683" s="2" t="s">
-        <v>2411</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="684" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -31516,19 +31692,19 @@
         <v>22579</v>
       </c>
       <c r="H684" s="2" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="I684" s="2"/>
       <c r="J684" s="2"/>
       <c r="K684" s="2" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="L684" s="3"/>
       <c r="M684" s="3" t="s">
         <v>2270</v>
       </c>
       <c r="N684" s="2" t="s">
-        <v>2411</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="685" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -31539,7 +31715,7 @@
         <v>31613896</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="D685" s="2" t="s">
         <v>2360</v>
@@ -31559,14 +31735,14 @@
       <c r="I685" s="2"/>
       <c r="J685" s="2"/>
       <c r="K685" s="2" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="L685" s="3"/>
       <c r="M685" s="3" t="s">
         <v>2270</v>
       </c>
       <c r="N685" s="2" t="s">
-        <v>2411</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="686" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -31584,7 +31760,7 @@
         <v>22282</v>
       </c>
       <c r="H686" s="2" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="I686" s="2"/>
       <c r="J686" s="2"/>
@@ -31596,7 +31772,7 @@
         <v>2270</v>
       </c>
       <c r="N686" s="2" t="s">
-        <v>2411</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="687" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -31607,10 +31783,10 @@
         <v>31613027</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="E687" s="3" t="s">
         <v>1734</v>
@@ -31627,14 +31803,14 @@
       <c r="I687" s="2"/>
       <c r="J687" s="2"/>
       <c r="K687" s="2" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="L687" s="3"/>
       <c r="M687" s="3" t="s">
         <v>2270</v>
       </c>
       <c r="N687" s="2" t="s">
-        <v>2411</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="688" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -31645,7 +31821,7 @@
         <v>31613030</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="D688" s="2" t="s">
         <v>2366</v>
@@ -31665,14 +31841,14 @@
       <c r="I688" s="2"/>
       <c r="J688" s="2"/>
       <c r="K688" s="2" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="L688" s="3"/>
       <c r="M688" s="3" t="s">
         <v>2270</v>
       </c>
       <c r="N688" s="2" t="s">
-        <v>2411</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="689" spans="1:14" ht="64" x14ac:dyDescent="0.2">
@@ -31695,14 +31871,14 @@
       <c r="I689" s="2"/>
       <c r="J689" s="2"/>
       <c r="K689" s="2" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="L689" s="3"/>
       <c r="M689" s="3" t="s">
         <v>2270</v>
       </c>
       <c r="N689" s="2" t="s">
-        <v>2411</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="690" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -31713,10 +31889,10 @@
         <v>31615239</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="E690" s="3" t="s">
         <v>1701</v>
@@ -31736,7 +31912,7 @@
         <v>1746</v>
       </c>
       <c r="N690" s="2" t="s">
-        <v>2414</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="691" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -31747,7 +31923,7 @@
         <v>31617698</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="D691" s="2" t="s">
         <v>2402</v>
@@ -31770,7 +31946,7 @@
         <v>2270</v>
       </c>
       <c r="N691" s="2" t="s">
-        <v>2414</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="692" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -31790,7 +31966,7 @@
         <v>22282</v>
       </c>
       <c r="H692" s="2" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="I692" s="2"/>
       <c r="J692" s="2"/>
@@ -31802,7 +31978,7 @@
         <v>2272</v>
       </c>
       <c r="N692" s="2" t="s">
-        <v>2435</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="693" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -31813,10 +31989,10 @@
         <v>31619894</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="E693" s="3" t="s">
         <v>1735</v>
@@ -31828,7 +32004,7 @@
         <v>17962</v>
       </c>
       <c r="H693" s="2" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="I693" s="2"/>
       <c r="J693" s="2"/>
@@ -31840,7 +32016,7 @@
         <v>2270</v>
       </c>
       <c r="N693" s="2" t="s">
-        <v>2411</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="694" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -31851,10 +32027,10 @@
         <v>31620292</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="E694" s="3" t="s">
         <v>1735</v>
@@ -31874,7 +32050,7 @@
         <v>2270</v>
       </c>
       <c r="N694" s="2" t="s">
-        <v>2414</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="695" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -31906,7 +32082,7 @@
         <v>2270</v>
       </c>
       <c r="N695" s="2" t="s">
-        <v>2435</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="696" spans="1:14" ht="32" x14ac:dyDescent="0.2">
@@ -31929,65 +32105,353 @@
       <c r="I696" s="2"/>
       <c r="J696" s="2"/>
       <c r="K696" s="2" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="L696" s="3"/>
       <c r="M696" s="3" t="s">
         <v>2270</v>
       </c>
       <c r="N696" s="2" t="s">
-        <v>2411</v>
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="697" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A697" s="3">
+        <v>905496659</v>
+      </c>
+      <c r="B697" s="3">
+        <v>31626991</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F697" s="4">
+        <v>44124</v>
+      </c>
+      <c r="G697" s="6">
+        <v>25758</v>
+      </c>
+      <c r="H697" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I697" s="2"/>
+      <c r="J697" s="2"/>
+      <c r="K697" s="2" t="s">
+        <v>2439</v>
+      </c>
+      <c r="L697" s="3"/>
+      <c r="M697" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N697" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="698" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A698" s="3">
+        <v>905486068</v>
+      </c>
+      <c r="B698" s="3">
+        <v>46656101</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F698" s="4">
+        <v>44114</v>
+      </c>
+      <c r="G698" s="6">
+        <v>22299</v>
+      </c>
+      <c r="H698" s="2"/>
+      <c r="I698" s="2"/>
+      <c r="J698" s="2"/>
+      <c r="K698" s="2"/>
+      <c r="L698" s="3"/>
+      <c r="M698" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N698" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="699" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A699" s="3"/>
+      <c r="B699" s="3">
+        <v>65107615</v>
+      </c>
+      <c r="C699" s="2"/>
+      <c r="D699" s="2"/>
+      <c r="E699" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F699" s="4">
+        <v>44130</v>
+      </c>
+      <c r="G699" s="6">
+        <v>19997</v>
+      </c>
+      <c r="H699" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="I699" s="2"/>
+      <c r="J699" s="2"/>
+      <c r="K699" s="2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="L699" s="3"/>
+      <c r="M699" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N699" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="700" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A700" s="3">
+        <v>905503640</v>
+      </c>
+      <c r="B700" s="3">
+        <v>31629913</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F700" s="4">
+        <v>44131</v>
+      </c>
+      <c r="G700" s="6">
+        <v>20138</v>
+      </c>
+      <c r="H700" s="2"/>
+      <c r="I700" s="2"/>
+      <c r="J700" s="2"/>
+      <c r="K700" s="2"/>
+      <c r="L700" s="3"/>
+      <c r="M700" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N700" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="701" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A701" s="3"/>
+      <c r="B701" s="3"/>
+      <c r="C701" s="2"/>
+      <c r="D701" s="2"/>
+      <c r="E701" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F701" s="4">
+        <v>44107</v>
+      </c>
+      <c r="G701" s="6">
+        <v>17542</v>
+      </c>
+      <c r="H701" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I701" s="2"/>
+      <c r="J701" s="2"/>
+      <c r="K701" s="2" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L701" s="3"/>
+      <c r="M701" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N701" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="702" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A702" s="3">
+        <v>905482274</v>
+      </c>
+      <c r="B702" s="3">
+        <v>31622163</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E702" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F702" s="4">
+        <v>44110</v>
+      </c>
+      <c r="G702" s="6">
+        <v>16324</v>
+      </c>
+      <c r="H702" s="2"/>
+      <c r="I702" s="2"/>
+      <c r="J702" s="2"/>
+      <c r="K702" s="2"/>
+      <c r="L702" s="3"/>
+      <c r="M702" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N702" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="703" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A703" s="3">
+        <v>905482276</v>
+      </c>
+      <c r="B703" s="3">
+        <v>31622166</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E703" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F703" s="4">
+        <v>44110</v>
+      </c>
+      <c r="G703" s="6">
+        <v>16324</v>
+      </c>
+      <c r="H703" s="2"/>
+      <c r="I703" s="2"/>
+      <c r="J703" s="2"/>
+      <c r="K703" s="2"/>
+      <c r="L703" s="3"/>
+      <c r="M703" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N703" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="704" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A704" s="3">
+        <v>905491734</v>
+      </c>
+      <c r="B704" s="3">
+        <v>31625053</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E704" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F704" s="4">
+        <v>44119</v>
+      </c>
+      <c r="G704" s="6">
+        <v>14889</v>
+      </c>
+      <c r="H704" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I704" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J704" s="2"/>
+      <c r="K704" s="2" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L704" s="3" t="s">
+        <v>2450</v>
+      </c>
+      <c r="M704" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N704" s="2" t="s">
+        <v>2320</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M696">
-    <cfRule type="containsBlanks" dxfId="11" priority="13">
+  <conditionalFormatting sqref="M2:M696 M698:M703">
+    <cfRule type="containsBlanks" dxfId="27" priority="15">
       <formula>LEN(TRIM(M2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M537">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="26" priority="14">
       <formula>LEN(TRIM(M537))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N682 N684 N686:N696">
-    <cfRule type="notContainsText" dxfId="9" priority="8" operator="notContains" text="old">
-      <formula>ISERROR(SEARCH("old",N2))</formula>
+  <conditionalFormatting sqref="N1:N704">
+    <cfRule type="notContainsText" dxfId="25" priority="10" operator="notContains" text="old">
+      <formula>ISERROR(SEARCH("old",N1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N683">
-    <cfRule type="notContainsText" dxfId="8" priority="5" operator="notContains" text="old">
+    <cfRule type="notContainsText" dxfId="24" priority="7" operator="notContains" text="old">
       <formula>ISERROR(SEARCH("old",N683))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H683">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J683">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N685">
-    <cfRule type="notContainsText" dxfId="5" priority="2" operator="notContains" text="old">
+    <cfRule type="notContainsText" dxfId="21" priority="4" operator="notContains" text="old">
       <formula>ISERROR(SEARCH("old",N685))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H685">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J685">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H686:H696 H2:H682 H684">
-    <cfRule type="duplicateValues" dxfId="2" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J686:J696 J2:J682 J684">
-    <cfRule type="duplicateValues" dxfId="1" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="105"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B696">
-    <cfRule type="duplicateValues" dxfId="0" priority="106"/>
+  <conditionalFormatting sqref="M697">
+    <cfRule type="containsBlanks" dxfId="16" priority="2">
+      <formula>LEN(TRIM(M697))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M704">
+    <cfRule type="containsBlanks" dxfId="15" priority="1">
+      <formula>LEN(TRIM(M704))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B704">
+    <cfRule type="duplicateValues" dxfId="14" priority="112"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M696" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M704" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
       <formula1>"Front, Mid, Rear, Dumpbody, Deck, Other, Handrails, Unknown, x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/smseventlog/_resources/csv/FH Frame Cracks History.xlsx
+++ b/smseventlog/_resources/csv/FH Frame Cracks History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11123"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jayme/OneDrive/Python/SMS/smseventlog/_resources/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0D8EFE-9A10-C14C-8AA4-F9892405A85E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEFA1DE-0B0C-4344-A793-D0A6A73AED2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43340" yWindow="2460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7263" uniqueCount="2453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7430" uniqueCount="2520">
   <si>
     <t/>
   </si>
@@ -7430,12 +7430,213 @@
   <si>
     <t>F0346-STRUCTR-FRMGRP-MAINFRAME</t>
   </si>
+  <si>
+    <t>F301-Replace Cracked Laser Enclosure</t>
+  </si>
+  <si>
+    <t>F0301-AUTONOM-AUTOSY-AHSFRNTODSSNSRS</t>
+  </si>
+  <si>
+    <t>FC 19H086-1 - Frame Cracking Inspection</t>
+  </si>
+  <si>
+    <t>Downloads and photos in folder. Waiting for NDT report from Applus - DH Nov 30</t>
+  </si>
+  <si>
+    <t>Axlebox Entry Way Crack - 7 Inch</t>
+  </si>
+  <si>
+    <t>Photos of crack before gouging in folder. No work started yet. Get photos of it gouged and completed for TSI if possible - DH</t>
+  </si>
+  <si>
+    <t>Frame Crack - LHS Behind Intermediate Torque Tube - 3 Inch</t>
+  </si>
+  <si>
+    <t>Downloads and photos of crack prior to and after gouging in folder. Frame inspection in folder - No labour was allocated to complete this job yet. Once filled require completion photos - DH Nov 30</t>
+  </si>
+  <si>
+    <t>Coplete, all info is in the folder.</t>
+  </si>
+  <si>
+    <t>USAAB202011672</t>
+  </si>
+  <si>
+    <t>Frame Crack - LHS Upper</t>
+  </si>
+  <si>
+    <t>Due December 4, 2020</t>
+  </si>
+  <si>
+    <t>Downloads and frame inspection and pictures in folder - DH</t>
+  </si>
+  <si>
+    <t>USAAB202011610</t>
+  </si>
+  <si>
+    <t>Axlebox Cracking</t>
+  </si>
+  <si>
+    <t>Photos in folder - Repaired by D. Renneberg. To be reinspected in 1000HR.</t>
+  </si>
+  <si>
+    <t>F0310 - FRAME CRACK LHS BEHIND HOIST CYL</t>
+  </si>
+  <si>
+    <t>F0310-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>2x Frame Cracks</t>
+  </si>
+  <si>
+    <t>Photos, downloads and frame inspection in folder - DH</t>
+  </si>
+  <si>
+    <t>USAAB202012508</t>
+  </si>
+  <si>
+    <t>F0311 - Repair 2 Frame Cracks</t>
+  </si>
+  <si>
+    <t>F0311-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>F0311 - C/O RRI WHEEL/POSSIBLE CRACK</t>
+  </si>
+  <si>
+    <t>F0311-WHEELST-TIRERM-TIRE_RRI</t>
+  </si>
+  <si>
+    <t>F0312 CRACK ABOVE BODY DOWN SWITCH</t>
+  </si>
+  <si>
+    <t>F0312-STRUCTR-BODYGP-DUMPBODY</t>
+  </si>
+  <si>
+    <t>Frame Crack - 3 Inch</t>
+  </si>
+  <si>
+    <t>3" crack identified top of inner RH frame rail just aft of intermediate torque tube. Downloads, frame inspection and photos in folder</t>
+  </si>
+  <si>
+    <t>USAAB202012507</t>
+  </si>
+  <si>
+    <t>F0313 RH Frame Crack Behind Torque Tube</t>
+  </si>
+  <si>
+    <t>Axle Box Entryway Crack</t>
+  </si>
+  <si>
+    <t>Photos of crack in folder for use in TSI</t>
+  </si>
+  <si>
+    <t>Frame Crack - Rear Near Intermediate Torque Tube</t>
+  </si>
+  <si>
+    <t>Missing pics</t>
+  </si>
+  <si>
+    <t>Not executed at this time. Planned for next service</t>
+  </si>
+  <si>
+    <t>Frame Crack - Horsecollar, Front Upper RH</t>
+  </si>
+  <si>
+    <t>Pictures, frame inspection and downloads in folder - DH</t>
+  </si>
+  <si>
+    <t>F0316 - Axle Box Doorway is Cracked</t>
+  </si>
+  <si>
+    <t>F0316-STRUCTR-AXLGRP-REARAXLEHOUSING</t>
+  </si>
+  <si>
+    <t>F0324 REPLACE CRACKED LRI WHEEL</t>
+  </si>
+  <si>
+    <t>F0324-WHEELST-TIRERM-TIRE_LRI</t>
+  </si>
+  <si>
+    <t>Pictures, downloads and inspection report in folder - DH nov29</t>
+  </si>
+  <si>
+    <t>Downloads and photos in folder, need NDT report from Applis - DH nov 30</t>
+  </si>
+  <si>
+    <t>F0330 CRACKED ACCUMULATOR PLUG WELD</t>
+  </si>
+  <si>
+    <t>F0330-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>F0330 -Repair Axle Box Entryway Cracking</t>
+  </si>
+  <si>
+    <t>F0330-STRUCTR-AXLGRP-REARAXLEHOUSING</t>
+  </si>
+  <si>
+    <t>Small crack on hanger. No removal of tank required. Repaired by Scott Schurman. Pictures, frame inspection sheet and downloads in folder - DH</t>
+  </si>
+  <si>
+    <t>Repair Crack in Axle Box Entry</t>
+  </si>
+  <si>
+    <t>6" crack on entry ring and 7" crack on weld between ring and inside of axlebox. confirmed by NDT. Repaired by SMS</t>
+  </si>
+  <si>
+    <t>Pictures, inspection report and downloads in folder - DH nov29</t>
+  </si>
+  <si>
+    <t>Frame Welding</t>
+  </si>
+  <si>
+    <t>Frame welding is complete,all info is in the folder.</t>
+  </si>
+  <si>
+    <t>USAAB202011690</t>
+  </si>
+  <si>
+    <t>Cracks was identified during welding inspection, customer scheduled repairs for next service.</t>
+  </si>
+  <si>
+    <t>Not started - Will need frame prepared</t>
+  </si>
+  <si>
+    <t>Repair LHS Accumulator Bracket Crack</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>FC 19H086- 1 - Frame Cracking Inspection</t>
+  </si>
+  <si>
+    <t>Completed by Applus Nov 24. Photos, downloads and NDT report in folder - DH</t>
+  </si>
+  <si>
+    <t>F0344 Fuel Tank Mount Cracks</t>
+  </si>
+  <si>
+    <t>F0344-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Crack is repaired and after inspection it was found that the crack does not run into the frame.</t>
+  </si>
+  <si>
+    <t>F0344 Brake Accumulator Plug Weld Crack</t>
+  </si>
+  <si>
+    <t>Accumilator Mount Crack</t>
+  </si>
+  <si>
+    <t>This event is for visibily only,we need to start creating TSI's for these ones.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7443,13 +7644,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -7464,7 +7678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7482,130 +7696,84 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="29">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7679,6 +7847,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -7717,129 +7895,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7854,27 +7909,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N704" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="A1:N704" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N732" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:N732" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N651">
     <sortCondition ref="E2:E651"/>
     <sortCondition ref="F2:F651"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7890,7 +7945,7 @@
     <tableColumn id="2" xr3:uid="{8BEF7178-E3B4-D149-A75C-2EC7E1E9CBA7}" name="Notification"/>
     <tableColumn id="3" xr3:uid="{11DB8A07-87AD-FE46-8761-2170FE8BBA14}" name="Order"/>
     <tableColumn id="4" xr3:uid="{BBFD0320-2E12-F24A-805F-F04232B9497B}" name="Description2"/>
-    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{FC0BCB59-BFC5-0643-9D08-977DACD51993}" name="Functional Loc."/>
     <tableColumn id="7" xr3:uid="{016A5D1D-804A-2249-9172-09491E3480EC}" name="Location"/>
     <tableColumn id="9" xr3:uid="{C484CC0E-6555-E74D-8560-E8B5B04E61D3}" name="Unit"/>
@@ -8220,10 +8275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F275D9-6D58-E546-9951-5DFEA9FF85BC}">
-  <dimension ref="A1:N704"/>
+  <dimension ref="A1:N732"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A693" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H701" sqref="H701"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A708" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H732" sqref="H732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8300,7 +8355,7 @@
       <c r="D2" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>1745</v>
       </c>
       <c r="F2" s="4">
@@ -8336,7 +8391,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>1745</v>
       </c>
       <c r="F3" s="4">
@@ -8366,7 +8421,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>1745</v>
       </c>
       <c r="F4" s="4">
@@ -8396,7 +8451,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>1745</v>
       </c>
       <c r="F5" s="4">
@@ -8434,7 +8489,7 @@
       <c r="D6" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F6" s="4">
@@ -8466,7 +8521,7 @@
       <c r="D7" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F7" s="4">
@@ -8500,7 +8555,7 @@
       <c r="D8" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F8" s="4">
@@ -8526,7 +8581,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F9" s="4">
@@ -8562,7 +8617,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F10" s="4">
@@ -8598,7 +8653,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F11" s="4">
@@ -8642,7 +8697,7 @@
       <c r="D12" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F12" s="4">
@@ -8670,7 +8725,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F13" s="4">
@@ -8708,7 +8763,7 @@
       <c r="D14" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F14" s="4">
@@ -8742,7 +8797,7 @@
       <c r="D15" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F15" s="4">
@@ -8776,7 +8831,7 @@
       <c r="D16" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F16" s="4">
@@ -8810,7 +8865,7 @@
       <c r="D17" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F17" s="4">
@@ -8844,7 +8899,7 @@
       <c r="D18" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F18" s="4">
@@ -8872,7 +8927,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F19" s="4">
@@ -8908,7 +8963,7 @@
       <c r="D20" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F20" s="4">
@@ -8942,7 +8997,7 @@
       <c r="D21" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F21" s="4">
@@ -8978,7 +9033,7 @@
       <c r="D22" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F22" s="4">
@@ -9014,7 +9069,7 @@
       <c r="D23" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F23" s="4">
@@ -9048,7 +9103,7 @@
       <c r="D24" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F24" s="4">
@@ -9082,7 +9137,7 @@
       <c r="D25" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F25" s="4">
@@ -9116,7 +9171,7 @@
       <c r="D26" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F26" s="4">
@@ -9154,7 +9209,7 @@
       <c r="D27" s="2" t="s">
         <v>2322</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F27" s="4">
@@ -9192,7 +9247,7 @@
       <c r="D28" s="2" t="s">
         <v>2322</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F28" s="4">
@@ -9228,7 +9283,7 @@
       <c r="D29" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F29" s="4">
@@ -9262,7 +9317,7 @@
       <c r="D30" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F30" s="4">
@@ -9290,7 +9345,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F31" s="4">
@@ -9320,7 +9375,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F32" s="4">
@@ -9362,7 +9417,7 @@
       <c r="D33" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F33" s="4">
@@ -9396,7 +9451,7 @@
       <c r="D34" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F34" s="4">
@@ -9430,7 +9485,7 @@
       <c r="D35" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F35" s="4">
@@ -9464,7 +9519,7 @@
       <c r="D36" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F36" s="4">
@@ -9498,7 +9553,7 @@
       <c r="D37" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F37" s="4">
@@ -9524,7 +9579,7 @@
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F38" s="4">
@@ -9558,7 +9613,7 @@
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F39" s="4">
@@ -9596,7 +9651,7 @@
       <c r="D40" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F40" s="4">
@@ -9640,7 +9695,7 @@
       <c r="D41" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F41" s="4">
@@ -9668,7 +9723,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F42" s="4">
@@ -9706,7 +9761,7 @@
       <c r="D43" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F43" s="4">
@@ -9740,7 +9795,7 @@
       <c r="D44" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F44" s="4">
@@ -9774,7 +9829,7 @@
       <c r="D45" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F45" s="4">
@@ -9800,7 +9855,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F46" s="4">
@@ -9830,7 +9885,7 @@
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F47" s="4">
@@ -9868,7 +9923,7 @@
       <c r="D48" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F48" s="4">
@@ -9904,7 +9959,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F49" s="4">
@@ -9942,7 +9997,7 @@
       <c r="D50" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F50" s="4">
@@ -9968,7 +10023,7 @@
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F51" s="4">
@@ -10004,7 +10059,7 @@
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F52" s="4">
@@ -10034,7 +10089,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F53" s="4">
@@ -10064,7 +10119,7 @@
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F54" s="4">
@@ -10096,7 +10151,7 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F55" s="4">
@@ -10136,7 +10191,7 @@
       <c r="D56" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F56" s="4">
@@ -10170,7 +10225,7 @@
       <c r="D57" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F57" s="4">
@@ -10204,7 +10259,7 @@
       <c r="D58" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F58" s="4">
@@ -10236,7 +10291,7 @@
       <c r="D59" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F59" s="4">
@@ -10262,7 +10317,7 @@
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F60" s="4">
@@ -10300,7 +10355,7 @@
       <c r="D61" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F61" s="4">
@@ -10328,7 +10383,7 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F62" s="4">
@@ -10360,7 +10415,7 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F63" s="4">
@@ -10398,7 +10453,7 @@
       <c r="D64" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F64" s="4">
@@ -10432,7 +10487,7 @@
       <c r="D65" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F65" s="4">
@@ -10458,7 +10513,7 @@
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F66" s="4">
@@ -10496,7 +10551,7 @@
       <c r="D67" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F67" s="4">
@@ -10530,7 +10585,7 @@
       <c r="D68" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F68" s="4">
@@ -10564,7 +10619,7 @@
       <c r="D69" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F69" s="4">
@@ -10600,7 +10655,7 @@
       <c r="D70" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F70" s="4">
@@ -10638,7 +10693,7 @@
       <c r="D71" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F71" s="4">
@@ -10674,7 +10729,7 @@
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="7" t="s">
         <v>1713</v>
       </c>
       <c r="F72" s="4">
@@ -10714,7 +10769,7 @@
       <c r="D73" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F73" s="4">
@@ -10748,7 +10803,7 @@
       <c r="D74" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F74" s="4">
@@ -10782,7 +10837,7 @@
       <c r="D75" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F75" s="4">
@@ -10816,7 +10871,7 @@
       <c r="D76" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F76" s="4">
@@ -10844,7 +10899,7 @@
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F77" s="4">
@@ -10872,7 +10927,7 @@
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F78" s="4">
@@ -10902,7 +10957,7 @@
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F79" s="4">
@@ -10940,7 +10995,7 @@
       <c r="D80" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F80" s="4">
@@ -10974,7 +11029,7 @@
       <c r="D81" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F81" s="4">
@@ -11002,7 +11057,7 @@
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F82" s="4">
@@ -11040,7 +11095,7 @@
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F83" s="4">
@@ -11076,7 +11131,7 @@
       <c r="D84" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F84" s="4">
@@ -11108,7 +11163,7 @@
       <c r="D85" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F85" s="4">
@@ -11142,7 +11197,7 @@
       <c r="D86" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F86" s="4">
@@ -11170,7 +11225,7 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F87" s="4">
@@ -11206,7 +11261,7 @@
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F88" s="4">
@@ -11240,7 +11295,7 @@
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F89" s="4">
@@ -11270,7 +11325,7 @@
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F90" s="4">
@@ -11300,7 +11355,7 @@
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F91" s="4">
@@ -11330,7 +11385,7 @@
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F92" s="4">
@@ -11370,7 +11425,7 @@
       <c r="D93" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F93" s="4">
@@ -11406,7 +11461,7 @@
       <c r="D94" s="2" t="s">
         <v>2334</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F94" s="4">
@@ -11440,7 +11495,7 @@
       <c r="D95" s="2" t="s">
         <v>2334</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F95" s="4">
@@ -11472,7 +11527,7 @@
       <c r="D96" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F96" s="4">
@@ -11506,7 +11561,7 @@
       <c r="D97" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F97" s="4">
@@ -11540,7 +11595,7 @@
       <c r="D98" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F98" s="4">
@@ -11574,7 +11629,7 @@
       <c r="D99" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F99" s="4">
@@ -11600,7 +11655,7 @@
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F100" s="4">
@@ -11634,7 +11689,7 @@
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F101" s="4">
@@ -11668,7 +11723,7 @@
       <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F102" s="4">
@@ -11702,7 +11757,7 @@
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F103" s="4">
@@ -11730,7 +11785,7 @@
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F104" s="4">
@@ -11766,7 +11821,7 @@
       <c r="D105" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F105" s="4">
@@ -11800,7 +11855,7 @@
       <c r="D106" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F106" s="4">
@@ -11834,7 +11889,7 @@
       <c r="D107" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F107" s="4">
@@ -11872,7 +11927,7 @@
       <c r="D108" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F108" s="4">
@@ -11906,7 +11961,7 @@
       <c r="D109" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F109" s="4">
@@ -11932,7 +11987,7 @@
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F110" s="4">
@@ -11962,7 +12017,7 @@
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F111" s="4">
@@ -12000,7 +12055,7 @@
       <c r="D112" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F112" s="4">
@@ -12034,7 +12089,7 @@
       <c r="D113" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F113" s="4">
@@ -12068,7 +12123,7 @@
       <c r="D114" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F114" s="4">
@@ -12094,7 +12149,7 @@
       <c r="B115" s="3"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F115" s="4">
@@ -12122,7 +12177,7 @@
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F116" s="4">
@@ -12158,7 +12213,7 @@
       <c r="D117" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F117" s="4">
@@ -12196,7 +12251,7 @@
       <c r="D118" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F118" s="4">
@@ -12240,7 +12295,7 @@
       <c r="D119" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F119" s="4">
@@ -12284,7 +12339,7 @@
       <c r="D120" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F120" s="4">
@@ -12322,7 +12377,7 @@
       <c r="D121" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F121" s="4">
@@ -12366,7 +12421,7 @@
       <c r="D122" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F122" s="4">
@@ -12410,7 +12465,7 @@
       <c r="D123" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F123" s="4">
@@ -12446,7 +12501,7 @@
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="7" t="s">
         <v>1875</v>
       </c>
       <c r="F124" s="4">
@@ -12484,7 +12539,7 @@
       <c r="D125" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F125" s="4">
@@ -12510,7 +12565,7 @@
       <c r="B126" s="3"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F126" s="4">
@@ -12552,7 +12607,7 @@
       <c r="D127" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F127" s="4">
@@ -12586,7 +12641,7 @@
       <c r="D128" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F128" s="4">
@@ -12620,7 +12675,7 @@
       <c r="D129" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F129" s="4">
@@ -12656,7 +12711,7 @@
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F130" s="4">
@@ -12694,7 +12749,7 @@
       <c r="D131" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F131" s="4">
@@ -12728,7 +12783,7 @@
       <c r="D132" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F132" s="4">
@@ -12762,7 +12817,7 @@
       <c r="D133" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F133" s="4">
@@ -12800,7 +12855,7 @@
       <c r="D134" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F134" s="4">
@@ -12834,7 +12889,7 @@
       <c r="D135" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F135" s="4">
@@ -12868,7 +12923,7 @@
       <c r="D136" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F136" s="4">
@@ -12894,7 +12949,7 @@
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F137" s="4">
@@ -12934,7 +12989,7 @@
       <c r="D138" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F138" s="4">
@@ -12972,7 +13027,7 @@
       <c r="D139" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F139" s="4">
@@ -13002,7 +13057,7 @@
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F140" s="4">
@@ -13040,7 +13095,7 @@
       <c r="D141" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F141" s="4">
@@ -13082,7 +13137,7 @@
       <c r="D142" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F142" s="4">
@@ -13116,7 +13171,7 @@
       <c r="D143" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F143" s="4">
@@ -13160,7 +13215,7 @@
       <c r="D144" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="7" t="s">
         <v>1720</v>
       </c>
       <c r="F144" s="4">
@@ -13188,7 +13243,7 @@
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="7" t="s">
         <v>1720</v>
       </c>
       <c r="F145" s="4">
@@ -13226,7 +13281,7 @@
       <c r="D146" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="7" t="s">
         <v>1720</v>
       </c>
       <c r="F146" s="4">
@@ -13260,7 +13315,7 @@
       <c r="D147" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="7" t="s">
         <v>1720</v>
       </c>
       <c r="F147" s="4">
@@ -13294,7 +13349,7 @@
       <c r="D148" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="7" t="s">
         <v>1720</v>
       </c>
       <c r="F148" s="4">
@@ -13328,7 +13383,7 @@
       <c r="D149" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="7" t="s">
         <v>1720</v>
       </c>
       <c r="F149" s="4">
@@ -13362,7 +13417,7 @@
       <c r="D150" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="7" t="s">
         <v>1720</v>
       </c>
       <c r="F150" s="4">
@@ -13400,7 +13455,7 @@
       <c r="D151" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="7" t="s">
         <v>1720</v>
       </c>
       <c r="F151" s="4">
@@ -13444,7 +13499,7 @@
       <c r="D152" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F152" s="4">
@@ -13478,7 +13533,7 @@
       <c r="D153" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F153" s="4">
@@ -13504,7 +13559,7 @@
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F154" s="4">
@@ -13548,7 +13603,7 @@
       <c r="D155" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F155" s="4">
@@ -13576,7 +13631,7 @@
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F156" s="4">
@@ -13612,7 +13667,7 @@
       <c r="D157" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F157" s="4">
@@ -13646,7 +13701,7 @@
       <c r="D158" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F158" s="4">
@@ -13680,7 +13735,7 @@
       <c r="D159" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F159" s="4">
@@ -13714,7 +13769,7 @@
       <c r="D160" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F160" s="4">
@@ -13748,7 +13803,7 @@
       <c r="D161" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F161" s="4">
@@ -13786,7 +13841,7 @@
       <c r="D162" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F162" s="4">
@@ -13814,7 +13869,7 @@
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F163" s="4">
@@ -13852,7 +13907,7 @@
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F164" s="4">
@@ -13894,7 +13949,7 @@
       <c r="D165" s="2" t="s">
         <v>1760</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F165" s="4">
@@ -13928,7 +13983,7 @@
       <c r="D166" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F166" s="4">
@@ -13962,7 +14017,7 @@
       <c r="D167" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F167" s="4">
@@ -13996,7 +14051,7 @@
       <c r="D168" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F168" s="4">
@@ -14030,7 +14085,7 @@
       <c r="D169" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F169" s="4">
@@ -14064,7 +14119,7 @@
       <c r="D170" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F170" s="4">
@@ -14098,7 +14153,7 @@
       <c r="D171" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F171" s="4">
@@ -14132,7 +14187,7 @@
       <c r="D172" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F172" s="4">
@@ -14166,7 +14221,7 @@
       <c r="D173" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F173" s="4">
@@ -14200,7 +14255,7 @@
       <c r="D174" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F174" s="4">
@@ -14236,7 +14291,7 @@
       <c r="B175" s="3"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F175" s="4">
@@ -14280,7 +14335,7 @@
       <c r="D176" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F176" s="4">
@@ -14324,7 +14379,7 @@
       <c r="D177" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F177" s="4">
@@ -14358,7 +14413,7 @@
       <c r="D178" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="F178" s="4">
@@ -14392,7 +14447,7 @@
       <c r="D179" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F179" s="4">
@@ -14418,7 +14473,7 @@
       <c r="B180" s="3"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F180" s="4">
@@ -14448,7 +14503,7 @@
       <c r="B181" s="3"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F181" s="4">
@@ -14482,7 +14537,7 @@
       <c r="B182" s="3"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F182" s="4">
@@ -14522,7 +14577,7 @@
       <c r="D183" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F183" s="4">
@@ -14554,7 +14609,7 @@
       <c r="D184" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F184" s="4">
@@ -14588,7 +14643,7 @@
       <c r="D185" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F185" s="4">
@@ -14622,7 +14677,7 @@
       <c r="D186" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F186" s="4">
@@ -14654,7 +14709,7 @@
       <c r="D187" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F187" s="4">
@@ -14688,7 +14743,7 @@
       <c r="D188" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F188" s="4">
@@ -14722,7 +14777,7 @@
       <c r="D189" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F189" s="4">
@@ -14760,7 +14815,7 @@
       <c r="D190" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F190" s="4">
@@ -14794,7 +14849,7 @@
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F191" s="4">
@@ -14828,7 +14883,7 @@
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F192" s="4">
@@ -14866,7 +14921,7 @@
       <c r="D193" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F193" s="4">
@@ -14900,7 +14955,7 @@
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F194" s="4">
@@ -14938,7 +14993,7 @@
       <c r="D195" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F195" s="4">
@@ -14974,7 +15029,7 @@
       <c r="D196" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F196" s="4">
@@ -15012,7 +15067,7 @@
       <c r="D197" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F197" s="4">
@@ -15046,7 +15101,7 @@
       <c r="D198" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E198" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F198" s="4">
@@ -15080,7 +15135,7 @@
       <c r="D199" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F199" s="4">
@@ -15114,7 +15169,7 @@
       <c r="D200" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E200" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F200" s="4">
@@ -15148,7 +15203,7 @@
       <c r="D201" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F201" s="4">
@@ -15176,7 +15231,7 @@
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F202" s="4">
@@ -15212,7 +15267,7 @@
       <c r="D203" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E203" s="3" t="s">
+      <c r="E203" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F203" s="4">
@@ -15246,7 +15301,7 @@
       <c r="D204" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E204" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F204" s="4">
@@ -15280,7 +15335,7 @@
       <c r="D205" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F205" s="4">
@@ -15318,7 +15373,7 @@
       <c r="D206" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E206" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F206" s="4">
@@ -15356,7 +15411,7 @@
       <c r="D207" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E207" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F207" s="4">
@@ -15386,7 +15441,7 @@
       <c r="B208" s="3"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
-      <c r="E208" s="3" t="s">
+      <c r="E208" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F208" s="4">
@@ -15416,7 +15471,7 @@
       <c r="B209" s="3"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
-      <c r="E209" s="3" t="s">
+      <c r="E209" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F209" s="4">
@@ -15446,7 +15501,7 @@
       <c r="B210" s="3"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F210" s="4">
@@ -15474,7 +15529,7 @@
       <c r="B211" s="3"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F211" s="4">
@@ -15512,7 +15567,7 @@
       <c r="D212" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="E212" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F212" s="4">
@@ -15554,7 +15609,7 @@
       <c r="D213" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F213" s="4">
@@ -15588,7 +15643,7 @@
       <c r="D214" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="E214" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F214" s="4">
@@ -15622,7 +15677,7 @@
       <c r="D215" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E215" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F215" s="4">
@@ -15664,7 +15719,7 @@
       <c r="D216" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E216" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F216" s="4">
@@ -15698,7 +15753,7 @@
       <c r="B217" s="3"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
-      <c r="E217" s="3" t="s">
+      <c r="E217" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F217" s="4">
@@ -15734,7 +15789,7 @@
       <c r="B218" s="3"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
-      <c r="E218" s="3" t="s">
+      <c r="E218" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F218" s="4">
@@ -15774,7 +15829,7 @@
       <c r="D219" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E219" s="3" t="s">
+      <c r="E219" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F219" s="4">
@@ -15808,7 +15863,7 @@
       <c r="D220" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E220" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F220" s="4">
@@ -15842,7 +15897,7 @@
       <c r="D221" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E221" s="3" t="s">
+      <c r="E221" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F221" s="4">
@@ -15874,7 +15929,7 @@
       <c r="D222" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E222" s="3" t="s">
+      <c r="E222" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F222" s="4">
@@ -15908,7 +15963,7 @@
       <c r="D223" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="E223" s="3" t="s">
+      <c r="E223" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F223" s="4">
@@ -15942,7 +15997,7 @@
       <c r="D224" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="E224" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F224" s="4">
@@ -15976,7 +16031,7 @@
       <c r="D225" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E225" s="3" t="s">
+      <c r="E225" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F225" s="4">
@@ -16010,7 +16065,7 @@
       <c r="D226" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="E226" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F226" s="4">
@@ -16046,7 +16101,7 @@
       <c r="D227" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E227" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F227" s="4">
@@ -16080,7 +16135,7 @@
       <c r="D228" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E228" s="3" t="s">
+      <c r="E228" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F228" s="4">
@@ -16108,7 +16163,7 @@
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
-      <c r="E229" s="3" t="s">
+      <c r="E229" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F229" s="4">
@@ -16144,7 +16199,7 @@
       <c r="D230" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E230" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F230" s="4">
@@ -16178,7 +16233,7 @@
       <c r="D231" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E231" s="3" t="s">
+      <c r="E231" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F231" s="4">
@@ -16212,7 +16267,7 @@
       <c r="D232" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E232" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F232" s="4">
@@ -16246,7 +16301,7 @@
       <c r="D233" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E233" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F233" s="4">
@@ -16280,7 +16335,7 @@
       <c r="D234" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="E234" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F234" s="4">
@@ -16314,7 +16369,7 @@
       <c r="D235" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="E235" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F235" s="4">
@@ -16348,7 +16403,7 @@
       <c r="D236" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E236" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F236" s="4">
@@ -16386,7 +16441,7 @@
       <c r="D237" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="E237" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F237" s="4">
@@ -16416,7 +16471,7 @@
       <c r="B238" s="3"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
-      <c r="E238" s="3" t="s">
+      <c r="E238" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F238" s="4">
@@ -16446,7 +16501,7 @@
       <c r="B239" s="3"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
-      <c r="E239" s="3" t="s">
+      <c r="E239" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F239" s="4">
@@ -16484,7 +16539,7 @@
       <c r="D240" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="E240" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F240" s="4">
@@ -16518,7 +16573,7 @@
       <c r="D241" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="E241" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F241" s="4">
@@ -16552,7 +16607,7 @@
       <c r="D242" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="E242" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F242" s="4">
@@ -16580,7 +16635,7 @@
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
-      <c r="E243" s="3" t="s">
+      <c r="E243" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F243" s="4">
@@ -16618,7 +16673,7 @@
       <c r="D244" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="E244" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F244" s="4">
@@ -16662,7 +16717,7 @@
       <c r="D245" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="E245" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F245" s="4">
@@ -16706,7 +16761,7 @@
       <c r="D246" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="E246" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F246" s="4">
@@ -16750,7 +16805,7 @@
       <c r="D247" s="2" t="s">
         <v>2340</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="E247" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F247" s="4">
@@ -16784,7 +16839,7 @@
       <c r="D248" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E248" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F248" s="4">
@@ -16828,7 +16883,7 @@
       <c r="D249" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="E249" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F249" s="4">
@@ -16862,7 +16917,7 @@
       <c r="D250" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E250" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F250" s="4">
@@ -16898,7 +16953,7 @@
       <c r="D251" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="E251" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F251" s="4">
@@ -16932,7 +16987,7 @@
       <c r="D252" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E252" s="3" t="s">
+      <c r="E252" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F252" s="4">
@@ -16960,7 +17015,7 @@
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
-      <c r="E253" s="3" t="s">
+      <c r="E253" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F253" s="4">
@@ -16998,7 +17053,7 @@
       <c r="D254" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="E254" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F254" s="4">
@@ -17032,7 +17087,7 @@
       <c r="D255" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E255" s="3" t="s">
+      <c r="E255" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F255" s="4">
@@ -17066,7 +17121,7 @@
       <c r="D256" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="E256" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F256" s="4">
@@ -17100,7 +17155,7 @@
       <c r="D257" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="E257" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F257" s="4">
@@ -17134,7 +17189,7 @@
       <c r="D258" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E258" s="3" t="s">
+      <c r="E258" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F258" s="4">
@@ -17168,7 +17223,7 @@
       <c r="D259" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="E259" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F259" s="4">
@@ -17206,7 +17261,7 @@
       <c r="D260" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="E260" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F260" s="4">
@@ -17244,7 +17299,7 @@
       <c r="D261" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E261" s="3" t="s">
+      <c r="E261" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F261" s="4">
@@ -17278,7 +17333,7 @@
       <c r="D262" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E262" s="3" t="s">
+      <c r="E262" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F262" s="4">
@@ -17312,7 +17367,7 @@
       <c r="D263" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E263" s="3" t="s">
+      <c r="E263" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F263" s="4">
@@ -17350,7 +17405,7 @@
       <c r="D264" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E264" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F264" s="4">
@@ -17388,7 +17443,7 @@
       <c r="D265" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="E265" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F265" s="4">
@@ -17422,7 +17477,7 @@
       <c r="D266" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="E266" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F266" s="4">
@@ -17456,7 +17511,7 @@
       <c r="D267" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="E267" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F267" s="4">
@@ -17490,7 +17545,7 @@
       <c r="D268" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E268" s="3" t="s">
+      <c r="E268" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F268" s="4">
@@ -17524,7 +17579,7 @@
       <c r="D269" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="E269" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F269" s="4">
@@ -17558,7 +17613,7 @@
       <c r="D270" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E270" s="3" t="s">
+      <c r="E270" s="7" t="s">
         <v>1733</v>
       </c>
       <c r="F270" s="4">
@@ -17592,7 +17647,7 @@
       <c r="D271" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E271" s="3" t="s">
+      <c r="E271" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F271" s="4">
@@ -17626,7 +17681,7 @@
       <c r="D272" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E272" s="3" t="s">
+      <c r="E272" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F272" s="4">
@@ -17660,7 +17715,7 @@
       <c r="D273" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E273" s="3" t="s">
+      <c r="E273" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F273" s="4">
@@ -17694,7 +17749,7 @@
       <c r="D274" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E274" s="3" t="s">
+      <c r="E274" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F274" s="4">
@@ -17728,7 +17783,7 @@
       <c r="D275" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="E275" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F275" s="4">
@@ -17762,7 +17817,7 @@
       <c r="D276" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E276" s="3" t="s">
+      <c r="E276" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F276" s="4">
@@ -17790,7 +17845,7 @@
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
-      <c r="E277" s="3" t="s">
+      <c r="E277" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F277" s="4">
@@ -17828,7 +17883,7 @@
       <c r="D278" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E278" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F278" s="4">
@@ -17862,7 +17917,7 @@
       <c r="D279" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E279" s="3" t="s">
+      <c r="E279" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F279" s="4">
@@ -17896,7 +17951,7 @@
       <c r="D280" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E280" s="3" t="s">
+      <c r="E280" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F280" s="4">
@@ -17934,7 +17989,7 @@
       <c r="D281" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="E281" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F281" s="4">
@@ -17968,7 +18023,7 @@
       <c r="D282" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E282" s="3" t="s">
+      <c r="E282" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F282" s="4">
@@ -18002,7 +18057,7 @@
       <c r="D283" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E283" s="3" t="s">
+      <c r="E283" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F283" s="4">
@@ -18036,7 +18091,7 @@
       <c r="D284" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E284" s="3" t="s">
+      <c r="E284" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F284" s="4">
@@ -18070,7 +18125,7 @@
       <c r="D285" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E285" s="3" t="s">
+      <c r="E285" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F285" s="4">
@@ -18096,7 +18151,7 @@
       <c r="B286" s="3"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
-      <c r="E286" s="3" t="s">
+      <c r="E286" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F286" s="4">
@@ -18126,7 +18181,7 @@
       <c r="B287" s="3"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
-      <c r="E287" s="3" t="s">
+      <c r="E287" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F287" s="4">
@@ -18156,7 +18211,7 @@
       <c r="B288" s="3"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
-      <c r="E288" s="3" t="s">
+      <c r="E288" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F288" s="4">
@@ -18198,7 +18253,7 @@
       <c r="D289" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E289" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F289" s="4">
@@ -18232,7 +18287,7 @@
       <c r="D290" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E290" s="3" t="s">
+      <c r="E290" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F290" s="4">
@@ -18272,7 +18327,7 @@
       <c r="D291" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E291" s="3" t="s">
+      <c r="E291" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F291" s="4">
@@ -18312,7 +18367,7 @@
       <c r="D292" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E292" s="3" t="s">
+      <c r="E292" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F292" s="4">
@@ -18346,7 +18401,7 @@
       <c r="D293" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E293" s="3" t="s">
+      <c r="E293" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F293" s="4">
@@ -18372,7 +18427,7 @@
       <c r="B294" s="3"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
-      <c r="E294" s="3" t="s">
+      <c r="E294" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F294" s="4">
@@ -18402,7 +18457,7 @@
       <c r="B295" s="3"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
-      <c r="E295" s="3" t="s">
+      <c r="E295" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F295" s="4">
@@ -18432,7 +18487,7 @@
       <c r="B296" s="3"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
-      <c r="E296" s="3" t="s">
+      <c r="E296" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F296" s="4">
@@ -18468,7 +18523,7 @@
       <c r="D297" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="E297" s="3" t="s">
+      <c r="E297" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F297" s="4">
@@ -18504,7 +18559,7 @@
       <c r="D298" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E298" s="3" t="s">
+      <c r="E298" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F298" s="4">
@@ -18538,7 +18593,7 @@
       <c r="D299" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="E299" s="3" t="s">
+      <c r="E299" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F299" s="4">
@@ -18572,7 +18627,7 @@
       <c r="D300" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="E300" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F300" s="4">
@@ -18616,7 +18671,7 @@
       <c r="D301" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E301" s="3" t="s">
+      <c r="E301" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F301" s="4">
@@ -18654,7 +18709,7 @@
       <c r="D302" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E302" s="3" t="s">
+      <c r="E302" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F302" s="4">
@@ -18688,7 +18743,7 @@
       <c r="D303" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E303" s="3" t="s">
+      <c r="E303" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F303" s="4">
@@ -18722,7 +18777,7 @@
       <c r="D304" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E304" s="3" t="s">
+      <c r="E304" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F304" s="4">
@@ -18756,7 +18811,7 @@
       <c r="D305" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E305" s="3" t="s">
+      <c r="E305" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F305" s="4">
@@ -18794,7 +18849,7 @@
       <c r="D306" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E306" s="3" t="s">
+      <c r="E306" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F306" s="4">
@@ -18828,7 +18883,7 @@
       <c r="D307" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E307" s="3" t="s">
+      <c r="E307" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F307" s="4">
@@ -18866,7 +18921,7 @@
       <c r="D308" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E308" s="3" t="s">
+      <c r="E308" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F308" s="4">
@@ -18908,7 +18963,7 @@
       <c r="D309" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E309" s="3" t="s">
+      <c r="E309" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F309" s="4">
@@ -18942,7 +18997,7 @@
       <c r="D310" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E310" s="3" t="s">
+      <c r="E310" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F310" s="4">
@@ -18976,7 +19031,7 @@
       <c r="D311" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E311" s="3" t="s">
+      <c r="E311" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F311" s="4">
@@ -19014,7 +19069,7 @@
       <c r="D312" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E312" s="3" t="s">
+      <c r="E312" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F312" s="4">
@@ -19048,7 +19103,7 @@
       <c r="D313" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E313" s="3" t="s">
+      <c r="E313" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F313" s="4">
@@ -19082,7 +19137,7 @@
       <c r="D314" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E314" s="3" t="s">
+      <c r="E314" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F314" s="4">
@@ -19110,7 +19165,7 @@
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
-      <c r="E315" s="3" t="s">
+      <c r="E315" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F315" s="4">
@@ -19148,7 +19203,7 @@
       <c r="D316" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E316" s="3" t="s">
+      <c r="E316" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F316" s="4">
@@ -19190,7 +19245,7 @@
       <c r="D317" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E317" s="3" t="s">
+      <c r="E317" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F317" s="4">
@@ -19216,7 +19271,7 @@
       <c r="B318" s="3"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
-      <c r="E318" s="3" t="s">
+      <c r="E318" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F318" s="4">
@@ -19248,7 +19303,7 @@
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
-      <c r="E319" s="3" t="s">
+      <c r="E319" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F319" s="4">
@@ -19284,7 +19339,7 @@
       <c r="D320" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E320" s="3" t="s">
+      <c r="E320" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F320" s="4">
@@ -19318,7 +19373,7 @@
       <c r="D321" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E321" s="3" t="s">
+      <c r="E321" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F321" s="4">
@@ -19360,7 +19415,7 @@
       <c r="D322" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="E322" s="3" t="s">
+      <c r="E322" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F322" s="4">
@@ -19394,7 +19449,7 @@
       <c r="D323" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E323" s="3" t="s">
+      <c r="E323" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F323" s="4">
@@ -19428,7 +19483,7 @@
       <c r="D324" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E324" s="3" t="s">
+      <c r="E324" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F324" s="4">
@@ -19462,7 +19517,7 @@
       <c r="D325" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E325" s="3" t="s">
+      <c r="E325" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F325" s="4">
@@ -19496,7 +19551,7 @@
       <c r="D326" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E326" s="3" t="s">
+      <c r="E326" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F326" s="4">
@@ -19530,7 +19585,7 @@
       <c r="D327" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E327" s="3" t="s">
+      <c r="E327" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F327" s="4">
@@ -19564,7 +19619,7 @@
       <c r="D328" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E328" s="3" t="s">
+      <c r="E328" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F328" s="4">
@@ -19598,7 +19653,7 @@
       <c r="D329" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E329" s="3" t="s">
+      <c r="E329" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F329" s="4">
@@ -19636,7 +19691,7 @@
       <c r="D330" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E330" s="3" t="s">
+      <c r="E330" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F330" s="4">
@@ -19670,7 +19725,7 @@
       <c r="D331" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E331" s="3" t="s">
+      <c r="E331" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F331" s="4">
@@ -19704,7 +19759,7 @@
       <c r="D332" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E332" s="3" t="s">
+      <c r="E332" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F332" s="4">
@@ -19732,7 +19787,7 @@
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
-      <c r="E333" s="3" t="s">
+      <c r="E333" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F333" s="4">
@@ -19770,7 +19825,7 @@
       <c r="D334" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E334" s="3" t="s">
+      <c r="E334" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F334" s="4">
@@ -19804,7 +19859,7 @@
       <c r="D335" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E335" s="3" t="s">
+      <c r="E335" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F335" s="4">
@@ -19838,7 +19893,7 @@
       <c r="D336" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E336" s="3" t="s">
+      <c r="E336" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F336" s="4">
@@ -19868,7 +19923,7 @@
       <c r="B337" s="3"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
-      <c r="E337" s="3" t="s">
+      <c r="E337" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F337" s="4">
@@ -19912,7 +19967,7 @@
       <c r="D338" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E338" s="3" t="s">
+      <c r="E338" s="7" t="s">
         <v>1715</v>
       </c>
       <c r="F338" s="4">
@@ -19938,7 +19993,7 @@
       <c r="B339" s="3"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
-      <c r="E339" s="3" t="s">
+      <c r="E339" s="7" t="s">
         <v>1715</v>
       </c>
       <c r="F339" s="4">
@@ -19976,7 +20031,7 @@
       <c r="D340" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E340" s="3" t="s">
+      <c r="E340" s="7" t="s">
         <v>1715</v>
       </c>
       <c r="F340" s="4">
@@ -20010,7 +20065,7 @@
       <c r="D341" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E341" s="3" t="s">
+      <c r="E341" s="7" t="s">
         <v>1715</v>
       </c>
       <c r="F341" s="4">
@@ -20040,7 +20095,7 @@
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
-      <c r="E342" s="3" t="s">
+      <c r="E342" s="7" t="s">
         <v>1715</v>
       </c>
       <c r="F342" s="4">
@@ -20078,7 +20133,7 @@
       <c r="D343" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E343" s="3" t="s">
+      <c r="E343" s="7" t="s">
         <v>1715</v>
       </c>
       <c r="F343" s="4">
@@ -20112,7 +20167,7 @@
       <c r="D344" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E344" s="3" t="s">
+      <c r="E344" s="7" t="s">
         <v>1715</v>
       </c>
       <c r="F344" s="4">
@@ -20146,7 +20201,7 @@
       <c r="D345" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="E345" s="3" t="s">
+      <c r="E345" s="7" t="s">
         <v>1715</v>
       </c>
       <c r="F345" s="4">
@@ -20178,7 +20233,7 @@
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
-      <c r="E346" s="3" t="s">
+      <c r="E346" s="7" t="s">
         <v>1715</v>
       </c>
       <c r="F346" s="4">
@@ -20214,7 +20269,7 @@
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
-      <c r="E347" s="3" t="s">
+      <c r="E347" s="7" t="s">
         <v>1715</v>
       </c>
       <c r="F347" s="4">
@@ -20252,7 +20307,7 @@
       <c r="D348" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E348" s="3" t="s">
+      <c r="E348" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F348" s="4">
@@ -20286,7 +20341,7 @@
       <c r="D349" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E349" s="3" t="s">
+      <c r="E349" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F349" s="4">
@@ -20312,7 +20367,7 @@
       <c r="B350" s="3"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
-      <c r="E350" s="3" t="s">
+      <c r="E350" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F350" s="4">
@@ -20342,7 +20397,7 @@
       <c r="B351" s="3"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
-      <c r="E351" s="3" t="s">
+      <c r="E351" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F351" s="4">
@@ -20378,7 +20433,7 @@
       <c r="B352" s="3"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
-      <c r="E352" s="3" t="s">
+      <c r="E352" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F352" s="4">
@@ -20414,7 +20469,7 @@
       <c r="B353" s="3"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
-      <c r="E353" s="3" t="s">
+      <c r="E353" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F353" s="4">
@@ -20456,7 +20511,7 @@
       <c r="D354" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E354" s="3" t="s">
+      <c r="E354" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F354" s="4">
@@ -20490,7 +20545,7 @@
       <c r="D355" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E355" s="3" t="s">
+      <c r="E355" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F355" s="4">
@@ -20524,7 +20579,7 @@
       <c r="D356" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E356" s="3" t="s">
+      <c r="E356" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F356" s="4">
@@ -20558,7 +20613,7 @@
       <c r="D357" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E357" s="3" t="s">
+      <c r="E357" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F357" s="4">
@@ -20592,7 +20647,7 @@
       <c r="D358" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E358" s="3" t="s">
+      <c r="E358" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F358" s="4">
@@ -20626,7 +20681,7 @@
       <c r="D359" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E359" s="3" t="s">
+      <c r="E359" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F359" s="4">
@@ -20660,7 +20715,7 @@
       <c r="D360" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E360" s="3" t="s">
+      <c r="E360" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F360" s="4">
@@ -20686,7 +20741,7 @@
       <c r="B361" s="3"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
-      <c r="E361" s="3" t="s">
+      <c r="E361" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F361" s="4">
@@ -20728,7 +20783,7 @@
       <c r="D362" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E362" s="3" t="s">
+      <c r="E362" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F362" s="4">
@@ -20766,7 +20821,7 @@
       <c r="D363" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E363" s="3" t="s">
+      <c r="E363" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F363" s="4">
@@ -20800,7 +20855,7 @@
       <c r="D364" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E364" s="3" t="s">
+      <c r="E364" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F364" s="4">
@@ -20834,7 +20889,7 @@
       <c r="D365" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E365" s="3" t="s">
+      <c r="E365" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F365" s="4">
@@ -20878,7 +20933,7 @@
       <c r="D366" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E366" s="3" t="s">
+      <c r="E366" s="7" t="s">
         <v>1702</v>
       </c>
       <c r="F366" s="4">
@@ -20916,7 +20971,7 @@
       <c r="D367" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E367" s="3" t="s">
+      <c r="E367" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F367" s="4">
@@ -20950,7 +21005,7 @@
       <c r="D368" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E368" s="3" t="s">
+      <c r="E368" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F368" s="4">
@@ -20978,7 +21033,7 @@
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
-      <c r="E369" s="3" t="s">
+      <c r="E369" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F369" s="4">
@@ -21014,7 +21069,7 @@
       <c r="D370" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E370" s="3" t="s">
+      <c r="E370" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F370" s="4">
@@ -21048,7 +21103,7 @@
       <c r="D371" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E371" s="3" t="s">
+      <c r="E371" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F371" s="4">
@@ -21082,7 +21137,7 @@
       <c r="D372" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E372" s="3" t="s">
+      <c r="E372" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F372" s="4">
@@ -21116,7 +21171,7 @@
       <c r="D373" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="E373" s="3" t="s">
+      <c r="E373" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F373" s="4">
@@ -21154,7 +21209,7 @@
       <c r="D374" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="E374" s="3" t="s">
+      <c r="E374" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F374" s="4">
@@ -21192,7 +21247,7 @@
       <c r="D375" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E375" s="3" t="s">
+      <c r="E375" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F375" s="4">
@@ -21226,7 +21281,7 @@
       <c r="D376" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E376" s="3" t="s">
+      <c r="E376" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F376" s="4">
@@ -21260,7 +21315,7 @@
       <c r="D377" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E377" s="3" t="s">
+      <c r="E377" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F377" s="4">
@@ -21294,7 +21349,7 @@
       <c r="D378" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E378" s="3" t="s">
+      <c r="E378" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F378" s="4">
@@ -21328,7 +21383,7 @@
       <c r="D379" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E379" s="3" t="s">
+      <c r="E379" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F379" s="4">
@@ -21362,7 +21417,7 @@
       <c r="D380" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E380" s="3" t="s">
+      <c r="E380" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F380" s="4">
@@ -21396,7 +21451,7 @@
       <c r="D381" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E381" s="3" t="s">
+      <c r="E381" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F381" s="4">
@@ -21424,7 +21479,7 @@
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
-      <c r="E382" s="3" t="s">
+      <c r="E382" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F382" s="4">
@@ -21462,7 +21517,7 @@
       <c r="D383" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E383" s="3" t="s">
+      <c r="E383" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F383" s="4">
@@ -21488,7 +21543,7 @@
       <c r="B384" s="3"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
-      <c r="E384" s="3" t="s">
+      <c r="E384" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F384" s="4">
@@ -21530,7 +21585,7 @@
       <c r="D385" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E385" s="3" t="s">
+      <c r="E385" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F385" s="4">
@@ -21564,7 +21619,7 @@
       <c r="D386" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E386" s="3" t="s">
+      <c r="E386" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F386" s="4">
@@ -21590,7 +21645,7 @@
       <c r="B387" s="3"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
-      <c r="E387" s="3" t="s">
+      <c r="E387" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F387" s="4">
@@ -21622,7 +21677,7 @@
       <c r="B388" s="3"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
-      <c r="E388" s="3" t="s">
+      <c r="E388" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F388" s="4">
@@ -21658,7 +21713,7 @@
       <c r="B389" s="3"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
-      <c r="E389" s="3" t="s">
+      <c r="E389" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F389" s="4">
@@ -21694,7 +21749,7 @@
       <c r="B390" s="3"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
-      <c r="E390" s="3" t="s">
+      <c r="E390" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F390" s="4">
@@ -21738,7 +21793,7 @@
       <c r="D391" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E391" s="3" t="s">
+      <c r="E391" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F391" s="4">
@@ -21764,7 +21819,7 @@
       <c r="B392" s="3"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
-      <c r="E392" s="3" t="s">
+      <c r="E392" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F392" s="4">
@@ -21794,7 +21849,7 @@
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
-      <c r="E393" s="3" t="s">
+      <c r="E393" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F393" s="4">
@@ -21832,7 +21887,7 @@
       <c r="D394" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E394" s="3" t="s">
+      <c r="E394" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F394" s="4">
@@ -21866,7 +21921,7 @@
       <c r="D395" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E395" s="3" t="s">
+      <c r="E395" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F395" s="4">
@@ -21900,7 +21955,7 @@
       <c r="D396" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="E396" s="3" t="s">
+      <c r="E396" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F396" s="4">
@@ -21934,7 +21989,7 @@
       <c r="D397" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E397" s="3" t="s">
+      <c r="E397" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F397" s="4">
@@ -21968,7 +22023,7 @@
       <c r="D398" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E398" s="3" t="s">
+      <c r="E398" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F398" s="4">
@@ -22002,7 +22057,7 @@
       <c r="D399" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E399" s="3" t="s">
+      <c r="E399" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F399" s="4">
@@ -22040,7 +22095,7 @@
       <c r="D400" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E400" s="3" t="s">
+      <c r="E400" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F400" s="4">
@@ -22080,7 +22135,7 @@
       <c r="D401" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="E401" s="3" t="s">
+      <c r="E401" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F401" s="4">
@@ -22124,7 +22179,7 @@
       <c r="D402" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E402" s="3" t="s">
+      <c r="E402" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F402" s="4">
@@ -22158,7 +22213,7 @@
       <c r="D403" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E403" s="3" t="s">
+      <c r="E403" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F403" s="4">
@@ -22192,7 +22247,7 @@
       <c r="D404" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E404" s="3" t="s">
+      <c r="E404" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F404" s="4">
@@ -22226,7 +22281,7 @@
       <c r="D405" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E405" s="3" t="s">
+      <c r="E405" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F405" s="4">
@@ -22260,7 +22315,7 @@
       <c r="D406" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E406" s="3" t="s">
+      <c r="E406" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F406" s="4">
@@ -22288,7 +22343,7 @@
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
-      <c r="E407" s="3" t="s">
+      <c r="E407" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F407" s="4">
@@ -22326,7 +22381,7 @@
       <c r="D408" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E408" s="3" t="s">
+      <c r="E408" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F408" s="4">
@@ -22352,7 +22407,7 @@
       <c r="B409" s="3"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
-      <c r="E409" s="3" t="s">
+      <c r="E409" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F409" s="4">
@@ -22388,7 +22443,7 @@
       <c r="D410" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E410" s="3" t="s">
+      <c r="E410" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F410" s="4">
@@ -22422,7 +22477,7 @@
       <c r="D411" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E411" s="3" t="s">
+      <c r="E411" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F411" s="4">
@@ -22456,7 +22511,7 @@
       <c r="D412" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E412" s="3" t="s">
+      <c r="E412" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F412" s="4">
@@ -22494,7 +22549,7 @@
       <c r="D413" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E413" s="3" t="s">
+      <c r="E413" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F413" s="4">
@@ -22528,7 +22583,7 @@
       <c r="D414" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E414" s="3" t="s">
+      <c r="E414" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F414" s="4">
@@ -22562,7 +22617,7 @@
       <c r="D415" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E415" s="3" t="s">
+      <c r="E415" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F415" s="4">
@@ -22596,7 +22651,7 @@
       <c r="D416" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E416" s="3" t="s">
+      <c r="E416" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F416" s="4">
@@ -22640,7 +22695,7 @@
       <c r="D417" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E417" s="3" t="s">
+      <c r="E417" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F417" s="4">
@@ -22682,7 +22737,7 @@
       <c r="D418" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E418" s="3" t="s">
+      <c r="E418" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F418" s="4">
@@ -22724,7 +22779,7 @@
       <c r="D419" s="2" t="s">
         <v>2342</v>
       </c>
-      <c r="E419" s="3" t="s">
+      <c r="E419" s="7" t="s">
         <v>1699</v>
       </c>
       <c r="F419" s="4">
@@ -22758,7 +22813,7 @@
       <c r="D420" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E420" s="3" t="s">
+      <c r="E420" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F420" s="4">
@@ -22792,7 +22847,7 @@
       <c r="D421" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E421" s="3" t="s">
+      <c r="E421" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F421" s="4">
@@ -22826,7 +22881,7 @@
       <c r="D422" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E422" s="3" t="s">
+      <c r="E422" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F422" s="4">
@@ -22860,7 +22915,7 @@
       <c r="D423" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E423" s="3" t="s">
+      <c r="E423" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F423" s="4">
@@ -22894,7 +22949,7 @@
       <c r="D424" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E424" s="3" t="s">
+      <c r="E424" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F424" s="4">
@@ -22920,7 +22975,7 @@
       <c r="B425" s="3"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
-      <c r="E425" s="3" t="s">
+      <c r="E425" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F425" s="4">
@@ -22958,7 +23013,7 @@
       <c r="D426" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E426" s="3" t="s">
+      <c r="E426" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F426" s="4">
@@ -22992,7 +23047,7 @@
       <c r="D427" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E427" s="3" t="s">
+      <c r="E427" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F427" s="4">
@@ -23030,7 +23085,7 @@
       <c r="D428" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E428" s="3" t="s">
+      <c r="E428" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F428" s="4">
@@ -23056,7 +23111,7 @@
       <c r="B429" s="3"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
-      <c r="E429" s="3" t="s">
+      <c r="E429" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F429" s="4">
@@ -23098,7 +23153,7 @@
       <c r="D430" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E430" s="3" t="s">
+      <c r="E430" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F430" s="4">
@@ -23132,7 +23187,7 @@
       <c r="D431" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E431" s="3" t="s">
+      <c r="E431" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F431" s="4">
@@ -23174,7 +23229,7 @@
       <c r="D432" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E432" s="3" t="s">
+      <c r="E432" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F432" s="4">
@@ -23208,7 +23263,7 @@
       <c r="D433" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="E433" s="3" t="s">
+      <c r="E433" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F433" s="4">
@@ -23236,7 +23291,7 @@
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
-      <c r="E434" s="3" t="s">
+      <c r="E434" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F434" s="4">
@@ -23266,7 +23321,7 @@
       <c r="B435" s="3"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
-      <c r="E435" s="3" t="s">
+      <c r="E435" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F435" s="4">
@@ -23306,7 +23361,7 @@
       <c r="D436" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E436" s="3" t="s">
+      <c r="E436" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F436" s="4">
@@ -23332,7 +23387,7 @@
       <c r="B437" s="3"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
-      <c r="E437" s="3" t="s">
+      <c r="E437" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F437" s="4">
@@ -23362,7 +23417,7 @@
       <c r="B438" s="3"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
-      <c r="E438" s="3" t="s">
+      <c r="E438" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F438" s="4">
@@ -23400,7 +23455,7 @@
       <c r="D439" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E439" s="3" t="s">
+      <c r="E439" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F439" s="4">
@@ -23426,7 +23481,7 @@
       <c r="B440" s="3"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
-      <c r="E440" s="3" t="s">
+      <c r="E440" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F440" s="4">
@@ -23460,7 +23515,7 @@
       <c r="B441" s="3"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
-      <c r="E441" s="3" t="s">
+      <c r="E441" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F441" s="4">
@@ -23498,7 +23553,7 @@
       <c r="D442" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E442" s="3" t="s">
+      <c r="E442" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F442" s="4">
@@ -23536,7 +23591,7 @@
       <c r="D443" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="E443" s="3" t="s">
+      <c r="E443" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F443" s="4">
@@ -23570,7 +23625,7 @@
       <c r="D444" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E444" s="3" t="s">
+      <c r="E444" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F444" s="4">
@@ -23598,7 +23653,7 @@
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
-      <c r="E445" s="3" t="s">
+      <c r="E445" s="7" t="s">
         <v>1744</v>
       </c>
       <c r="F445" s="4">
@@ -23640,7 +23695,7 @@
       <c r="D446" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E446" s="3" t="s">
+      <c r="E446" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F446" s="4">
@@ -23674,7 +23729,7 @@
       <c r="D447" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="E447" s="3" t="s">
+      <c r="E447" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F447" s="4">
@@ -23708,7 +23763,7 @@
       <c r="D448" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E448" s="3" t="s">
+      <c r="E448" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F448" s="4">
@@ -23742,7 +23797,7 @@
       <c r="D449" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E449" s="3" t="s">
+      <c r="E449" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F449" s="4">
@@ -23776,7 +23831,7 @@
       <c r="D450" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E450" s="3" t="s">
+      <c r="E450" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F450" s="4">
@@ -23810,7 +23865,7 @@
       <c r="D451" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E451" s="3" t="s">
+      <c r="E451" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F451" s="4">
@@ -23844,7 +23899,7 @@
       <c r="D452" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E452" s="3" t="s">
+      <c r="E452" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F452" s="4">
@@ -23870,7 +23925,7 @@
       <c r="B453" s="3"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
-      <c r="E453" s="3" t="s">
+      <c r="E453" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F453" s="4">
@@ -23912,7 +23967,7 @@
       <c r="D454" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E454" s="3" t="s">
+      <c r="E454" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F454" s="4">
@@ -23946,7 +24001,7 @@
       <c r="D455" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E455" s="3" t="s">
+      <c r="E455" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F455" s="4">
@@ -23980,7 +24035,7 @@
       <c r="D456" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E456" s="3" t="s">
+      <c r="E456" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F456" s="4">
@@ -24018,7 +24073,7 @@
       <c r="D457" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="E457" s="3" t="s">
+      <c r="E457" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F457" s="4">
@@ -24060,7 +24115,7 @@
       <c r="D458" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E458" s="3" t="s">
+      <c r="E458" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F458" s="4">
@@ -24098,7 +24153,7 @@
       <c r="D459" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E459" s="3" t="s">
+      <c r="E459" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F459" s="4">
@@ -24136,7 +24191,7 @@
       <c r="D460" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E460" s="3" t="s">
+      <c r="E460" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F460" s="4">
@@ -24178,7 +24233,7 @@
       <c r="D461" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E461" s="3" t="s">
+      <c r="E461" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F461" s="4">
@@ -24212,7 +24267,7 @@
       <c r="D462" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="E462" s="3" t="s">
+      <c r="E462" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F462" s="4">
@@ -24246,7 +24301,7 @@
       <c r="D463" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="E463" s="3" t="s">
+      <c r="E463" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F463" s="4">
@@ -24280,7 +24335,7 @@
       <c r="D464" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E464" s="3" t="s">
+      <c r="E464" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F464" s="4">
@@ -24314,7 +24369,7 @@
       <c r="D465" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E465" s="3" t="s">
+      <c r="E465" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F465" s="4">
@@ -24340,7 +24395,7 @@
       <c r="B466" s="3"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
-      <c r="E466" s="3" t="s">
+      <c r="E466" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F466" s="4">
@@ -24378,7 +24433,7 @@
       <c r="D467" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="E467" s="3" t="s">
+      <c r="E467" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F467" s="4">
@@ -24412,7 +24467,7 @@
       <c r="D468" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E468" s="3" t="s">
+      <c r="E468" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F468" s="4">
@@ -24438,7 +24493,7 @@
       <c r="B469" s="3"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
-      <c r="E469" s="3" t="s">
+      <c r="E469" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F469" s="4">
@@ -24476,7 +24531,7 @@
       <c r="D470" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E470" s="3" t="s">
+      <c r="E470" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F470" s="4">
@@ -24502,7 +24557,7 @@
       <c r="B471" s="3"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
-      <c r="E471" s="3" t="s">
+      <c r="E471" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F471" s="4">
@@ -24540,7 +24595,7 @@
       <c r="D472" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E472" s="3" t="s">
+      <c r="E472" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F472" s="4">
@@ -24572,7 +24627,7 @@
       <c r="D473" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="E473" s="3" t="s">
+      <c r="E473" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F473" s="4">
@@ -24606,7 +24661,7 @@
       <c r="D474" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E474" s="3" t="s">
+      <c r="E474" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F474" s="4">
@@ -24640,7 +24695,7 @@
       <c r="D475" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E475" s="3" t="s">
+      <c r="E475" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F475" s="4">
@@ -24668,7 +24723,7 @@
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
-      <c r="E476" s="3" t="s">
+      <c r="E476" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F476" s="4">
@@ -24710,7 +24765,7 @@
       <c r="D477" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E477" s="3" t="s">
+      <c r="E477" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F477" s="4">
@@ -24736,7 +24791,7 @@
       <c r="B478" s="3"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
-      <c r="E478" s="3" t="s">
+      <c r="E478" s="7" t="s">
         <v>1725</v>
       </c>
       <c r="F478" s="4">
@@ -24778,7 +24833,7 @@
       <c r="D479" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E479" s="3" t="s">
+      <c r="E479" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F479" s="4">
@@ -24812,7 +24867,7 @@
       <c r="D480" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E480" s="3" t="s">
+      <c r="E480" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F480" s="4">
@@ -24838,7 +24893,7 @@
       <c r="B481" s="3"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
-      <c r="E481" s="3" t="s">
+      <c r="E481" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F481" s="4">
@@ -24874,7 +24929,7 @@
       <c r="D482" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E482" s="3" t="s">
+      <c r="E482" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F482" s="4">
@@ -24908,7 +24963,7 @@
       <c r="D483" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E483" s="3" t="s">
+      <c r="E483" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F483" s="4">
@@ -24936,7 +24991,7 @@
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
-      <c r="E484" s="3" t="s">
+      <c r="E484" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F484" s="4">
@@ -24974,7 +25029,7 @@
       <c r="D485" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E485" s="3" t="s">
+      <c r="E485" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F485" s="4">
@@ -25000,7 +25055,7 @@
       <c r="B486" s="3"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
-      <c r="E486" s="3" t="s">
+      <c r="E486" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F486" s="4">
@@ -25030,7 +25085,7 @@
       <c r="B487" s="3"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
-      <c r="E487" s="3" t="s">
+      <c r="E487" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F487" s="4">
@@ -25060,7 +25115,7 @@
       <c r="B488" s="3"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
-      <c r="E488" s="3" t="s">
+      <c r="E488" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F488" s="4">
@@ -25096,7 +25151,7 @@
       <c r="B489" s="3"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
-      <c r="E489" s="3" t="s">
+      <c r="E489" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F489" s="4">
@@ -25132,7 +25187,7 @@
       <c r="D490" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E490" s="3" t="s">
+      <c r="E490" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F490" s="4">
@@ -25170,7 +25225,7 @@
       <c r="D491" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E491" s="3" t="s">
+      <c r="E491" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F491" s="4">
@@ -25204,7 +25259,7 @@
       <c r="D492" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E492" s="3" t="s">
+      <c r="E492" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F492" s="4">
@@ -25238,7 +25293,7 @@
       <c r="D493" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E493" s="3" t="s">
+      <c r="E493" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F493" s="4">
@@ -25276,7 +25331,7 @@
       <c r="D494" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E494" s="3" t="s">
+      <c r="E494" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F494" s="4">
@@ -25310,7 +25365,7 @@
       <c r="D495" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E495" s="3" t="s">
+      <c r="E495" s="7" t="s">
         <v>1731</v>
       </c>
       <c r="F495" s="4">
@@ -25342,7 +25397,7 @@
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
-      <c r="E496" s="3" t="s">
+      <c r="E496" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F496" s="4">
@@ -25372,7 +25427,7 @@
       <c r="B497" s="3"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
-      <c r="E497" s="3" t="s">
+      <c r="E497" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F497" s="4">
@@ -25404,7 +25459,7 @@
       <c r="B498" s="3"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
-      <c r="E498" s="3" t="s">
+      <c r="E498" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F498" s="4">
@@ -25438,7 +25493,7 @@
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
-      <c r="E499" s="3" t="s">
+      <c r="E499" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F499" s="4">
@@ -25476,7 +25531,7 @@
       <c r="D500" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E500" s="3" t="s">
+      <c r="E500" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F500" s="4">
@@ -25502,7 +25557,7 @@
       <c r="B501" s="3"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
-      <c r="E501" s="3" t="s">
+      <c r="E501" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F501" s="4">
@@ -25544,7 +25599,7 @@
       <c r="D502" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E502" s="3" t="s">
+      <c r="E502" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F502" s="4">
@@ -25570,7 +25625,7 @@
       <c r="B503" s="3"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
-      <c r="E503" s="3" t="s">
+      <c r="E503" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F503" s="4">
@@ -25608,7 +25663,7 @@
       <c r="D504" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E504" s="3" t="s">
+      <c r="E504" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F504" s="4">
@@ -25642,7 +25697,7 @@
       <c r="D505" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E505" s="3" t="s">
+      <c r="E505" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F505" s="4">
@@ -25676,7 +25731,7 @@
       <c r="D506" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E506" s="3" t="s">
+      <c r="E506" s="7" t="s">
         <v>1730</v>
       </c>
       <c r="F506" s="4">
@@ -25708,7 +25763,7 @@
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
-      <c r="E507" s="3" t="s">
+      <c r="E507" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F507" s="4">
@@ -25740,7 +25795,7 @@
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
-      <c r="E508" s="3" t="s">
+      <c r="E508" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F508" s="4">
@@ -25770,7 +25825,7 @@
       <c r="B509" s="3"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
-      <c r="E509" s="3" t="s">
+      <c r="E509" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F509" s="4">
@@ -25808,7 +25863,7 @@
       <c r="D510" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E510" s="3" t="s">
+      <c r="E510" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F510" s="4">
@@ -25842,7 +25897,7 @@
       <c r="D511" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E511" s="3" t="s">
+      <c r="E511" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F511" s="4">
@@ -25876,7 +25931,7 @@
       <c r="D512" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E512" s="3" t="s">
+      <c r="E512" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F512" s="4">
@@ -25912,7 +25967,7 @@
       <c r="D513" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E513" s="3" t="s">
+      <c r="E513" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F513" s="4">
@@ -25946,7 +26001,7 @@
       <c r="D514" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E514" s="3" t="s">
+      <c r="E514" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F514" s="4">
@@ -25980,7 +26035,7 @@
       <c r="D515" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E515" s="3" t="s">
+      <c r="E515" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F515" s="4">
@@ -26012,7 +26067,7 @@
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
-      <c r="E516" s="3" t="s">
+      <c r="E516" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F516" s="4">
@@ -26048,7 +26103,7 @@
       <c r="D517" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E517" s="3" t="s">
+      <c r="E517" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F517" s="4">
@@ -26074,7 +26129,7 @@
       <c r="B518" s="3"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
-      <c r="E518" s="3" t="s">
+      <c r="E518" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F518" s="4">
@@ -26118,7 +26173,7 @@
       <c r="D519" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E519" s="3" t="s">
+      <c r="E519" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F519" s="4">
@@ -26152,7 +26207,7 @@
       <c r="D520" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E520" s="3" t="s">
+      <c r="E520" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F520" s="4">
@@ -26178,7 +26233,7 @@
       <c r="B521" s="3"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
-      <c r="E521" s="3" t="s">
+      <c r="E521" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F521" s="4">
@@ -26216,7 +26271,7 @@
       <c r="D522" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E522" s="3" t="s">
+      <c r="E522" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F522" s="4">
@@ -26250,7 +26305,7 @@
       <c r="D523" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E523" s="3" t="s">
+      <c r="E523" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F523" s="4">
@@ -26284,7 +26339,7 @@
       <c r="D524" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="E524" s="3" t="s">
+      <c r="E524" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F524" s="4">
@@ -26322,7 +26377,7 @@
       <c r="D525" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E525" s="3" t="s">
+      <c r="E525" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F525" s="4">
@@ -26356,7 +26411,7 @@
       <c r="D526" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E526" s="3" t="s">
+      <c r="E526" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F526" s="4">
@@ -26390,7 +26445,7 @@
       <c r="D527" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E527" s="3" t="s">
+      <c r="E527" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F527" s="4">
@@ -26428,7 +26483,7 @@
       <c r="D528" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E528" s="3" t="s">
+      <c r="E528" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F528" s="4">
@@ -26454,7 +26509,7 @@
       <c r="B529" s="3"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
-      <c r="E529" s="3" t="s">
+      <c r="E529" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F529" s="4">
@@ -26490,7 +26545,7 @@
       <c r="D530" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E530" s="3" t="s">
+      <c r="E530" s="7" t="s">
         <v>1728</v>
       </c>
       <c r="F530" s="4">
@@ -26518,7 +26573,7 @@
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
-      <c r="E531" s="3" t="s">
+      <c r="E531" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F531" s="4">
@@ -26550,7 +26605,7 @@
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
-      <c r="E532" s="3" t="s">
+      <c r="E532" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F532" s="4">
@@ -26588,7 +26643,7 @@
       <c r="D533" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E533" s="3" t="s">
+      <c r="E533" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F533" s="4">
@@ -26622,7 +26677,7 @@
       <c r="D534" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E534" s="3" t="s">
+      <c r="E534" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F534" s="4">
@@ -26656,7 +26711,7 @@
       <c r="D535" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E535" s="3" t="s">
+      <c r="E535" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F535" s="4">
@@ -26682,7 +26737,7 @@
       <c r="B536" s="3"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
-      <c r="E536" s="3" t="s">
+      <c r="E536" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F536" s="4">
@@ -26716,7 +26771,7 @@
       <c r="B537" s="3"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
-      <c r="E537" s="3" t="s">
+      <c r="E537" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F537" s="4">
@@ -26748,7 +26803,7 @@
       <c r="B538" s="3"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
-      <c r="E538" s="3" t="s">
+      <c r="E538" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F538" s="4">
@@ -26780,7 +26835,7 @@
       <c r="B539" s="3"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
-      <c r="E539" s="3" t="s">
+      <c r="E539" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F539" s="4">
@@ -26812,7 +26867,7 @@
       <c r="B540" s="3"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
-      <c r="E540" s="3" t="s">
+      <c r="E540" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F540" s="4">
@@ -26850,7 +26905,7 @@
       <c r="D541" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E541" s="3" t="s">
+      <c r="E541" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F541" s="4">
@@ -26876,7 +26931,7 @@
       <c r="B542" s="3"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
-      <c r="E542" s="3" t="s">
+      <c r="E542" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F542" s="4">
@@ -26910,7 +26965,7 @@
       <c r="B543" s="3"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
-      <c r="E543" s="3" t="s">
+      <c r="E543" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F543" s="4">
@@ -26952,7 +27007,7 @@
       <c r="D544" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E544" s="3" t="s">
+      <c r="E544" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F544" s="4">
@@ -26990,7 +27045,7 @@
       <c r="D545" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E545" s="3" t="s">
+      <c r="E545" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F545" s="4">
@@ -27024,7 +27079,7 @@
       <c r="D546" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E546" s="3" t="s">
+      <c r="E546" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F546" s="4">
@@ -27050,7 +27105,7 @@
       <c r="B547" s="3"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
-      <c r="E547" s="3" t="s">
+      <c r="E547" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F547" s="4">
@@ -27088,7 +27143,7 @@
       <c r="D548" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E548" s="3" t="s">
+      <c r="E548" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F548" s="4">
@@ -27126,7 +27181,7 @@
       <c r="D549" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E549" s="3" t="s">
+      <c r="E549" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F549" s="4">
@@ -27164,7 +27219,7 @@
       <c r="D550" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E550" s="3" t="s">
+      <c r="E550" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F550" s="4">
@@ -27190,7 +27245,7 @@
       <c r="B551" s="3"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
-      <c r="E551" s="3" t="s">
+      <c r="E551" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F551" s="4">
@@ -27220,7 +27275,7 @@
       <c r="B552" s="3"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
-      <c r="E552" s="3" t="s">
+      <c r="E552" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F552" s="4">
@@ -27264,7 +27319,7 @@
       <c r="D553" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E553" s="3" t="s">
+      <c r="E553" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F553" s="4">
@@ -27290,7 +27345,7 @@
       <c r="B554" s="3"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
-      <c r="E554" s="3" t="s">
+      <c r="E554" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F554" s="4">
@@ -27330,7 +27385,7 @@
       <c r="D555" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E555" s="3" t="s">
+      <c r="E555" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F555" s="4">
@@ -27364,7 +27419,7 @@
       <c r="D556" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E556" s="3" t="s">
+      <c r="E556" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F556" s="4">
@@ -27398,7 +27453,7 @@
       <c r="D557" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="E557" s="3" t="s">
+      <c r="E557" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F557" s="4">
@@ -27432,7 +27487,7 @@
       <c r="D558" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="E558" s="3" t="s">
+      <c r="E558" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F558" s="4">
@@ -27466,7 +27521,7 @@
       <c r="D559" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E559" s="3" t="s">
+      <c r="E559" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F559" s="4">
@@ -27500,7 +27555,7 @@
       <c r="D560" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E560" s="3" t="s">
+      <c r="E560" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F560" s="4">
@@ -27534,7 +27589,7 @@
       <c r="D561" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E561" s="3" t="s">
+      <c r="E561" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F561" s="4">
@@ -27568,7 +27623,7 @@
       <c r="D562" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="E562" s="3" t="s">
+      <c r="E562" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F562" s="4">
@@ -27602,7 +27657,7 @@
       <c r="D563" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E563" s="3" t="s">
+      <c r="E563" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F563" s="4">
@@ -27636,7 +27691,7 @@
       <c r="D564" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E564" s="3" t="s">
+      <c r="E564" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F564" s="4">
@@ -27670,7 +27725,7 @@
       <c r="D565" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E565" s="3" t="s">
+      <c r="E565" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F565" s="4">
@@ -27696,7 +27751,7 @@
       <c r="B566" s="3"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
-      <c r="E566" s="3" t="s">
+      <c r="E566" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F566" s="4">
@@ -27726,7 +27781,7 @@
       <c r="B567" s="3"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
-      <c r="E567" s="3" t="s">
+      <c r="E567" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F567" s="4">
@@ -27768,7 +27823,7 @@
       <c r="D568" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E568" s="3" t="s">
+      <c r="E568" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F568" s="4">
@@ -27802,7 +27857,7 @@
       <c r="B569" s="3"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
-      <c r="E569" s="3" t="s">
+      <c r="E569" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F569" s="4">
@@ -27832,7 +27887,7 @@
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
-      <c r="E570" s="3" t="s">
+      <c r="E570" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F570" s="4">
@@ -27870,7 +27925,7 @@
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
-      <c r="E571" s="3" t="s">
+      <c r="E571" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F571" s="4">
@@ -27908,7 +27963,7 @@
       <c r="D572" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E572" s="3" t="s">
+      <c r="E572" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F572" s="4">
@@ -27942,7 +27997,7 @@
       <c r="D573" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E573" s="3" t="s">
+      <c r="E573" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F573" s="4">
@@ -27976,7 +28031,7 @@
       <c r="D574" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E574" s="3" t="s">
+      <c r="E574" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F574" s="4">
@@ -28014,7 +28069,7 @@
       <c r="D575" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E575" s="3" t="s">
+      <c r="E575" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F575" s="4">
@@ -28040,7 +28095,7 @@
       <c r="B576" s="3"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
-      <c r="E576" s="3" t="s">
+      <c r="E576" s="7" t="s">
         <v>1742</v>
       </c>
       <c r="F576" s="4">
@@ -28070,7 +28125,7 @@
       <c r="B577" s="3"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
-      <c r="E577" s="3" t="s">
+      <c r="E577" s="7" t="s">
         <v>1742</v>
       </c>
       <c r="F577" s="4">
@@ -28106,7 +28161,7 @@
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
-      <c r="E578" s="3" t="s">
+      <c r="E578" s="7" t="s">
         <v>1742</v>
       </c>
       <c r="F578" s="4">
@@ -28136,7 +28191,7 @@
       <c r="B579" s="3"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
-      <c r="E579" s="3" t="s">
+      <c r="E579" s="7" t="s">
         <v>1742</v>
       </c>
       <c r="F579" s="4">
@@ -28174,7 +28229,7 @@
       <c r="D580" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="E580" s="3" t="s">
+      <c r="E580" s="7" t="s">
         <v>1742</v>
       </c>
       <c r="F580" s="4">
@@ -28218,7 +28273,7 @@
       <c r="D581" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E581" s="3" t="s">
+      <c r="E581" s="7" t="s">
         <v>1742</v>
       </c>
       <c r="F581" s="4">
@@ -28252,7 +28307,7 @@
       <c r="D582" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E582" s="3" t="s">
+      <c r="E582" s="7" t="s">
         <v>1742</v>
       </c>
       <c r="F582" s="4">
@@ -28286,7 +28341,7 @@
       <c r="D583" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E583" s="3" t="s">
+      <c r="E583" s="7" t="s">
         <v>1717</v>
       </c>
       <c r="F583" s="4">
@@ -28320,7 +28375,7 @@
       <c r="D584" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E584" s="3" t="s">
+      <c r="E584" s="7" t="s">
         <v>1717</v>
       </c>
       <c r="F584" s="4">
@@ -28352,7 +28407,7 @@
       <c r="D585" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E585" s="3" t="s">
+      <c r="E585" s="7" t="s">
         <v>1717</v>
       </c>
       <c r="F585" s="4">
@@ -28386,7 +28441,7 @@
       <c r="D586" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E586" s="3" t="s">
+      <c r="E586" s="7" t="s">
         <v>1717</v>
       </c>
       <c r="F586" s="4">
@@ -28420,7 +28475,7 @@
       <c r="D587" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E587" s="3" t="s">
+      <c r="E587" s="7" t="s">
         <v>1717</v>
       </c>
       <c r="F587" s="4">
@@ -28454,7 +28509,7 @@
       <c r="D588" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E588" s="3" t="s">
+      <c r="E588" s="7" t="s">
         <v>1737</v>
       </c>
       <c r="F588" s="4">
@@ -28488,7 +28543,7 @@
       <c r="D589" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="E589" s="3" t="s">
+      <c r="E589" s="7" t="s">
         <v>1737</v>
       </c>
       <c r="F589" s="4">
@@ -28514,7 +28569,7 @@
       <c r="B590" s="3"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
-      <c r="E590" s="3" t="s">
+      <c r="E590" s="7" t="s">
         <v>1737</v>
       </c>
       <c r="F590" s="4">
@@ -28552,7 +28607,7 @@
       <c r="D591" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E591" s="3" t="s">
+      <c r="E591" s="7" t="s">
         <v>1737</v>
       </c>
       <c r="F591" s="4">
@@ -28586,7 +28641,7 @@
       <c r="D592" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E592" s="3" t="s">
+      <c r="E592" s="7" t="s">
         <v>1737</v>
       </c>
       <c r="F592" s="4">
@@ -28614,7 +28669,7 @@
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
-      <c r="E593" s="3" t="s">
+      <c r="E593" s="7" t="s">
         <v>1737</v>
       </c>
       <c r="F593" s="4">
@@ -28650,7 +28705,7 @@
       <c r="D594" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E594" s="3" t="s">
+      <c r="E594" s="7" t="s">
         <v>1716</v>
       </c>
       <c r="F594" s="4">
@@ -28684,7 +28739,7 @@
       <c r="D595" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E595" s="3" t="s">
+      <c r="E595" s="7" t="s">
         <v>1716</v>
       </c>
       <c r="F595" s="4">
@@ -28718,7 +28773,7 @@
       <c r="D596" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="E596" s="3" t="s">
+      <c r="E596" s="7" t="s">
         <v>1716</v>
       </c>
       <c r="F596" s="4">
@@ -28746,7 +28801,7 @@
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
-      <c r="E597" s="3" t="s">
+      <c r="E597" s="7" t="s">
         <v>1716</v>
       </c>
       <c r="F597" s="4">
@@ -28776,7 +28831,7 @@
       <c r="B598" s="3"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
-      <c r="E598" s="3" t="s">
+      <c r="E598" s="7" t="s">
         <v>1716</v>
       </c>
       <c r="F598" s="4">
@@ -28814,7 +28869,7 @@
       <c r="D599" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E599" s="3" t="s">
+      <c r="E599" s="7" t="s">
         <v>1716</v>
       </c>
       <c r="F599" s="4">
@@ -28852,7 +28907,7 @@
       <c r="D600" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E600" s="3" t="s">
+      <c r="E600" s="7" t="s">
         <v>1716</v>
       </c>
       <c r="F600" s="4">
@@ -28878,7 +28933,7 @@
       <c r="B601" s="3"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
-      <c r="E601" s="3" t="s">
+      <c r="E601" s="7" t="s">
         <v>1716</v>
       </c>
       <c r="F601" s="4">
@@ -28914,7 +28969,7 @@
       <c r="D602" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E602" s="3" t="s">
+      <c r="E602" s="7" t="s">
         <v>1716</v>
       </c>
       <c r="F602" s="4">
@@ -28948,7 +29003,7 @@
       <c r="D603" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E603" s="3" t="s">
+      <c r="E603" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F603" s="4">
@@ -28976,7 +29031,7 @@
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
-      <c r="E604" s="3" t="s">
+      <c r="E604" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F604" s="4">
@@ -29014,7 +29069,7 @@
       <c r="D605" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E605" s="3" t="s">
+      <c r="E605" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F605" s="4">
@@ -29048,7 +29103,7 @@
       <c r="D606" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E606" s="3" t="s">
+      <c r="E606" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F606" s="4">
@@ -29082,7 +29137,7 @@
       <c r="D607" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E607" s="3" t="s">
+      <c r="E607" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F607" s="4">
@@ -29116,7 +29171,7 @@
       <c r="D608" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E608" s="3" t="s">
+      <c r="E608" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F608" s="4">
@@ -29154,7 +29209,7 @@
       <c r="D609" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E609" s="3" t="s">
+      <c r="E609" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F609" s="4">
@@ -29198,7 +29253,7 @@
       <c r="D610" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E610" s="3" t="s">
+      <c r="E610" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F610" s="4">
@@ -29232,7 +29287,7 @@
       <c r="D611" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E611" s="3" t="s">
+      <c r="E611" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F611" s="4">
@@ -29264,7 +29319,7 @@
       <c r="D612" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E612" s="3" t="s">
+      <c r="E612" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F612" s="4">
@@ -29292,7 +29347,7 @@
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
-      <c r="E613" s="3" t="s">
+      <c r="E613" s="7" t="s">
         <v>1727</v>
       </c>
       <c r="F613" s="4">
@@ -29330,7 +29385,7 @@
       <c r="D614" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E614" s="3" t="s">
+      <c r="E614" s="7" t="s">
         <v>1721</v>
       </c>
       <c r="F614" s="4">
@@ -29356,7 +29411,7 @@
       <c r="B615" s="3"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
-      <c r="E615" s="3" t="s">
+      <c r="E615" s="7" t="s">
         <v>1721</v>
       </c>
       <c r="F615" s="4">
@@ -29386,7 +29441,7 @@
       <c r="B616" s="3"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
-      <c r="E616" s="3" t="s">
+      <c r="E616" s="7" t="s">
         <v>1721</v>
       </c>
       <c r="F616" s="4">
@@ -29416,7 +29471,7 @@
       <c r="B617" s="3"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
-      <c r="E617" s="3" t="s">
+      <c r="E617" s="7" t="s">
         <v>1721</v>
       </c>
       <c r="F617" s="4">
@@ -29452,7 +29507,7 @@
       <c r="D618" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E618" s="3" t="s">
+      <c r="E618" s="7" t="s">
         <v>1721</v>
       </c>
       <c r="F618" s="4">
@@ -29488,7 +29543,7 @@
       <c r="D619" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E619" s="3" t="s">
+      <c r="E619" s="7" t="s">
         <v>1721</v>
       </c>
       <c r="F619" s="4">
@@ -29522,7 +29577,7 @@
       <c r="D620" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E620" s="3" t="s">
+      <c r="E620" s="7" t="s">
         <v>1721</v>
       </c>
       <c r="F620" s="4">
@@ -29556,7 +29611,7 @@
       <c r="D621" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="E621" s="3" t="s">
+      <c r="E621" s="7" t="s">
         <v>1721</v>
       </c>
       <c r="F621" s="4">
@@ -29590,7 +29645,7 @@
       <c r="D622" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E622" s="3" t="s">
+      <c r="E622" s="7" t="s">
         <v>1738</v>
       </c>
       <c r="F622" s="4">
@@ -29616,7 +29671,7 @@
       <c r="B623" s="3"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
-      <c r="E623" s="3" t="s">
+      <c r="E623" s="7" t="s">
         <v>1738</v>
       </c>
       <c r="F623" s="4">
@@ -29646,7 +29701,7 @@
       <c r="B624" s="3"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
-      <c r="E624" s="3" t="s">
+      <c r="E624" s="7" t="s">
         <v>1738</v>
       </c>
       <c r="F624" s="4">
@@ -29680,7 +29735,7 @@
       <c r="D625" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E625" s="3" t="s">
+      <c r="E625" s="7" t="s">
         <v>1738</v>
       </c>
       <c r="F625" s="4">
@@ -29708,7 +29763,7 @@
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
-      <c r="E626" s="3" t="s">
+      <c r="E626" s="7" t="s">
         <v>1738</v>
       </c>
       <c r="F626" s="4">
@@ -29746,7 +29801,7 @@
       <c r="D627" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E627" s="3" t="s">
+      <c r="E627" s="7" t="s">
         <v>1704</v>
       </c>
       <c r="F627" s="4">
@@ -29780,7 +29835,7 @@
       <c r="D628" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E628" s="3" t="s">
+      <c r="E628" s="7" t="s">
         <v>1704</v>
       </c>
       <c r="F628" s="4">
@@ -29808,7 +29863,7 @@
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
-      <c r="E629" s="3" t="s">
+      <c r="E629" s="7" t="s">
         <v>1704</v>
       </c>
       <c r="F629" s="4">
@@ -29840,7 +29895,7 @@
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
-      <c r="E630" s="3" t="s">
+      <c r="E630" s="7" t="s">
         <v>1704</v>
       </c>
       <c r="F630" s="4">
@@ -29870,7 +29925,7 @@
       <c r="B631" s="3"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
-      <c r="E631" s="3" t="s">
+      <c r="E631" s="7" t="s">
         <v>1704</v>
       </c>
       <c r="F631" s="4">
@@ -29898,7 +29953,7 @@
       <c r="B632" s="3"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
-      <c r="E632" s="3" t="s">
+      <c r="E632" s="7" t="s">
         <v>1704</v>
       </c>
       <c r="F632" s="4">
@@ -29936,7 +29991,7 @@
       <c r="D633" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E633" s="3" t="s">
+      <c r="E633" s="7" t="s">
         <v>1704</v>
       </c>
       <c r="F633" s="4">
@@ -29964,7 +30019,7 @@
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
-      <c r="E634" s="3" t="s">
+      <c r="E634" s="7" t="s">
         <v>1704</v>
       </c>
       <c r="F634" s="4">
@@ -30006,7 +30061,7 @@
       <c r="D635" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E635" s="3" t="s">
+      <c r="E635" s="7" t="s">
         <v>1704</v>
       </c>
       <c r="F635" s="4">
@@ -30034,7 +30089,7 @@
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
-      <c r="E636" s="3" t="s">
+      <c r="E636" s="7" t="s">
         <v>1724</v>
       </c>
       <c r="F636" s="4">
@@ -30066,7 +30121,7 @@
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
-      <c r="E637" s="3" t="s">
+      <c r="E637" s="7" t="s">
         <v>1724</v>
       </c>
       <c r="F637" s="4">
@@ -30104,7 +30159,7 @@
       <c r="D638" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E638" s="3" t="s">
+      <c r="E638" s="7" t="s">
         <v>1724</v>
       </c>
       <c r="F638" s="4">
@@ -30130,7 +30185,7 @@
       <c r="B639" s="3"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
-      <c r="E639" s="3" t="s">
+      <c r="E639" s="7" t="s">
         <v>1724</v>
       </c>
       <c r="F639" s="4">
@@ -30168,7 +30223,7 @@
       <c r="D640" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E640" s="3" t="s">
+      <c r="E640" s="7" t="s">
         <v>1724</v>
       </c>
       <c r="F640" s="4">
@@ -30202,7 +30257,7 @@
       <c r="D641" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E641" s="3" t="s">
+      <c r="E641" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="F641" s="4">
@@ -30228,7 +30283,7 @@
       <c r="B642" s="3"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
-      <c r="E642" s="3" t="s">
+      <c r="E642" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="F642" s="4">
@@ -30258,7 +30313,7 @@
       <c r="B643" s="3"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
-      <c r="E643" s="3" t="s">
+      <c r="E643" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="F643" s="4">
@@ -30290,7 +30345,7 @@
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
-      <c r="E644" s="3" t="s">
+      <c r="E644" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="F644" s="4">
@@ -30328,7 +30383,7 @@
       <c r="D645" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E645" s="3" t="s">
+      <c r="E645" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="F645" s="4">
@@ -30366,7 +30421,7 @@
       <c r="D646" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E646" s="3" t="s">
+      <c r="E646" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="F646" s="4">
@@ -30400,7 +30455,7 @@
       <c r="D647" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="E647" s="3" t="s">
+      <c r="E647" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="F647" s="4">
@@ -30434,7 +30489,7 @@
       <c r="D648" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E648" s="3" t="s">
+      <c r="E648" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="F648" s="4">
@@ -30468,7 +30523,7 @@
       <c r="D649" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E649" s="3" t="s">
+      <c r="E649" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="F649" s="4">
@@ -30502,7 +30557,7 @@
       <c r="D650" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E650" s="3" t="s">
+      <c r="E650" s="7" t="s">
         <v>1741</v>
       </c>
       <c r="F650" s="4">
@@ -30542,7 +30597,7 @@
       <c r="D651" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E651" s="3" t="s">
+      <c r="E651" s="7" t="s">
         <v>1741</v>
       </c>
       <c r="F651" s="4">
@@ -30576,7 +30631,7 @@
       <c r="D652" s="2" t="s">
         <v>2345</v>
       </c>
-      <c r="E652" s="3" t="s">
+      <c r="E652" s="7" t="s">
         <v>1705</v>
       </c>
       <c r="F652" s="4">
@@ -30614,7 +30669,7 @@
       <c r="D653" s="2" t="s">
         <v>2349</v>
       </c>
-      <c r="E653" s="3" t="s">
+      <c r="E653" s="7" t="s">
         <v>1736</v>
       </c>
       <c r="F653" s="4">
@@ -30650,7 +30705,7 @@
       <c r="D654" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="E654" s="3" t="s">
+      <c r="E654" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F654" s="4">
@@ -30684,7 +30739,7 @@
       <c r="D655" s="2" t="s">
         <v>2352</v>
       </c>
-      <c r="E655" s="3" t="s">
+      <c r="E655" s="7" t="s">
         <v>1723</v>
       </c>
       <c r="F655" s="4">
@@ -30710,7 +30765,7 @@
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
-      <c r="E656" s="3" t="s">
+      <c r="E656" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F656" s="4">
@@ -30748,7 +30803,7 @@
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
-      <c r="E657" s="3" t="s">
+      <c r="E657" s="7" t="s">
         <v>1706</v>
       </c>
       <c r="F657" s="4">
@@ -30792,7 +30847,7 @@
       <c r="D658" s="2" t="s">
         <v>2360</v>
       </c>
-      <c r="E658" s="3" t="s">
+      <c r="E658" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F658" s="4">
@@ -30830,7 +30885,7 @@
       <c r="D659" s="2" t="s">
         <v>2364</v>
       </c>
-      <c r="E659" s="3" t="s">
+      <c r="E659" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F659" s="4">
@@ -30864,7 +30919,7 @@
       <c r="D660" s="2" t="s">
         <v>2366</v>
       </c>
-      <c r="E660" s="3" t="s">
+      <c r="E660" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F660" s="4">
@@ -30902,7 +30957,7 @@
       <c r="D661" s="2" t="s">
         <v>2369</v>
       </c>
-      <c r="E661" s="3" t="s">
+      <c r="E661" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F661" s="4">
@@ -30928,7 +30983,7 @@
       <c r="B662" s="3"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
-      <c r="E662" s="3" t="s">
+      <c r="E662" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F662" s="4">
@@ -30966,7 +31021,7 @@
       <c r="D663" s="2" t="s">
         <v>2372</v>
       </c>
-      <c r="E663" s="3" t="s">
+      <c r="E663" s="7" t="s">
         <v>1740</v>
       </c>
       <c r="F663" s="4">
@@ -30992,7 +31047,7 @@
       <c r="B664" s="3"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
-      <c r="E664" s="3" t="s">
+      <c r="E664" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F664" s="4">
@@ -31032,7 +31087,7 @@
       <c r="D665" s="2" t="s">
         <v>2376</v>
       </c>
-      <c r="E665" s="3" t="s">
+      <c r="E665" s="7" t="s">
         <v>1719</v>
       </c>
       <c r="F665" s="4">
@@ -31070,7 +31125,7 @@
       <c r="D666" s="2" t="s">
         <v>2380</v>
       </c>
-      <c r="E666" s="3" t="s">
+      <c r="E666" s="7" t="s">
         <v>1721</v>
       </c>
       <c r="F666" s="4">
@@ -31104,7 +31159,7 @@
       <c r="D667" s="2" t="s">
         <v>2382</v>
       </c>
-      <c r="E667" s="3" t="s">
+      <c r="E667" s="7" t="s">
         <v>1738</v>
       </c>
       <c r="F667" s="4">
@@ -31138,7 +31193,7 @@
       <c r="D668" s="2" t="s">
         <v>2384</v>
       </c>
-      <c r="E668" s="3" t="s">
+      <c r="E668" s="7" t="s">
         <v>1724</v>
       </c>
       <c r="F668" s="4">
@@ -31172,7 +31227,7 @@
       <c r="D669" s="2" t="s">
         <v>2322</v>
       </c>
-      <c r="E669" s="3" t="s">
+      <c r="E669" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F669" s="4">
@@ -31202,7 +31257,7 @@
       <c r="B670" s="3"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
-      <c r="E670" s="3" t="s">
+      <c r="E670" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="F670" s="4">
@@ -31232,7 +31287,7 @@
       <c r="B671" s="3"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
-      <c r="E671" s="3" t="s">
+      <c r="E671" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F671" s="4">
@@ -31270,7 +31325,7 @@
       <c r="D672" s="2" t="s">
         <v>2334</v>
       </c>
-      <c r="E672" s="3" t="s">
+      <c r="E672" s="7" t="s">
         <v>1698</v>
       </c>
       <c r="F672" s="4">
@@ -31306,7 +31361,7 @@
       <c r="D673" s="2" t="s">
         <v>2395</v>
       </c>
-      <c r="E673" s="3" t="s">
+      <c r="E673" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F673" s="4">
@@ -31334,7 +31389,7 @@
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
-      <c r="E674" s="3" t="s">
+      <c r="E674" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F674" s="4">
@@ -31364,7 +31419,7 @@
       <c r="B675" s="3"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
-      <c r="E675" s="3" t="s">
+      <c r="E675" s="7" t="s">
         <v>1708</v>
       </c>
       <c r="F675" s="4">
@@ -31396,7 +31451,7 @@
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
-      <c r="E676" s="3" t="s">
+      <c r="E676" s="7" t="s">
         <v>1726</v>
       </c>
       <c r="F676" s="4">
@@ -31438,7 +31493,7 @@
       <c r="D677" s="2" t="s">
         <v>2402</v>
       </c>
-      <c r="E677" s="3" t="s">
+      <c r="E677" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F677" s="4">
@@ -31472,7 +31527,7 @@
       <c r="D678" s="2" t="s">
         <v>2404</v>
       </c>
-      <c r="E678" s="3" t="s">
+      <c r="E678" s="7" t="s">
         <v>1722</v>
       </c>
       <c r="F678" s="4">
@@ -31510,7 +31565,7 @@
       <c r="D679" s="2" t="s">
         <v>2408</v>
       </c>
-      <c r="E679" s="3" t="s">
+      <c r="E679" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F679" s="4">
@@ -31538,7 +31593,7 @@
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
-      <c r="E680" s="3" t="s">
+      <c r="E680" s="7" t="s">
         <v>1717</v>
       </c>
       <c r="F680" s="4">
@@ -31580,7 +31635,7 @@
       <c r="D681" s="2" t="s">
         <v>2395</v>
       </c>
-      <c r="E681" s="3" t="s">
+      <c r="E681" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F681" s="4">
@@ -31614,7 +31669,7 @@
       <c r="D682" s="2" t="s">
         <v>2412</v>
       </c>
-      <c r="E682" s="3" t="s">
+      <c r="E682" s="7" t="s">
         <v>1720</v>
       </c>
       <c r="F682" s="4">
@@ -31648,7 +31703,7 @@
       <c r="D683" s="2" t="s">
         <v>2414</v>
       </c>
-      <c r="E683" s="3" t="s">
+      <c r="E683" s="7" t="s">
         <v>1703</v>
       </c>
       <c r="F683" s="4">
@@ -31682,7 +31737,7 @@
       <c r="B684" s="3"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
-      <c r="E684" s="3" t="s">
+      <c r="E684" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F684" s="4">
@@ -31720,7 +31775,7 @@
       <c r="D685" s="2" t="s">
         <v>2360</v>
       </c>
-      <c r="E685" s="3" t="s">
+      <c r="E685" s="7" t="s">
         <v>1700</v>
       </c>
       <c r="F685" s="4">
@@ -31750,7 +31805,7 @@
       <c r="B686" s="3"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
-      <c r="E686" s="3" t="s">
+      <c r="E686" s="7" t="s">
         <v>1729</v>
       </c>
       <c r="F686" s="4">
@@ -31788,7 +31843,7 @@
       <c r="D687" s="2" t="s">
         <v>2424</v>
       </c>
-      <c r="E687" s="3" t="s">
+      <c r="E687" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F687" s="4">
@@ -31826,7 +31881,7 @@
       <c r="D688" s="2" t="s">
         <v>2366</v>
       </c>
-      <c r="E688" s="3" t="s">
+      <c r="E688" s="7" t="s">
         <v>1734</v>
       </c>
       <c r="F688" s="4">
@@ -31856,7 +31911,7 @@
       <c r="B689" s="3"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
-      <c r="E689" s="3" t="s">
+      <c r="E689" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="F689" s="4">
@@ -31894,7 +31949,7 @@
       <c r="D690" s="2" t="s">
         <v>2430</v>
       </c>
-      <c r="E690" s="3" t="s">
+      <c r="E690" s="7" t="s">
         <v>1701</v>
       </c>
       <c r="F690" s="4">
@@ -31928,7 +31983,7 @@
       <c r="D691" s="2" t="s">
         <v>2402</v>
       </c>
-      <c r="E691" s="3" t="s">
+      <c r="E691" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F691" s="4">
@@ -31956,7 +32011,7 @@
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
-      <c r="E692" s="3" t="s">
+      <c r="E692" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="F692" s="4">
@@ -31994,7 +32049,7 @@
       <c r="D693" s="2" t="s">
         <v>2435</v>
       </c>
-      <c r="E693" s="3" t="s">
+      <c r="E693" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F693" s="4">
@@ -32032,7 +32087,7 @@
       <c r="D694" s="2" t="s">
         <v>2435</v>
       </c>
-      <c r="E694" s="3" t="s">
+      <c r="E694" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="F694" s="4">
@@ -32060,7 +32115,7 @@
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
-      <c r="E695" s="3" t="s">
+      <c r="E695" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="F695" s="4">
@@ -32090,7 +32145,7 @@
       <c r="B696" s="3"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
-      <c r="E696" s="3" t="s">
+      <c r="E696" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F696" s="4">
@@ -32128,7 +32183,7 @@
       <c r="D697" s="2" t="s">
         <v>2395</v>
       </c>
-      <c r="E697" s="3" t="s">
+      <c r="E697" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="F697" s="4">
@@ -32166,7 +32221,7 @@
       <c r="D698" s="2" t="s">
         <v>2441</v>
       </c>
-      <c r="E698" s="3" t="s">
+      <c r="E698" s="7" t="s">
         <v>1709</v>
       </c>
       <c r="F698" s="4">
@@ -32194,7 +32249,7 @@
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
-      <c r="E699" s="3" t="s">
+      <c r="E699" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F699" s="4">
@@ -32232,7 +32287,7 @@
       <c r="D700" s="2" t="s">
         <v>2444</v>
       </c>
-      <c r="E700" s="3" t="s">
+      <c r="E700" s="7" t="s">
         <v>1711</v>
       </c>
       <c r="F700" s="4">
@@ -32258,7 +32313,7 @@
       <c r="B701" s="3"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
-      <c r="E701" s="3" t="s">
+      <c r="E701" s="7" t="s">
         <v>1712</v>
       </c>
       <c r="F701" s="4">
@@ -32296,7 +32351,7 @@
       <c r="D702" s="2" t="s">
         <v>2447</v>
       </c>
-      <c r="E702" s="3" t="s">
+      <c r="E702" s="7" t="s">
         <v>1717</v>
       </c>
       <c r="F702" s="4">
@@ -32330,7 +32385,7 @@
       <c r="D703" s="2" t="s">
         <v>2447</v>
       </c>
-      <c r="E703" s="3" t="s">
+      <c r="E703" s="7" t="s">
         <v>1717</v>
       </c>
       <c r="F703" s="4">
@@ -32364,7 +32419,7 @@
       <c r="D704" s="2" t="s">
         <v>2452</v>
       </c>
-      <c r="E704" s="3" t="s">
+      <c r="E704" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="F704" s="4">
@@ -32393,65 +32448,1003 @@
         <v>2320</v>
       </c>
     </row>
+    <row r="705" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A705" s="3">
+        <v>905519846</v>
+      </c>
+      <c r="B705" s="3">
+        <v>31635743</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E705" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F705" s="4">
+        <v>44146</v>
+      </c>
+      <c r="G705" s="6">
+        <v>26567</v>
+      </c>
+      <c r="H705" s="2"/>
+      <c r="I705" s="2"/>
+      <c r="J705" s="2"/>
+      <c r="K705" s="2"/>
+      <c r="L705" s="3"/>
+      <c r="M705" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N705" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="706" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A706" s="3"/>
+      <c r="B706" s="3">
+        <v>31626978</v>
+      </c>
+      <c r="C706" s="2"/>
+      <c r="D706" s="2"/>
+      <c r="E706" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F706" s="4">
+        <v>44162</v>
+      </c>
+      <c r="G706" s="6">
+        <v>26623</v>
+      </c>
+      <c r="H706" s="2" t="s">
+        <v>2455</v>
+      </c>
+      <c r="I706" s="2"/>
+      <c r="J706" s="2"/>
+      <c r="K706" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="L706" s="3"/>
+      <c r="M706" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N706" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="707" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A707" s="3"/>
+      <c r="B707" s="3"/>
+      <c r="C707" s="2"/>
+      <c r="D707" s="2"/>
+      <c r="E707" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F707" s="4">
+        <v>44164</v>
+      </c>
+      <c r="G707" s="6">
+        <v>26629</v>
+      </c>
+      <c r="H707" s="2" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I707" s="2"/>
+      <c r="J707" s="2"/>
+      <c r="K707" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L707" s="3"/>
+      <c r="M707" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N707" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="708" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A708" s="3"/>
+      <c r="B708" s="3">
+        <v>31642418</v>
+      </c>
+      <c r="C708" s="2"/>
+      <c r="D708" s="2"/>
+      <c r="E708" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F708" s="4">
+        <v>44164</v>
+      </c>
+      <c r="G708" s="6">
+        <v>26629</v>
+      </c>
+      <c r="H708" s="2" t="s">
+        <v>2459</v>
+      </c>
+      <c r="I708" s="2"/>
+      <c r="J708" s="2"/>
+      <c r="K708" s="2" t="s">
+        <v>2460</v>
+      </c>
+      <c r="L708" s="3"/>
+      <c r="M708" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N708" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="709" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A709" s="3"/>
+      <c r="B709" s="3"/>
+      <c r="C709" s="2"/>
+      <c r="D709" s="2"/>
+      <c r="E709" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F709" s="4">
+        <v>44140</v>
+      </c>
+      <c r="G709" s="6">
+        <v>25734</v>
+      </c>
+      <c r="H709" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="I709" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J709" s="2"/>
+      <c r="K709" s="2" t="s">
+        <v>2461</v>
+      </c>
+      <c r="L709" s="3" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M709" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N709" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="710" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A710" s="3">
+        <v>905522744</v>
+      </c>
+      <c r="B710" s="3">
+        <v>31636714</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E710" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F710" s="4">
+        <v>44148</v>
+      </c>
+      <c r="G710" s="6">
+        <v>26105</v>
+      </c>
+      <c r="H710" s="2" t="s">
+        <v>2463</v>
+      </c>
+      <c r="I710" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J710" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="K710" s="2" t="s">
+        <v>2465</v>
+      </c>
+      <c r="L710" s="3" t="s">
+        <v>2466</v>
+      </c>
+      <c r="M710" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N710" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="711" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A711" s="3"/>
+      <c r="B711" s="3"/>
+      <c r="C711" s="2"/>
+      <c r="D711" s="2"/>
+      <c r="E711" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F711" s="4">
+        <v>44148</v>
+      </c>
+      <c r="G711" s="6">
+        <v>26105</v>
+      </c>
+      <c r="H711" s="2" t="s">
+        <v>2467</v>
+      </c>
+      <c r="I711" s="2"/>
+      <c r="J711" s="2"/>
+      <c r="K711" s="2" t="s">
+        <v>2468</v>
+      </c>
+      <c r="L711" s="3"/>
+      <c r="M711" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N711" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="712" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A712" s="3">
+        <v>905520234</v>
+      </c>
+      <c r="B712" s="3">
+        <v>31635858</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E712" s="7" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F712" s="4">
+        <v>44146</v>
+      </c>
+      <c r="G712" s="6">
+        <v>25111</v>
+      </c>
+      <c r="H712" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="I712" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J712" s="2"/>
+      <c r="K712" s="2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L712" s="3" t="s">
+        <v>2473</v>
+      </c>
+      <c r="M712" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N712" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="713" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A713" s="3">
+        <v>905537228</v>
+      </c>
+      <c r="B713" s="3">
+        <v>31641592</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D713" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E713" s="7" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F713" s="4">
+        <v>44160</v>
+      </c>
+      <c r="G713" s="6">
+        <v>25409</v>
+      </c>
+      <c r="H713" s="2"/>
+      <c r="I713" s="2"/>
+      <c r="J713" s="2"/>
+      <c r="K713" s="2"/>
+      <c r="L713" s="3"/>
+      <c r="M713" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N713" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="714" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A714" s="3">
+        <v>905538340</v>
+      </c>
+      <c r="B714" s="3">
+        <v>31642384</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E714" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F714" s="4">
+        <v>44161</v>
+      </c>
+      <c r="G714" s="6">
+        <v>25016</v>
+      </c>
+      <c r="H714" s="2"/>
+      <c r="I714" s="2"/>
+      <c r="J714" s="2"/>
+      <c r="K714" s="2"/>
+      <c r="L714" s="3"/>
+      <c r="M714" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N714" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="715" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A715" s="3">
+        <v>905518952</v>
+      </c>
+      <c r="B715" s="3">
+        <v>31635691</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E715" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F715" s="4">
+        <v>44145</v>
+      </c>
+      <c r="G715" s="6">
+        <v>24925</v>
+      </c>
+      <c r="H715" s="2" t="s">
+        <v>2480</v>
+      </c>
+      <c r="I715" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J715" s="2"/>
+      <c r="K715" s="2" t="s">
+        <v>2481</v>
+      </c>
+      <c r="L715" s="3" t="s">
+        <v>2482</v>
+      </c>
+      <c r="M715" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N715" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="716" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A716" s="3">
+        <v>905537552</v>
+      </c>
+      <c r="B716" s="3">
+        <v>31641645</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E716" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F716" s="4">
+        <v>44159</v>
+      </c>
+      <c r="G716" s="6">
+        <v>23284</v>
+      </c>
+      <c r="H716" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="I716" s="2"/>
+      <c r="J716" s="2"/>
+      <c r="K716" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="L716" s="3"/>
+      <c r="M716" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N716" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="717" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A717" s="3"/>
+      <c r="B717" s="3"/>
+      <c r="C717" s="2"/>
+      <c r="D717" s="2"/>
+      <c r="E717" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F717" s="4">
+        <v>44159</v>
+      </c>
+      <c r="G717" s="6">
+        <v>23284</v>
+      </c>
+      <c r="H717" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="I717" s="2"/>
+      <c r="J717" s="2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="K717" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L717" s="3"/>
+      <c r="M717" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N717" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="718" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A718" s="3"/>
+      <c r="B718" s="3"/>
+      <c r="C718" s="2"/>
+      <c r="D718" s="2"/>
+      <c r="E718" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F718" s="4">
+        <v>44159</v>
+      </c>
+      <c r="G718" s="6">
+        <v>23284</v>
+      </c>
+      <c r="H718" s="2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="I718" s="2"/>
+      <c r="J718" s="2"/>
+      <c r="K718" s="2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="L718" s="3"/>
+      <c r="M718" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N718" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="719" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A719" s="3">
+        <v>905516554</v>
+      </c>
+      <c r="B719" s="3">
+        <v>31634606</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E719" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F719" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G719" s="6">
+        <v>20356</v>
+      </c>
+      <c r="H719" s="2"/>
+      <c r="I719" s="2"/>
+      <c r="J719" s="2"/>
+      <c r="K719" s="2"/>
+      <c r="L719" s="3"/>
+      <c r="M719" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N719" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="720" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A720" s="3"/>
+      <c r="B720" s="3"/>
+      <c r="C720" s="2"/>
+      <c r="D720" s="2"/>
+      <c r="E720" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F720" s="4">
+        <v>44162</v>
+      </c>
+      <c r="G720" s="6">
+        <v>19152</v>
+      </c>
+      <c r="H720" s="2" t="s">
+        <v>2455</v>
+      </c>
+      <c r="I720" s="2"/>
+      <c r="J720" s="2"/>
+      <c r="K720" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="L720" s="3"/>
+      <c r="M720" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N720" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="721" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A721" s="3"/>
+      <c r="B721" s="3">
+        <v>31627144</v>
+      </c>
+      <c r="C721" s="2"/>
+      <c r="D721" s="2"/>
+      <c r="E721" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F721" s="4">
+        <v>44164</v>
+      </c>
+      <c r="G721" s="6">
+        <v>19231</v>
+      </c>
+      <c r="H721" s="2" t="s">
+        <v>2455</v>
+      </c>
+      <c r="I721" s="2"/>
+      <c r="J721" s="2"/>
+      <c r="K721" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="L721" s="3"/>
+      <c r="M721" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N721" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="722" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A722" s="3">
+        <v>905523328</v>
+      </c>
+      <c r="B722" s="3">
+        <v>31637568</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>2497</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="E722" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F722" s="4">
+        <v>44149</v>
+      </c>
+      <c r="G722" s="6">
+        <v>18011</v>
+      </c>
+      <c r="H722" s="2"/>
+      <c r="I722" s="2"/>
+      <c r="J722" s="2"/>
+      <c r="K722" s="2"/>
+      <c r="L722" s="3"/>
+      <c r="M722" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N722" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="723" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A723" s="3"/>
+      <c r="B723" s="3"/>
+      <c r="C723" s="2"/>
+      <c r="D723" s="2"/>
+      <c r="E723" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F723" s="4">
+        <v>44150</v>
+      </c>
+      <c r="G723" s="6">
+        <v>18010</v>
+      </c>
+      <c r="H723" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I723" s="2"/>
+      <c r="J723" s="2"/>
+      <c r="K723" s="2" t="s">
+        <v>2501</v>
+      </c>
+      <c r="L723" s="3"/>
+      <c r="M723" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N723" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="724" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A724" s="3">
+        <v>905523573</v>
+      </c>
+      <c r="B724" s="3">
+        <v>31637201</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E724" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F724" s="4">
+        <v>44150</v>
+      </c>
+      <c r="G724" s="6">
+        <v>18010</v>
+      </c>
+      <c r="H724" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="I724" s="2"/>
+      <c r="J724" s="2"/>
+      <c r="K724" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="L724" s="3"/>
+      <c r="M724" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N724" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="725" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A725" s="3"/>
+      <c r="B725" s="3"/>
+      <c r="C725" s="2"/>
+      <c r="D725" s="2"/>
+      <c r="E725" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F725" s="4">
+        <v>44160</v>
+      </c>
+      <c r="G725" s="6">
+        <v>19069</v>
+      </c>
+      <c r="H725" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="I725" s="2"/>
+      <c r="J725" s="2"/>
+      <c r="K725" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="L725" s="3"/>
+      <c r="M725" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N725" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="726" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A726" s="3"/>
+      <c r="B726" s="3">
+        <v>31634552</v>
+      </c>
+      <c r="C726" s="2"/>
+      <c r="D726" s="2"/>
+      <c r="E726" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F726" s="4">
+        <v>44143</v>
+      </c>
+      <c r="G726" s="6">
+        <v>18739</v>
+      </c>
+      <c r="H726" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="I726" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J726" s="2"/>
+      <c r="K726" s="2" t="s">
+        <v>2506</v>
+      </c>
+      <c r="L726" s="3" t="s">
+        <v>2507</v>
+      </c>
+      <c r="M726" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N726" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="727" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A727" s="3"/>
+      <c r="B727" s="3"/>
+      <c r="C727" s="2"/>
+      <c r="D727" s="2"/>
+      <c r="E727" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F727" s="4">
+        <v>44144</v>
+      </c>
+      <c r="G727" s="6">
+        <v>18739</v>
+      </c>
+      <c r="H727" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="I727" s="2"/>
+      <c r="J727" s="2"/>
+      <c r="K727" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="L727" s="3"/>
+      <c r="M727" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N727" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="728" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A728" s="3"/>
+      <c r="B728" s="3"/>
+      <c r="C728" s="2"/>
+      <c r="D728" s="2"/>
+      <c r="E728" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F728" s="4">
+        <v>44164</v>
+      </c>
+      <c r="G728" s="6">
+        <v>17458</v>
+      </c>
+      <c r="H728" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="I728" s="2"/>
+      <c r="J728" s="2"/>
+      <c r="K728" s="2" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L728" s="3"/>
+      <c r="M728" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N728" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="729" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A729" s="3"/>
+      <c r="B729" s="3"/>
+      <c r="C729" s="2"/>
+      <c r="D729" s="2"/>
+      <c r="E729" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F729" s="4">
+        <v>44164</v>
+      </c>
+      <c r="G729" s="6">
+        <v>17458</v>
+      </c>
+      <c r="H729" s="2" t="s">
+        <v>2510</v>
+      </c>
+      <c r="I729" s="2"/>
+      <c r="J729" s="2" t="s">
+        <v>2487</v>
+      </c>
+      <c r="K729" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="L729" s="3"/>
+      <c r="M729" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N729" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="730" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A730" s="3"/>
+      <c r="B730" s="3">
+        <v>31627154</v>
+      </c>
+      <c r="C730" s="2"/>
+      <c r="D730" s="2"/>
+      <c r="E730" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F730" s="4">
+        <v>44158</v>
+      </c>
+      <c r="G730" s="6">
+        <v>16741</v>
+      </c>
+      <c r="H730" s="2" t="s">
+        <v>2512</v>
+      </c>
+      <c r="I730" s="2"/>
+      <c r="J730" s="2"/>
+      <c r="K730" s="2" t="s">
+        <v>2513</v>
+      </c>
+      <c r="L730" s="3"/>
+      <c r="M730" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N730" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="731" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A731" s="3">
+        <v>905531904</v>
+      </c>
+      <c r="B731" s="3">
+        <v>31639784</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E731" s="7" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F731" s="4">
+        <v>44156</v>
+      </c>
+      <c r="G731" s="6">
+        <v>15871</v>
+      </c>
+      <c r="H731" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I731" s="2"/>
+      <c r="J731" s="2"/>
+      <c r="K731" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="L731" s="3"/>
+      <c r="M731" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N731" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="732" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A732" s="3">
+        <v>905531905</v>
+      </c>
+      <c r="B732" s="3">
+        <v>31640014</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E732" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F732" s="4">
+        <v>44141</v>
+      </c>
+      <c r="G732" s="6">
+        <v>14948</v>
+      </c>
+      <c r="H732" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="I732" s="2"/>
+      <c r="J732" s="2"/>
+      <c r="K732" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L732" s="3"/>
+      <c r="M732" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N732" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M696 M698:M703">
-    <cfRule type="containsBlanks" dxfId="27" priority="15">
+    <cfRule type="containsBlanks" dxfId="28" priority="22">
       <formula>LEN(TRIM(M2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M537">
-    <cfRule type="containsBlanks" dxfId="26" priority="14">
-      <formula>LEN(TRIM(M537))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N704">
-    <cfRule type="notContainsText" dxfId="25" priority="10" operator="notContains" text="old">
+  <conditionalFormatting sqref="N1:N732">
+    <cfRule type="notContainsText" dxfId="27" priority="17" operator="notContains" text="old">
       <formula>ISERROR(SEARCH("old",N1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N683">
-    <cfRule type="notContainsText" dxfId="24" priority="7" operator="notContains" text="old">
-      <formula>ISERROR(SEARCH("old",N683))</formula>
+  <conditionalFormatting sqref="H686:H696 H2:H682 H684">
+    <cfRule type="duplicateValues" dxfId="26" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J686:J696 J2:J682 J684">
+    <cfRule type="duplicateValues" dxfId="25" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E732">
+    <cfRule type="expression" dxfId="24" priority="7">
+      <formula>MOD(SUMPRODUCT(--($E$1:$E1&lt;&gt;$E$2:$E2)),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H683">
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+  <conditionalFormatting sqref="B710">
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J683">
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+  <conditionalFormatting sqref="B712">
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N685">
-    <cfRule type="notContainsText" dxfId="21" priority="4" operator="notContains" text="old">
-      <formula>ISERROR(SEARCH("old",N685))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="B715">
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H685">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+  <conditionalFormatting sqref="B716">
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J685">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+  <conditionalFormatting sqref="B724">
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H686:H696 H2:H682 H684">
-    <cfRule type="duplicateValues" dxfId="18" priority="102"/>
+  <conditionalFormatting sqref="B732">
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J686:J696 J2:J682 J684">
-    <cfRule type="duplicateValues" dxfId="17" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M697">
-    <cfRule type="containsBlanks" dxfId="16" priority="2">
-      <formula>LEN(TRIM(M697))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M704">
-    <cfRule type="containsBlanks" dxfId="15" priority="1">
-      <formula>LEN(TRIM(M704))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B704">
-    <cfRule type="duplicateValues" dxfId="14" priority="112"/>
+  <conditionalFormatting sqref="B725:B731 B2:B709 B711 B713:B714 B717:B723">
+    <cfRule type="duplicateValues" dxfId="17" priority="142"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M704" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M732" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
       <formula1>"Front, Mid, Rear, Dumpbody, Deck, Other, Handrails, Unknown, x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/smseventlog/_resources/csv/FH Frame Cracks History.xlsx
+++ b/smseventlog/_resources/csv/FH Frame Cracks History.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10103"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jayme/OneDrive/Python/SMS/smseventlog/_resources/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEFA1DE-0B0C-4344-A793-D0A6A73AED2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEEE5A9-9B77-1D41-883D-7B9E7B2A8258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7430" uniqueCount="2520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7526" uniqueCount="2557">
   <si>
     <t/>
   </si>
@@ -7630,6 +7630,119 @@
   </si>
   <si>
     <t>This event is for visibily only,we need to start creating TSI's for these ones.</t>
+  </si>
+  <si>
+    <t>F0301-REPAIR FUEL TANK CRACKS</t>
+  </si>
+  <si>
+    <t>F0301-STRUCTR-FRMGRP</t>
+  </si>
+  <si>
+    <t>Removal of Fuel Tank required for repair. Frame inspection in folder</t>
+  </si>
+  <si>
+    <t>Frame inspection, pictures and downloads in folder - DH</t>
+  </si>
+  <si>
+    <t>Frame Crack - 10 Inch LH Rear</t>
+  </si>
+  <si>
+    <t>F0313 - C/O RRI CRACKED WHEEL</t>
+  </si>
+  <si>
+    <t>F0313-WHEELST-TIRERM-TIRE_RRI</t>
+  </si>
+  <si>
+    <t>F0314 Repair Frame Crack @ Horsecollar</t>
+  </si>
+  <si>
+    <t>F0314-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Frame Crack, Horsecollar RH Upper</t>
+  </si>
+  <si>
+    <t>2020-12-14 - DH - Crack RH Top front of horsecollar. Requires removal of several parts to gain access. Pictures of crack prior to work starting, downloads and frame inspection in folder. Add photos of repair when work is started. 
+2020-12-15 - Welding has started today.</t>
+  </si>
+  <si>
+    <t>2020-12-30 - this has been completed.</t>
+  </si>
+  <si>
+    <t>Axlebox Entryway Crack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event for TSI creation. </t>
+  </si>
+  <si>
+    <t>Frame Crack, 1 Inch Above LH Steer Cylinder</t>
+  </si>
+  <si>
+    <t>Downloads in folder</t>
+  </si>
+  <si>
+    <t>F0318 - FRAME CRACK AT STEER CYLINDER</t>
+  </si>
+  <si>
+    <t>F0318-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Frame Crack - 2 Inch RHS Rear of Intermediate Torque Tube</t>
+  </si>
+  <si>
+    <t>2" crack, RHS upper frame rail just aft of intermediate torque tube. Downloads, photos and frame inspection in folder - DH</t>
+  </si>
+  <si>
+    <t>USAAB202012715</t>
+  </si>
+  <si>
+    <t>Axle Box Entry Way Cracking X 4</t>
+  </si>
+  <si>
+    <t>2020-12-19 - This has been completed, will have some pictures in the eveny folder.</t>
+  </si>
+  <si>
+    <t>F0327-REPAIR TRUCK FRAME CRACKS</t>
+  </si>
+  <si>
+    <t>F0327-STRUCTR-FRMGRP</t>
+  </si>
+  <si>
+    <t>USAAB202012669</t>
+  </si>
+  <si>
+    <t>F0328-REPAIR CRACKED DUMP BODY GUIDE</t>
+  </si>
+  <si>
+    <t>F0328-STRUCTR-BODYGP</t>
+  </si>
+  <si>
+    <t>Frame Crack - LHS Behind Int Torque Tube - 2 Inch</t>
+  </si>
+  <si>
+    <t>2020-12-26 - Crack identified behind intermediate torque tube, LHS upper. 2". Downloads, photos and frame inspection in folder -completed - DH</t>
+  </si>
+  <si>
+    <t>F0332- Rear RH Strut Bearing Cracking</t>
+  </si>
+  <si>
+    <t>F0332-WHEELST-RESUSP-STRUT_RR</t>
+  </si>
+  <si>
+    <t>Downloads, frame inspection and photos  in folder - DH</t>
+  </si>
+  <si>
+    <t>F0341 -  4" CRACK INSIDE HYDARULIC MOUNT</t>
+  </si>
+  <si>
+    <t>F0341-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>F0342 FC19H068-2 FrRAME CRACK REPAIR LHS</t>
+  </si>
+  <si>
+    <t>F0342 - During PM structural inspection a 4-5 inch crack was identified on LH frame behind steering accumulators. Qualifies for FC19H086-2 Frame Cracking repair FC procedure. All SMS labour at no cost under warranty.
+Please pair with next outage</t>
   </si>
 </sst>
 </file>
@@ -7703,77 +7816,66 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="-0.249977111117893"/>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7895,6 +7997,97 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7909,27 +8102,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N732" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:N732" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N749" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:N749" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N651">
     <sortCondition ref="E2:E651"/>
     <sortCondition ref="F2:F651"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7945,7 +8138,7 @@
     <tableColumn id="2" xr3:uid="{8BEF7178-E3B4-D149-A75C-2EC7E1E9CBA7}" name="Notification"/>
     <tableColumn id="3" xr3:uid="{11DB8A07-87AD-FE46-8761-2170FE8BBA14}" name="Order"/>
     <tableColumn id="4" xr3:uid="{BBFD0320-2E12-F24A-805F-F04232B9497B}" name="Description2"/>
-    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="20"/>
     <tableColumn id="6" xr3:uid="{FC0BCB59-BFC5-0643-9D08-977DACD51993}" name="Functional Loc."/>
     <tableColumn id="7" xr3:uid="{016A5D1D-804A-2249-9172-09491E3480EC}" name="Location"/>
     <tableColumn id="9" xr3:uid="{C484CC0E-6555-E74D-8560-E8B5B04E61D3}" name="Unit"/>
@@ -8275,10 +8468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F275D9-6D58-E546-9951-5DFEA9FF85BC}">
-  <dimension ref="A1:N732"/>
+  <dimension ref="A1:N749"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A708" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H732" sqref="H732"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A729" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F750" sqref="F750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33400,51 +33593,605 @@
         <v>2320</v>
       </c>
     </row>
+    <row r="733" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A733" s="3">
+        <v>905549426</v>
+      </c>
+      <c r="B733" s="3">
+        <v>31645963</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="E733" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F733" s="4">
+        <v>44172</v>
+      </c>
+      <c r="G733" s="6">
+        <v>27124</v>
+      </c>
+      <c r="H733" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I733" s="2"/>
+      <c r="J733" s="2"/>
+      <c r="K733" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="L733" s="3"/>
+      <c r="M733" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N733" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="734" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A734" s="3"/>
+      <c r="B734" s="3"/>
+      <c r="C734" s="2"/>
+      <c r="D734" s="2"/>
+      <c r="E734" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F734" s="4">
+        <v>44173</v>
+      </c>
+      <c r="G734" s="6">
+        <v>26795</v>
+      </c>
+      <c r="H734" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I734" s="2"/>
+      <c r="J734" s="2"/>
+      <c r="K734" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="L734" s="3"/>
+      <c r="M734" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N734" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="735" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A735" s="3"/>
+      <c r="B735" s="3"/>
+      <c r="C735" s="2"/>
+      <c r="D735" s="2"/>
+      <c r="E735" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F735" s="4">
+        <v>44201</v>
+      </c>
+      <c r="G735" s="6">
+        <v>27160</v>
+      </c>
+      <c r="H735" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="I735" s="2"/>
+      <c r="J735" s="2"/>
+      <c r="K735" s="2"/>
+      <c r="L735" s="3"/>
+      <c r="M735" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N735" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="736" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A736" s="3">
+        <v>905546085</v>
+      </c>
+      <c r="B736" s="3">
+        <v>31644934</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E736" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F736" s="4">
+        <v>44169</v>
+      </c>
+      <c r="G736" s="6">
+        <v>25366</v>
+      </c>
+      <c r="H736" s="2"/>
+      <c r="I736" s="2"/>
+      <c r="J736" s="2"/>
+      <c r="K736" s="2"/>
+      <c r="L736" s="3"/>
+      <c r="M736" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N736" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="737" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="A737" s="3">
+        <v>905556769</v>
+      </c>
+      <c r="B737" s="3">
+        <v>31648680</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E737" s="7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F737" s="4">
+        <v>44179</v>
+      </c>
+      <c r="G737" s="6">
+        <v>25646</v>
+      </c>
+      <c r="H737" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="I737" s="2"/>
+      <c r="J737" s="2"/>
+      <c r="K737" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="L737" s="3"/>
+      <c r="M737" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N737" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="738" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A738" s="3"/>
+      <c r="B738" s="3">
+        <v>46670818</v>
+      </c>
+      <c r="C738" s="2"/>
+      <c r="D738" s="2"/>
+      <c r="E738" s="7" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F738" s="4">
+        <v>44195</v>
+      </c>
+      <c r="G738" s="6">
+        <v>24666</v>
+      </c>
+      <c r="H738" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="I738" s="2"/>
+      <c r="J738" s="2"/>
+      <c r="K738" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="L738" s="3"/>
+      <c r="M738" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N738" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="739" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A739" s="3"/>
+      <c r="B739" s="3"/>
+      <c r="C739" s="2"/>
+      <c r="D739" s="2"/>
+      <c r="E739" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F739" s="4">
+        <v>44201</v>
+      </c>
+      <c r="G739" s="6">
+        <v>24056</v>
+      </c>
+      <c r="H739" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="I739" s="2"/>
+      <c r="J739" s="2"/>
+      <c r="K739" s="2" t="s">
+        <v>2533</v>
+      </c>
+      <c r="L739" s="3"/>
+      <c r="M739" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N739" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="740" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A740" s="3">
+        <v>905579502</v>
+      </c>
+      <c r="B740" s="3">
+        <v>31656578</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="E740" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F740" s="4">
+        <v>44201</v>
+      </c>
+      <c r="G740" s="6">
+        <v>24056</v>
+      </c>
+      <c r="H740" s="2" t="s">
+        <v>2534</v>
+      </c>
+      <c r="I740" s="2"/>
+      <c r="J740" s="2"/>
+      <c r="K740" s="2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L740" s="3"/>
+      <c r="M740" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N740" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="741" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A741" s="3"/>
+      <c r="B741" s="3"/>
+      <c r="C741" s="2"/>
+      <c r="D741" s="2"/>
+      <c r="E741" s="7" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F741" s="4">
+        <v>44175</v>
+      </c>
+      <c r="G741" s="6">
+        <v>22735</v>
+      </c>
+      <c r="H741" s="2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I741" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J741" s="2"/>
+      <c r="K741" s="2" t="s">
+        <v>2539</v>
+      </c>
+      <c r="L741" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="M741" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N741" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="742" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A742" s="3"/>
+      <c r="B742" s="3"/>
+      <c r="C742" s="2"/>
+      <c r="D742" s="2"/>
+      <c r="E742" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F742" s="4">
+        <v>44182</v>
+      </c>
+      <c r="G742" s="6">
+        <v>21151</v>
+      </c>
+      <c r="H742" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="I742" s="2"/>
+      <c r="J742" s="2"/>
+      <c r="K742" s="2" t="s">
+        <v>2542</v>
+      </c>
+      <c r="L742" s="3"/>
+      <c r="M742" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N742" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="743" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A743" s="3">
+        <v>905547049</v>
+      </c>
+      <c r="B743" s="3">
+        <v>31645342</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E743" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F743" s="4">
+        <v>44170</v>
+      </c>
+      <c r="G743" s="6">
+        <v>18845</v>
+      </c>
+      <c r="H743" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I743" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J743" s="2"/>
+      <c r="K743" s="2"/>
+      <c r="L743" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="M743" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N743" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="744" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A744" s="3">
+        <v>905563950</v>
+      </c>
+      <c r="B744" s="3">
+        <v>31651303</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E744" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F744" s="4">
+        <v>44185</v>
+      </c>
+      <c r="G744" s="6">
+        <v>20232</v>
+      </c>
+      <c r="H744" s="2"/>
+      <c r="I744" s="2"/>
+      <c r="J744" s="2"/>
+      <c r="K744" s="2"/>
+      <c r="L744" s="3"/>
+      <c r="M744" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N744" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="745" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A745" s="3"/>
+      <c r="B745" s="3">
+        <v>31633485</v>
+      </c>
+      <c r="C745" s="2"/>
+      <c r="D745" s="2"/>
+      <c r="E745" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F745" s="4">
+        <v>44191</v>
+      </c>
+      <c r="G745" s="6">
+        <v>19678</v>
+      </c>
+      <c r="H745" s="2" t="s">
+        <v>2548</v>
+      </c>
+      <c r="I745" s="2"/>
+      <c r="J745" s="2"/>
+      <c r="K745" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="L745" s="3"/>
+      <c r="M745" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N745" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="746" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A746" s="3">
+        <v>905576383</v>
+      </c>
+      <c r="B746" s="3">
+        <v>46680904</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>2551</v>
+      </c>
+      <c r="E746" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F746" s="4">
+        <v>44198</v>
+      </c>
+      <c r="G746" s="6">
+        <v>20089</v>
+      </c>
+      <c r="H746" s="2"/>
+      <c r="I746" s="2"/>
+      <c r="J746" s="2"/>
+      <c r="K746" s="2"/>
+      <c r="L746" s="3"/>
+      <c r="M746" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N746" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="747" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A747" s="3"/>
+      <c r="B747" s="3"/>
+      <c r="C747" s="2"/>
+      <c r="D747" s="2"/>
+      <c r="E747" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F747" s="4">
+        <v>44173</v>
+      </c>
+      <c r="G747" s="6">
+        <v>17122</v>
+      </c>
+      <c r="H747" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="I747" s="2"/>
+      <c r="J747" s="2"/>
+      <c r="K747" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="L747" s="3"/>
+      <c r="M747" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N747" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="748" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A748" s="3">
+        <v>905566972</v>
+      </c>
+      <c r="B748" s="3">
+        <v>31652274</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E748" s="7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F748" s="4">
+        <v>44187</v>
+      </c>
+      <c r="G748" s="6">
+        <v>17326</v>
+      </c>
+      <c r="H748" s="2"/>
+      <c r="I748" s="2"/>
+      <c r="J748" s="2"/>
+      <c r="K748" s="2"/>
+      <c r="L748" s="3"/>
+      <c r="M748" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N748" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="749" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A749" s="3">
+        <v>905557107</v>
+      </c>
+      <c r="B749" s="3">
+        <v>31648936</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E749" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F749" s="4">
+        <v>44179</v>
+      </c>
+      <c r="G749" s="6">
+        <v>17040</v>
+      </c>
+      <c r="H749" s="2"/>
+      <c r="I749" s="2"/>
+      <c r="J749" s="2"/>
+      <c r="K749" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="L749" s="3"/>
+      <c r="M749" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N749" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M696 M698:M703">
-    <cfRule type="containsBlanks" dxfId="28" priority="22">
+  <conditionalFormatting sqref="M2:M749">
+    <cfRule type="containsBlanks" dxfId="5" priority="22">
       <formula>LEN(TRIM(M2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N732">
-    <cfRule type="notContainsText" dxfId="27" priority="17" operator="notContains" text="old">
+  <conditionalFormatting sqref="N1:N749">
+    <cfRule type="notContainsText" dxfId="4" priority="17" operator="notContains" text="old">
       <formula>ISERROR(SEARCH("old",N1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H686:H696 H2:H682 H684">
-    <cfRule type="duplicateValues" dxfId="26" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J686:J696 J2:J682 J684">
-    <cfRule type="duplicateValues" dxfId="25" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E732">
-    <cfRule type="expression" dxfId="24" priority="7">
+  <conditionalFormatting sqref="E2:E749">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(SUMPRODUCT(--($E$1:$E1&lt;&gt;$E$2:$E2)),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B710">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B712">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B715">
-    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B716">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B724">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B732">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B725:B731 B2:B709 B711 B713:B714 B717:B723">
-    <cfRule type="duplicateValues" dxfId="17" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="142"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M732" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M749" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
       <formula1>"Front, Mid, Rear, Dumpbody, Deck, Other, Handrails, Unknown, x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/smseventlog/_resources/csv/FH Frame Cracks History.xlsx
+++ b/smseventlog/_resources/csv/FH Frame Cracks History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10201"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jayme/OneDrive/Python/SMS/smseventlog/_resources/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEEE5A9-9B77-1D41-883D-7B9E7B2A8258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18A9D2B-0921-DA43-978C-FAF3E87474AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7526" uniqueCount="2557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7673" uniqueCount="2608">
   <si>
     <t/>
   </si>
@@ -7743,6 +7743,159 @@
   <si>
     <t>F0342 - During PM structural inspection a 4-5 inch crack was identified on LH frame behind steering accumulators. Qualifies for FC19H086-2 Frame Cracking repair FC procedure. All SMS labour at no cost under warranty.
 Please pair with next outage</t>
+  </si>
+  <si>
+    <t>Axlebox Entryway Crack - 3 Inch</t>
+  </si>
+  <si>
+    <t>Pictures in folder for TSI</t>
+  </si>
+  <si>
+    <t>Frame Cracks - LHS Rear 5 Inch, RHS Upper 2 Inch</t>
+  </si>
+  <si>
+    <t>Due January 27, 2021</t>
+  </si>
+  <si>
+    <t>2021-01-12 - Downloads, frame inspection in folder. All photos in folder - DH</t>
+  </si>
+  <si>
+    <t>USAAB202101687</t>
+  </si>
+  <si>
+    <t>Due January 21, 2021</t>
+  </si>
+  <si>
+    <t>Frame inspection, pictures and downloads in folder -DH</t>
+  </si>
+  <si>
+    <t>USAAB202101634</t>
+  </si>
+  <si>
+    <t>Frame Crack 5 Inch LH Exterior Near Hoist Cylinder</t>
+  </si>
+  <si>
+    <t>2021-01-13 - Downloads and frame inspection in folder, photos before crack, and crack gouged in folder - DH</t>
+  </si>
+  <si>
+    <t>USAAB202101696</t>
+  </si>
+  <si>
+    <t>Frame Crack 7 Inch LH Outer At Tail Casting Joint</t>
+  </si>
+  <si>
+    <t>Downloads and frame inspection in folder, need all photos - DH</t>
+  </si>
+  <si>
+    <t>USAAB202101695</t>
+  </si>
+  <si>
+    <t>Frame Crack 12 Inch RH Top of Horsecollar</t>
+  </si>
+  <si>
+    <t>USAAB202101693</t>
+  </si>
+  <si>
+    <t>Axle Box Entryway Cracking</t>
+  </si>
+  <si>
+    <t>Repaired by SMS - photos for TSI in folder - DH</t>
+  </si>
+  <si>
+    <t>2021-01-23 - Photos, downloads and frame inspection in folder - DH</t>
+  </si>
+  <si>
+    <t>Due February 3, 2021</t>
+  </si>
+  <si>
+    <t>2021-01-22 - Photos, downloads and frame inspection in folder - DH</t>
+  </si>
+  <si>
+    <t>USAAB202102501</t>
+  </si>
+  <si>
+    <t>2021-01-23 - Downloads, photos and frame inspection in folder. DH</t>
+  </si>
+  <si>
+    <t>2021-01-22 - Repaired by SMS. Photos in folder for TSI - DH</t>
+  </si>
+  <si>
+    <t>Downloads, pictures and frame inspection in folder - DH</t>
+  </si>
+  <si>
+    <t>USAAB202101574</t>
+  </si>
+  <si>
+    <t>Axlebox</t>
+  </si>
+  <si>
+    <t>event for TSI creation. Photos in folder -DH</t>
+  </si>
+  <si>
+    <t>FC 19H088 Fuel Tank Mount Cracking</t>
+  </si>
+  <si>
+    <t>2021-02-03 - Pictures, frame inspection and downloads in folder - DH</t>
+  </si>
+  <si>
+    <t>Axle Box Entry Cracking</t>
+  </si>
+  <si>
+    <t>Photos in folder for TSI submittal</t>
+  </si>
+  <si>
+    <t>Frame Crack - LHS 2 Inch</t>
+  </si>
+  <si>
+    <t>Due January 22, 2021</t>
+  </si>
+  <si>
+    <t>2021-01-12 - Photos, DL's and inspection in folder - DH</t>
+  </si>
+  <si>
+    <t>USAAB202101646</t>
+  </si>
+  <si>
+    <t>Complete, all documentation is in the folder.</t>
+  </si>
+  <si>
+    <t>2021-02-01 - This has been completed, all documentation has been uploaded to the folder.</t>
+  </si>
+  <si>
+    <t>2021-02-01 - This has been completed, all documentation has been uploaded to folder.</t>
+  </si>
+  <si>
+    <t>Jan 18 night shift welders failed to take photos of crack prior to gouging. NDT inspection report attached as proof of failure instead.</t>
+  </si>
+  <si>
+    <t>F0304 - C/O RRI CRACKED WHEEL</t>
+  </si>
+  <si>
+    <t>F0304-WHEELST-TIRERM-TIRE_RRI</t>
+  </si>
+  <si>
+    <t>F0312 Repair Frame Crack LHS Upper</t>
+  </si>
+  <si>
+    <t>F0312-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>F0312 Repair Frame Crack LHS</t>
+  </si>
+  <si>
+    <t>F0312 Repair Frame Crack @ Horsecollar</t>
+  </si>
+  <si>
+    <t>F0319  repair crack on fuel tank mount</t>
+  </si>
+  <si>
+    <t>F0319-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>F0325 - Repair Frame Crack, 2" LHS</t>
+  </si>
+  <si>
+    <t>F0325-STRUCTR-FRMGRP-MAINFRAME</t>
   </si>
 </sst>
 </file>
@@ -7816,127 +7969,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8018,7 +8051,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8088,6 +8128,9 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8102,27 +8145,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N749" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:N749" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N773" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:N773" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N651">
     <sortCondition ref="E2:E651"/>
     <sortCondition ref="F2:F651"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="Notification" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="Order" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="Description" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="Functional Loc." dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="Unit" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="Date" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="SMR" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="Title" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="TSIPartName" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="TSIDetails" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="WOComments" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="TSINumber" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="Location" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8138,7 +8181,7 @@
     <tableColumn id="2" xr3:uid="{8BEF7178-E3B4-D149-A75C-2EC7E1E9CBA7}" name="Notification"/>
     <tableColumn id="3" xr3:uid="{11DB8A07-87AD-FE46-8761-2170FE8BBA14}" name="Order"/>
     <tableColumn id="4" xr3:uid="{BBFD0320-2E12-F24A-805F-F04232B9497B}" name="Description2"/>
-    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="25"/>
     <tableColumn id="6" xr3:uid="{FC0BCB59-BFC5-0643-9D08-977DACD51993}" name="Functional Loc."/>
     <tableColumn id="7" xr3:uid="{016A5D1D-804A-2249-9172-09491E3480EC}" name="Location"/>
     <tableColumn id="9" xr3:uid="{C484CC0E-6555-E74D-8560-E8B5B04E61D3}" name="Unit"/>
@@ -8468,10 +8511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F275D9-6D58-E546-9951-5DFEA9FF85BC}">
-  <dimension ref="A1:N749"/>
+  <dimension ref="A1:N773"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A729" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F750" sqref="F750"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A753" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J762" sqref="J762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34165,13 +34208,825 @@
         <v>2320</v>
       </c>
     </row>
+    <row r="750" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A750" s="3"/>
+      <c r="B750" s="3"/>
+      <c r="C750" s="2"/>
+      <c r="D750" s="2"/>
+      <c r="E750" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F750" s="4">
+        <v>44203</v>
+      </c>
+      <c r="G750" s="6">
+        <v>26218</v>
+      </c>
+      <c r="H750" s="2" t="s">
+        <v>2557</v>
+      </c>
+      <c r="I750" s="2"/>
+      <c r="J750" s="2"/>
+      <c r="K750" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="L750" s="3"/>
+      <c r="M750" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N750" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="751" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A751" s="3">
+        <v>905588023</v>
+      </c>
+      <c r="B751" s="3">
+        <v>31659718</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E751" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F751" s="4">
+        <v>44209</v>
+      </c>
+      <c r="G751" s="6">
+        <v>27510</v>
+      </c>
+      <c r="H751" s="2"/>
+      <c r="I751" s="2"/>
+      <c r="J751" s="2"/>
+      <c r="K751" s="2"/>
+      <c r="L751" s="3"/>
+      <c r="M751" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N751" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="752" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A752" s="3"/>
+      <c r="B752" s="3"/>
+      <c r="C752" s="2"/>
+      <c r="D752" s="2"/>
+      <c r="E752" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F752" s="4">
+        <v>44207</v>
+      </c>
+      <c r="G752" s="6">
+        <v>27107</v>
+      </c>
+      <c r="H752" s="2" t="s">
+        <v>2559</v>
+      </c>
+      <c r="I752" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J752" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="K752" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="L752" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="M752" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N752" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="753" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A753" s="3"/>
+      <c r="B753" s="3"/>
+      <c r="C753" s="2"/>
+      <c r="D753" s="2"/>
+      <c r="E753" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F753" s="4">
+        <v>44227</v>
+      </c>
+      <c r="G753" s="6">
+        <v>27632</v>
+      </c>
+      <c r="H753" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="I753" s="2"/>
+      <c r="J753" s="2"/>
+      <c r="K753" s="2"/>
+      <c r="L753" s="3"/>
+      <c r="M753" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N753" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="754" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A754" s="3"/>
+      <c r="B754" s="3"/>
+      <c r="C754" s="2"/>
+      <c r="D754" s="2"/>
+      <c r="E754" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F754" s="4">
+        <v>44201</v>
+      </c>
+      <c r="G754" s="6">
+        <v>27160</v>
+      </c>
+      <c r="H754" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="I754" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J754" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="K754" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="L754" s="3" t="s">
+        <v>2565</v>
+      </c>
+      <c r="M754" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N754" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="755" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A755" s="3"/>
+      <c r="B755" s="3"/>
+      <c r="C755" s="2"/>
+      <c r="D755" s="2"/>
+      <c r="E755" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F755" s="4">
+        <v>44208</v>
+      </c>
+      <c r="G755" s="6">
+        <v>26044</v>
+      </c>
+      <c r="H755" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I755" s="2"/>
+      <c r="J755" s="2"/>
+      <c r="K755" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="L755" s="3"/>
+      <c r="M755" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N755" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="756" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A756" s="3"/>
+      <c r="B756" s="3">
+        <v>31659235</v>
+      </c>
+      <c r="C756" s="2"/>
+      <c r="D756" s="2"/>
+      <c r="E756" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F756" s="4">
+        <v>44208</v>
+      </c>
+      <c r="G756" s="6">
+        <v>26043</v>
+      </c>
+      <c r="H756" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="I756" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J756" s="2"/>
+      <c r="K756" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="L756" s="3" t="s">
+        <v>2571</v>
+      </c>
+      <c r="M756" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N756" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="757" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A757" s="3"/>
+      <c r="B757" s="3">
+        <v>31659234</v>
+      </c>
+      <c r="C757" s="2"/>
+      <c r="D757" s="2"/>
+      <c r="E757" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F757" s="4">
+        <v>44208</v>
+      </c>
+      <c r="G757" s="6">
+        <v>26043</v>
+      </c>
+      <c r="H757" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="I757" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J757" s="2"/>
+      <c r="K757" s="2" t="s">
+        <v>2567</v>
+      </c>
+      <c r="L757" s="3" t="s">
+        <v>2568</v>
+      </c>
+      <c r="M757" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N757" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="758" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A758" s="3">
+        <v>905587239</v>
+      </c>
+      <c r="B758" s="3">
+        <v>31659325</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E758" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F758" s="4">
+        <v>44208</v>
+      </c>
+      <c r="G758" s="6">
+        <v>26044</v>
+      </c>
+      <c r="H758" s="2"/>
+      <c r="I758" s="2"/>
+      <c r="J758" s="2"/>
+      <c r="K758" s="2"/>
+      <c r="L758" s="3"/>
+      <c r="M758" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N758" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="759" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A759" s="3">
+        <v>905587237</v>
+      </c>
+      <c r="B759" s="3">
+        <v>31659324</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E759" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F759" s="4">
+        <v>44208</v>
+      </c>
+      <c r="G759" s="6">
+        <v>26044</v>
+      </c>
+      <c r="H759" s="2"/>
+      <c r="I759" s="2"/>
+      <c r="J759" s="2"/>
+      <c r="K759" s="2"/>
+      <c r="L759" s="3"/>
+      <c r="M759" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="N759" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="760" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A760" s="3">
+        <v>905587232</v>
+      </c>
+      <c r="B760" s="3">
+        <v>31659323</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E760" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F760" s="4">
+        <v>44208</v>
+      </c>
+      <c r="G760" s="6">
+        <v>26043</v>
+      </c>
+      <c r="H760" s="2" t="s">
+        <v>2572</v>
+      </c>
+      <c r="I760" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J760" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="K760" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="L760" s="3" t="s">
+        <v>2573</v>
+      </c>
+      <c r="M760" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N760" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="761" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A761" s="3"/>
+      <c r="B761" s="3">
+        <v>31641502</v>
+      </c>
+      <c r="C761" s="2"/>
+      <c r="D761" s="2"/>
+      <c r="E761" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F761" s="4">
+        <v>44215</v>
+      </c>
+      <c r="G761" s="6">
+        <v>24447</v>
+      </c>
+      <c r="H761" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="I761" s="2"/>
+      <c r="J761" s="2"/>
+      <c r="K761" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="L761" s="3"/>
+      <c r="M761" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N761" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="762" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A762" s="3"/>
+      <c r="B762" s="3">
+        <v>31641503</v>
+      </c>
+      <c r="C762" s="2"/>
+      <c r="D762" s="2"/>
+      <c r="E762" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F762" s="4">
+        <v>44215</v>
+      </c>
+      <c r="G762" s="6">
+        <v>24447</v>
+      </c>
+      <c r="H762" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I762" s="2"/>
+      <c r="J762" s="2"/>
+      <c r="K762" s="2" t="s">
+        <v>2580</v>
+      </c>
+      <c r="L762" s="3"/>
+      <c r="M762" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N762" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="763" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A763" s="3"/>
+      <c r="B763" s="3">
+        <v>31641501</v>
+      </c>
+      <c r="C763" s="2"/>
+      <c r="D763" s="2"/>
+      <c r="E763" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F763" s="4">
+        <v>44215</v>
+      </c>
+      <c r="G763" s="6">
+        <v>24447</v>
+      </c>
+      <c r="H763" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I763" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J763" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="K763" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="L763" s="3" t="s">
+        <v>2579</v>
+      </c>
+      <c r="M763" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N763" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="764" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A764" s="3"/>
+      <c r="B764" s="3"/>
+      <c r="C764" s="2"/>
+      <c r="D764" s="2"/>
+      <c r="E764" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F764" s="4">
+        <v>44217</v>
+      </c>
+      <c r="G764" s="6">
+        <v>24450</v>
+      </c>
+      <c r="H764" s="2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I764" s="2"/>
+      <c r="J764" s="2"/>
+      <c r="K764" s="2" t="s">
+        <v>2581</v>
+      </c>
+      <c r="L764" s="3"/>
+      <c r="M764" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N764" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="765" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A765" s="3"/>
+      <c r="B765" s="3"/>
+      <c r="C765" s="2"/>
+      <c r="D765" s="2"/>
+      <c r="E765" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F765" s="4">
+        <v>44201</v>
+      </c>
+      <c r="G765" s="6">
+        <v>24056</v>
+      </c>
+      <c r="H765" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="I765" s="2" t="s">
+        <v>2584</v>
+      </c>
+      <c r="J765" s="2"/>
+      <c r="K765" s="2" t="s">
+        <v>2585</v>
+      </c>
+      <c r="L765" s="3"/>
+      <c r="M765" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N765" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="766" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A766" s="3"/>
+      <c r="B766" s="3"/>
+      <c r="C766" s="2"/>
+      <c r="D766" s="2"/>
+      <c r="E766" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F766" s="4">
+        <v>44201</v>
+      </c>
+      <c r="G766" s="6">
+        <v>24056</v>
+      </c>
+      <c r="H766" s="2" t="s">
+        <v>2534</v>
+      </c>
+      <c r="I766" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J766" s="2"/>
+      <c r="K766" s="2" t="s">
+        <v>2582</v>
+      </c>
+      <c r="L766" s="3" t="s">
+        <v>2583</v>
+      </c>
+      <c r="M766" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="N766" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="767" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A767" s="3">
+        <v>905612380</v>
+      </c>
+      <c r="B767" s="3">
+        <v>31667520</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E767" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F767" s="4">
+        <v>44229</v>
+      </c>
+      <c r="G767" s="6">
+        <v>24690</v>
+      </c>
+      <c r="H767" s="2" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I767" s="2"/>
+      <c r="J767" s="2"/>
+      <c r="K767" s="2" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L767" s="3"/>
+      <c r="M767" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N767" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="768" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A768" s="3"/>
+      <c r="B768" s="3"/>
+      <c r="C768" s="2"/>
+      <c r="D768" s="2"/>
+      <c r="E768" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F768" s="4">
+        <v>44231</v>
+      </c>
+      <c r="G768" s="6">
+        <v>24688</v>
+      </c>
+      <c r="H768" s="2" t="s">
+        <v>2588</v>
+      </c>
+      <c r="I768" s="2"/>
+      <c r="J768" s="2"/>
+      <c r="K768" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L768" s="3"/>
+      <c r="M768" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N768" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="769" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A769" s="3">
+        <v>905582651</v>
+      </c>
+      <c r="B769" s="3">
+        <v>31657818</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E769" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F769" s="4">
+        <v>44204</v>
+      </c>
+      <c r="G769" s="6">
+        <v>22188</v>
+      </c>
+      <c r="H769" s="2" t="s">
+        <v>2590</v>
+      </c>
+      <c r="I769" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J769" s="2" t="s">
+        <v>2591</v>
+      </c>
+      <c r="K769" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="L769" s="3" t="s">
+        <v>2593</v>
+      </c>
+      <c r="M769" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N769" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="770" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A770" s="3"/>
+      <c r="B770" s="3">
+        <v>31664952</v>
+      </c>
+      <c r="C770" s="2"/>
+      <c r="D770" s="2"/>
+      <c r="E770" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F770" s="4">
+        <v>44224</v>
+      </c>
+      <c r="G770" s="6">
+        <v>19947</v>
+      </c>
+      <c r="H770" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I770" s="2"/>
+      <c r="J770" s="2"/>
+      <c r="K770" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="L770" s="3"/>
+      <c r="M770" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N770" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="771" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A771" s="3"/>
+      <c r="B771" s="3"/>
+      <c r="C771" s="2"/>
+      <c r="D771" s="2"/>
+      <c r="E771" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F771" s="4">
+        <v>44226</v>
+      </c>
+      <c r="G771" s="6">
+        <v>20344</v>
+      </c>
+      <c r="H771" s="2" t="s">
+        <v>2432</v>
+      </c>
+      <c r="I771" s="2"/>
+      <c r="J771" s="2"/>
+      <c r="K771" s="2" t="s">
+        <v>2595</v>
+      </c>
+      <c r="L771" s="3"/>
+      <c r="M771" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="N771" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="772" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A772" s="3"/>
+      <c r="B772" s="3"/>
+      <c r="C772" s="2"/>
+      <c r="D772" s="2"/>
+      <c r="E772" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F772" s="4">
+        <v>44226</v>
+      </c>
+      <c r="G772" s="6">
+        <v>20344</v>
+      </c>
+      <c r="H772" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I772" s="2"/>
+      <c r="J772" s="2"/>
+      <c r="K772" s="2" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L772" s="3"/>
+      <c r="M772" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N772" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="773" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A773" s="3"/>
+      <c r="B773" s="3">
+        <v>31637569</v>
+      </c>
+      <c r="C773" s="2"/>
+      <c r="D773" s="2"/>
+      <c r="E773" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F773" s="4">
+        <v>44213</v>
+      </c>
+      <c r="G773" s="6">
+        <v>19028</v>
+      </c>
+      <c r="H773" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="I773" s="2"/>
+      <c r="J773" s="2"/>
+      <c r="K773" s="2" t="s">
+        <v>2597</v>
+      </c>
+      <c r="L773" s="3"/>
+      <c r="M773" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="N773" s="2" t="s">
+        <v>2320</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M749">
+  <conditionalFormatting sqref="M2:M773">
     <cfRule type="containsBlanks" dxfId="5" priority="22">
       <formula>LEN(TRIM(M2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N749">
+  <conditionalFormatting sqref="N1:N773">
     <cfRule type="notContainsText" dxfId="4" priority="17" operator="notContains" text="old">
       <formula>ISERROR(SEARCH("old",N1))</formula>
     </cfRule>
@@ -34182,7 +35037,7 @@
   <conditionalFormatting sqref="J686:J696 J2:J682 J684">
     <cfRule type="duplicateValues" dxfId="2" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E749">
+  <conditionalFormatting sqref="E2:E773">
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(SUMPRODUCT(--($E$1:$E1&lt;&gt;$E$2:$E2)),2)</formula>
     </cfRule>
@@ -34191,7 +35046,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="142"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M749" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M773" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
       <formula1>"Front, Mid, Rear, Dumpbody, Deck, Other, Handrails, Unknown, x"</formula1>
     </dataValidation>
   </dataValidations>

--- a/smseventlog/_resources/csv/FH Frame Cracks History.xlsx
+++ b/smseventlog/_resources/csv/FH Frame Cracks History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10404"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jayme/OneDrive/Python/SMS/smseventlog/_resources/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45189FC-0CFF-1248-B452-0A1DD215E893}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF37997A-E070-FB4A-BD44-94DAD5B6B03B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46200" yWindow="4940" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47820" yWindow="500" windowWidth="39220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7732" uniqueCount="2634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7823" uniqueCount="2660">
   <si>
     <t/>
   </si>
@@ -7977,6 +7977,88 @@
   </si>
   <si>
     <t>F0344-STEERSY-STRHYD-ACCUMULATOR</t>
+  </si>
+  <si>
+    <t>2021-04-03 - WO request submitted. Downloads in folder. No work started yet - DH</t>
+  </si>
+  <si>
+    <t>F0304 - Repair frame crack LHS</t>
+  </si>
+  <si>
+    <t>F0304-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>Frame Crack - LHS Rear, 25 Inch</t>
+  </si>
+  <si>
+    <t>2021-03-07 - All photos, frame inspection sheet and downloads in folder - DH</t>
+  </si>
+  <si>
+    <t>USAAB202104526</t>
+  </si>
+  <si>
+    <t>2021-03-29 - Downloads are in folder, require inspection sheet and all pictures.
+2021-03-31 - Inspection sheet and all photos in folder-DB</t>
+  </si>
+  <si>
+    <t>F0320 - FRAME CRACK HORSECOLLAR</t>
+  </si>
+  <si>
+    <t>F0320-STRUCTR-FRMGRP-MAINFRAME</t>
+  </si>
+  <si>
+    <t>2021-03-16 - 8" crack found @ 10 o'clock position on horsecollar - MB
+2021-03-18 - Photos, inspection sheet and downloads in folder - DH</t>
+  </si>
+  <si>
+    <t>2021-03-30 - All pictures  downloads and frame inspection sheet in foler - DB</t>
+  </si>
+  <si>
+    <t>2021-04-05 - WO request submitted, downloads in folder - No work started yet - DH</t>
+  </si>
+  <si>
+    <t>F0329 REPAIR CRACK ON CANOPY</t>
+  </si>
+  <si>
+    <t>F0329-STRUCTR-BODYGP-DUMPBODY</t>
+  </si>
+  <si>
+    <t>2021-04-05 - WO requested. No work started yet - DH</t>
+  </si>
+  <si>
+    <t>F0335 REPLACE CRACKED WINDSHIELD</t>
+  </si>
+  <si>
+    <t>F0335-CABGRUP-CABSTR</t>
+  </si>
+  <si>
+    <t>F0335 windsheild Cracked</t>
+  </si>
+  <si>
+    <t>2021-04-03 - Downloads in folder
+2021-04-04 - All photos in folder and work completed -DH</t>
+  </si>
+  <si>
+    <t>Frame Crack - Body Alignment Guide Tab</t>
+  </si>
+  <si>
+    <t>2021-03-08 - Downloads and frame inspection sheet in folder. Req. all photos - DH 
+2021-03-09- 4 corners and all before and after pictures plus frame inspection sheet in file -DB</t>
+  </si>
+  <si>
+    <t>USAAB202104525</t>
+  </si>
+  <si>
+    <t>2021-03-31 - Inspection sheet downloads and pictures in folder    - DB</t>
+  </si>
+  <si>
+    <t>F0339-REPLACE CRACKED NOSE CONE</t>
+  </si>
+  <si>
+    <t>F0339-STRUCTR-AXLGRP-NOSECONE</t>
+  </si>
+  <si>
+    <t>2021-03-22 - Not started yet. Should be beginning to remove components this night shift. Frame inspection and DLS in folder - DH</t>
   </si>
 </sst>
 </file>
@@ -8050,7 +8132,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
@@ -8122,66 +8294,6 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8196,27 +8308,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N784" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:N784" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DB9EB3ED-A5AE-A14F-BE41-6F70A132F98A}" name="Table8" displayName="Table8" ref="A1:N801" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:N801" xr:uid="{770DCF22-4040-4F45-A195-204E915BAAAB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N651">
     <sortCondition ref="E2:E651"/>
     <sortCondition ref="F2:F651"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="notification" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="order" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="description" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="floc" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="unit" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="date" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="smr" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="title" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="tsi_part_name" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="tsi_details" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="wo_comments" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="tsi_number" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="location" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{53D3D3F1-E0BA-4340-9121-6CFC3A6BBED5}" name="notification" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{942C54F4-1B74-F744-8422-CE3A00D63E29}" name="order" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{CE58EB44-0294-A540-BADC-B330250F9D5A}" name="description" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A16A2E72-CB27-B343-9AC7-2F2C99794968}" name="floc" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{17079771-16C4-994F-84E9-FE41B9EA26CA}" name="unit" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{67C2E32D-1CB5-6A49-ABE3-6BBF2F8E1295}" name="date" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{A27D90CC-5D75-B846-93C6-6ED559BA716C}" name="smr" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{34E85FBD-6591-4C45-A9D2-90532A4D7F9B}" name="title" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{C8E47BC8-1926-E449-8B19-6F8C56C2D6D4}" name="tsi_part_name" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{D6107AB1-CB21-8F4F-951F-418588B08388}" name="tsi_details" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{15A9F08F-8238-954D-BA0F-85456896E2F2}" name="wo_comments" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{C5867ABD-2C68-284B-9E81-485D59D68A26}" name="tsi_number" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{C16E5D52-8FF8-714E-B524-0088F6DF5EDB}" name="location" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{0509EBCD-9CB8-BB4E-8D44-049AB3209895}" name="_merge" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8232,7 +8344,7 @@
     <tableColumn id="2" xr3:uid="{8BEF7178-E3B4-D149-A75C-2EC7E1E9CBA7}" name="Notification"/>
     <tableColumn id="3" xr3:uid="{11DB8A07-87AD-FE46-8761-2170FE8BBA14}" name="Order"/>
     <tableColumn id="4" xr3:uid="{BBFD0320-2E12-F24A-805F-F04232B9497B}" name="Description2"/>
-    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{85588FB8-9272-344F-8515-99C3D899FF2A}" name="Created on" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{FC0BCB59-BFC5-0643-9D08-977DACD51993}" name="Functional Loc."/>
     <tableColumn id="7" xr3:uid="{016A5D1D-804A-2249-9172-09491E3480EC}" name="Location"/>
     <tableColumn id="9" xr3:uid="{C484CC0E-6555-E74D-8560-E8B5B04E61D3}" name="Unit"/>
@@ -8562,10 +8674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F275D9-6D58-E546-9951-5DFEA9FF85BC}">
-  <dimension ref="A1:N784"/>
+  <dimension ref="A1:N801"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A770" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N773" sqref="N773:N784"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A783" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N784" sqref="N784:N801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35437,33 +35549,597 @@
         <v>2312</v>
       </c>
     </row>
+    <row r="785" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A785" s="3"/>
+      <c r="B785" s="3">
+        <v>31678694</v>
+      </c>
+      <c r="C785" s="2"/>
+      <c r="D785" s="2"/>
+      <c r="E785" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F785" s="4">
+        <v>44289</v>
+      </c>
+      <c r="G785" s="6">
+        <v>29149</v>
+      </c>
+      <c r="H785" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="I785" s="2"/>
+      <c r="J785" s="2"/>
+      <c r="K785" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="L785" s="3"/>
+      <c r="M785" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N785" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="786" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A786" s="3">
+        <v>905650155</v>
+      </c>
+      <c r="B786" s="3">
+        <v>31680844</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E786" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F786" s="4">
+        <v>44261</v>
+      </c>
+      <c r="G786" s="6">
+        <v>28586</v>
+      </c>
+      <c r="H786" s="2" t="s">
+        <v>2637</v>
+      </c>
+      <c r="I786" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="J786" s="2"/>
+      <c r="K786" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="L786" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="M786" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="N786" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="787" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A787" s="3"/>
+      <c r="B787" s="3">
+        <v>31678850</v>
+      </c>
+      <c r="C787" s="2"/>
+      <c r="D787" s="2"/>
+      <c r="E787" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F787" s="4">
+        <v>44283</v>
+      </c>
+      <c r="G787" s="6">
+        <v>25838</v>
+      </c>
+      <c r="H787" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="I787" s="2"/>
+      <c r="J787" s="2"/>
+      <c r="K787" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="L787" s="3"/>
+      <c r="M787" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N787" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="788" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A788" s="3">
+        <v>905660207</v>
+      </c>
+      <c r="B788" s="3">
+        <v>31684532</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E788" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F788" s="4">
+        <v>44271</v>
+      </c>
+      <c r="G788" s="6">
+        <v>25436</v>
+      </c>
+      <c r="H788" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="I788" s="2"/>
+      <c r="J788" s="2"/>
+      <c r="K788" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L788" s="3"/>
+      <c r="M788" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="N788" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="789" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A789" s="3"/>
+      <c r="B789" s="3">
+        <v>31678850</v>
+      </c>
+      <c r="C789" s="2"/>
+      <c r="D789" s="2"/>
+      <c r="E789" s="7" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F789" s="4">
+        <v>44280</v>
+      </c>
+      <c r="G789" s="6">
+        <v>24965</v>
+      </c>
+      <c r="H789" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="I789" s="2"/>
+      <c r="J789" s="2"/>
+      <c r="K789" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="L789" s="3"/>
+      <c r="M789" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N789" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="790" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A790" s="3"/>
+      <c r="B790" s="3">
+        <v>31678861</v>
+      </c>
+      <c r="C790" s="2"/>
+      <c r="D790" s="2"/>
+      <c r="E790" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F790" s="4">
+        <v>44279</v>
+      </c>
+      <c r="G790" s="6">
+        <v>23237</v>
+      </c>
+      <c r="H790" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="I790" s="2"/>
+      <c r="J790" s="2"/>
+      <c r="K790" s="2"/>
+      <c r="L790" s="3"/>
+      <c r="M790" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N790" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="791" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A791" s="3"/>
+      <c r="B791" s="3"/>
+      <c r="C791" s="2"/>
+      <c r="D791" s="2"/>
+      <c r="E791" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F791" s="4">
+        <v>44291</v>
+      </c>
+      <c r="G791" s="6">
+        <v>22529</v>
+      </c>
+      <c r="H791" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="I791" s="2"/>
+      <c r="J791" s="2"/>
+      <c r="K791" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="L791" s="3"/>
+      <c r="M791" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N791" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="792" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A792" s="3">
+        <v>905650233</v>
+      </c>
+      <c r="B792" s="3">
+        <v>31680935</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="E792" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F792" s="4">
+        <v>44261</v>
+      </c>
+      <c r="G792" s="6">
+        <v>21235</v>
+      </c>
+      <c r="H792" s="2"/>
+      <c r="I792" s="2"/>
+      <c r="J792" s="2"/>
+      <c r="K792" s="2"/>
+      <c r="L792" s="3"/>
+      <c r="M792" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="N792" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="793" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A793" s="3"/>
+      <c r="B793" s="3">
+        <v>31678876</v>
+      </c>
+      <c r="C793" s="2"/>
+      <c r="D793" s="2"/>
+      <c r="E793" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F793" s="4">
+        <v>44291</v>
+      </c>
+      <c r="G793" s="6">
+        <v>22007</v>
+      </c>
+      <c r="H793" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="I793" s="2"/>
+      <c r="J793" s="2"/>
+      <c r="K793" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="L793" s="3"/>
+      <c r="M793" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N793" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="794" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A794" s="3">
+        <v>905648809</v>
+      </c>
+      <c r="B794" s="3">
+        <v>31680550</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="E794" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F794" s="4">
+        <v>44260</v>
+      </c>
+      <c r="G794" s="6">
+        <v>21108</v>
+      </c>
+      <c r="H794" s="2"/>
+      <c r="I794" s="2"/>
+      <c r="J794" s="2"/>
+      <c r="K794" s="2"/>
+      <c r="L794" s="3"/>
+      <c r="M794" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="N794" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="795" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A795" s="3">
+        <v>905649700</v>
+      </c>
+      <c r="B795" s="3"/>
+      <c r="C795" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="E795" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F795" s="4">
+        <v>44261</v>
+      </c>
+      <c r="G795" s="6">
+        <v>21108</v>
+      </c>
+      <c r="H795" s="2"/>
+      <c r="I795" s="2"/>
+      <c r="J795" s="2"/>
+      <c r="K795" s="2"/>
+      <c r="L795" s="3"/>
+      <c r="M795" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="N795" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="796" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A796" s="3"/>
+      <c r="B796" s="3">
+        <v>31658181</v>
+      </c>
+      <c r="C796" s="2"/>
+      <c r="D796" s="2"/>
+      <c r="E796" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F796" s="4">
+        <v>44286</v>
+      </c>
+      <c r="G796" s="6">
+        <v>21649</v>
+      </c>
+      <c r="H796" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="I796" s="2"/>
+      <c r="J796" s="2"/>
+      <c r="K796" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="L796" s="3"/>
+      <c r="M796" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N796" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="797" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A797" s="3"/>
+      <c r="B797" s="3">
+        <v>31681241</v>
+      </c>
+      <c r="C797" s="2"/>
+      <c r="D797" s="2"/>
+      <c r="E797" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F797" s="4">
+        <v>44263</v>
+      </c>
+      <c r="G797" s="6">
+        <v>20729</v>
+      </c>
+      <c r="H797" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="I797" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="J797" s="2"/>
+      <c r="K797" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="L797" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="M797" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="N797" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="798" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A798" s="3"/>
+      <c r="B798" s="3">
+        <v>31678844</v>
+      </c>
+      <c r="C798" s="2"/>
+      <c r="D798" s="2"/>
+      <c r="E798" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F798" s="4">
+        <v>44283</v>
+      </c>
+      <c r="G798" s="6">
+        <v>21005</v>
+      </c>
+      <c r="H798" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="I798" s="2"/>
+      <c r="J798" s="2"/>
+      <c r="K798" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="L798" s="3"/>
+      <c r="M798" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N798" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="799" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A799" s="3">
+        <v>905656836</v>
+      </c>
+      <c r="B799" s="3">
+        <v>46703269</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E799" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F799" s="4">
+        <v>44268</v>
+      </c>
+      <c r="G799" s="6">
+        <v>19090</v>
+      </c>
+      <c r="H799" s="2"/>
+      <c r="I799" s="2"/>
+      <c r="J799" s="2"/>
+      <c r="K799" s="2"/>
+      <c r="L799" s="3"/>
+      <c r="M799" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="N799" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="800" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A800" s="3"/>
+      <c r="B800" s="3">
+        <v>31678806</v>
+      </c>
+      <c r="C800" s="2"/>
+      <c r="D800" s="2"/>
+      <c r="E800" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F800" s="4">
+        <v>44279</v>
+      </c>
+      <c r="G800" s="6">
+        <v>17835</v>
+      </c>
+      <c r="H800" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="I800" s="2"/>
+      <c r="J800" s="2"/>
+      <c r="K800" s="2"/>
+      <c r="L800" s="3"/>
+      <c r="M800" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N800" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="801" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A801" s="3"/>
+      <c r="B801" s="3">
+        <v>31678765</v>
+      </c>
+      <c r="C801" s="2"/>
+      <c r="D801" s="2"/>
+      <c r="E801" s="7" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F801" s="4">
+        <v>44276</v>
+      </c>
+      <c r="G801" s="6">
+        <v>18324</v>
+      </c>
+      <c r="H801" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="I801" s="2"/>
+      <c r="J801" s="2"/>
+      <c r="K801" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="L801" s="3"/>
+      <c r="M801" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N801" s="2" t="s">
+        <v>2312</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M784">
-    <cfRule type="containsBlanks" dxfId="22" priority="22">
+  <conditionalFormatting sqref="M2:M801">
+    <cfRule type="containsBlanks" dxfId="5" priority="22">
       <formula>LEN(TRIM(M2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N784">
-    <cfRule type="notContainsText" dxfId="21" priority="17" operator="notContains" text="old">
+  <conditionalFormatting sqref="N1:N801">
+    <cfRule type="notContainsText" dxfId="4" priority="17" operator="notContains" text="old">
       <formula>ISERROR(SEARCH("old",N1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H686:H696 H2:H682 H684">
-    <cfRule type="duplicateValues" dxfId="20" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J686:J696 J2:J682 J684">
-    <cfRule type="duplicateValues" dxfId="19" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E784">
-    <cfRule type="expression" dxfId="18" priority="7">
+  <conditionalFormatting sqref="E2:E801">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(SUMPRODUCT(--($E$1:$E1&lt;&gt;$E$2:$E2)),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B725:B731 B2:B709 B711 B713:B714 B717:B723">
-    <cfRule type="duplicateValues" dxfId="17" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="142"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M784" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M801" xr:uid="{B18D0AFF-BE85-4C42-A36A-788B2F2EBE38}">
       <formula1>"Front, Mid, Rear, Dumpbody, Deck, Other, Handrails, Unknown, x"</formula1>
     </dataValidation>
   </dataValidations>
